--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660A4C1F-1950-C54E-842D-2BF2E9B59215}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17DDB03-BF80-2043-9E47-5057452D931C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="1282">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3320,9 +3320,6 @@
   </si>
   <si>
     <t>QWFpcnRlbEAwOTE5</t>
-  </si>
-  <si>
-    <t>TWFyQDIwMjE</t>
   </si>
   <si>
     <t>Issue Field 7 - Label</t>
@@ -3885,6 +3882,12 @@
   </si>
   <si>
     <t>UmFvQDA4OTE</t>
+  </si>
+  <si>
+    <t>U29hQDIwMjE</t>
+  </si>
+  <si>
+    <t>Tariff</t>
   </si>
 </sst>
 </file>
@@ -4442,10 +4445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4502,10 +4505,10 @@
         <v>1091</v>
       </c>
       <c r="P1" s="22" t="s">
+        <v>1235</v>
+      </c>
+      <c r="Q1" s="22" t="s">
         <v>1236</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -4522,16 +4525,16 @@
         <v>9079239372</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="O2" t="s">
         <v>1092</v>
       </c>
       <c r="P2" s="23" t="s">
+        <v>1237</v>
+      </c>
+      <c r="Q2" s="23" t="s">
         <v>1238</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -4539,7 +4542,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1088</v>
@@ -4548,15 +4551,15 @@
         <v>9078586352</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2390932</v>
+        <v>2394650</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1094</v>
+        <v>1280</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1090</v>
@@ -4565,7 +4568,7 @@
         <v>9079403863</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -4582,7 +4585,7 @@
         <v>9079403863</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -4590,12 +4593,26 @@
         <v>13221514</v>
       </c>
       <c r="B6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D6">
+        <v>8082732588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>13221514</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="D6">
+      <c r="C7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D7">
         <v>9042837429</v>
       </c>
     </row>
@@ -4703,39 +4720,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>1199</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>1201</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>1203</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>1205</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4745,7 +4762,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
@@ -4773,19 +4790,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1209</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>1210</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>1211</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>1212</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>1213</v>
       </c>
     </row>
   </sheetData>
@@ -4820,75 +4837,75 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1214</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>1215</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="21" t="s">
         <v>1216</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>1217</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>1218</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>1219</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>1220</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>1221</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>1222</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>1223</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>1224</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>1225</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C2" s="16">
         <v>3</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>1228</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>1229</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="21" t="s">
         <v>1230</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>1232</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>1233</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -4914,53 +4931,53 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>1265</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>1266</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>1267</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>1268</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>1269</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>1270</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>1271</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>1273</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>1274</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>1276</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>1277</v>
-      </c>
       <c r="I3" s="23" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
   </sheetData>
@@ -5048,43 +5065,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1112</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>1113</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>1114</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>1115</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>1116</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>1117</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>1118</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>1119</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="24" t="s">
         <v>1120</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>1121</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>1122</v>
-      </c>
       <c r="L1" s="22" t="s">
+        <v>1240</v>
+      </c>
+      <c r="M1" s="22" t="s">
         <v>1241</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -5092,19 +5109,19 @@
         <v>1035</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>1123</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>1124</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>1125</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>1126</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
@@ -5116,22 +5133,22 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>1128</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>1129</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>1130</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>1131</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
@@ -5143,22 +5160,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>1132</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="25" t="s">
         <v>1133</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>1134</v>
-      </c>
       <c r="F4" s="22" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
@@ -5170,31 +5187,31 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>1135</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="D5" s="22" t="s">
         <v>1136</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="E5" s="22" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>1137</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="G5" s="22" t="s">
         <v>1138</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="22" t="s">
         <v>1139</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>1140</v>
-      </c>
       <c r="I5" s="22" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
@@ -5203,19 +5220,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>1141</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>1142</v>
-      </c>
       <c r="E6" s="22" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -5228,19 +5245,19 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>1143</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>1144</v>
-      </c>
       <c r="E7" s="22" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
@@ -5253,22 +5270,22 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>1145</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="E8" s="22" t="s">
         <v>1146</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>1147</v>
-      </c>
       <c r="F8" s="22" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
@@ -5280,22 +5297,22 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>1148</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="C9" s="22" t="s">
         <v>1149</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="22" t="s">
         <v>1150</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="22" t="s">
         <v>1151</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="F9" s="22" t="s">
         <v>1152</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>1153</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
@@ -5307,22 +5324,22 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>1154</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="22" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>1155</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="22" t="s">
         <v>1156</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="22" t="s">
         <v>1157</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>1158</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
@@ -5334,22 +5351,22 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>1159</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="C11" s="22" t="s">
         <v>1160</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>1161</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>1162</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="22" t="s">
         <v>1163</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>1164</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
@@ -5361,28 +5378,28 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>1165</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="C12" s="22" t="s">
         <v>1166</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>1167</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="E12" s="22" t="s">
         <v>1168</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="22" t="s">
         <v>1169</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="G12" s="22" t="s">
         <v>1170</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="H12" s="22" t="s">
         <v>1171</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>1172</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -5392,19 +5409,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>1173</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="22" t="s">
         <v>1174</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="D13" s="22" t="s">
         <v>1175</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="E13" s="22" t="s">
         <v>1176</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>1177</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -5417,65 +5434,65 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>1178</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E14" s="25" t="s">
+      <c r="F14" s="24" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>1179</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="H14" s="24" t="s">
         <v>1180</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="I14" s="24" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J14" s="24" t="s">
         <v>1181</v>
       </c>
-      <c r="I14" s="24" t="s">
-        <v>1153</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>1182</v>
-      </c>
       <c r="K14" s="24" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="22" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>1129</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="E15" s="24" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>1130</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="G15" s="22" t="s">
         <v>1184</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>1185</v>
-      </c>
       <c r="H15" s="22" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -5485,19 +5502,19 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>1186</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="C16" s="22" t="s">
         <v>1187</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="22" t="s">
         <v>1188</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>1189</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>1190</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -5510,19 +5527,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>1191</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="C17" s="24" t="s">
         <v>1192</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="D17" s="24" t="s">
         <v>1193</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="E17" s="24" t="s">
         <v>1194</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>1195</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -5535,22 +5552,22 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>1196</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="C18" s="24" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>1197</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="E18" s="24" t="s">
         <v>1247</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>1248</v>
-      </c>
       <c r="F18" s="22" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -5562,66 +5579,66 @@
     </row>
     <row r="19" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>1249</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="C19" s="24" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>1250</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="E19" s="24" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H19" s="24" t="s">
         <v>1124</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>1253</v>
-      </c>
-      <c r="G19" s="24" t="s">
+      <c r="I19" s="26" t="s">
         <v>1254</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="J19" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L19" s="24" t="s">
         <v>1125</v>
       </c>
-      <c r="I19" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>1256</v>
-      </c>
-      <c r="K19" s="26" t="s">
+      <c r="M19" s="24" t="s">
         <v>1257</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>1126</v>
-      </c>
-      <c r="M19" s="24" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>1259</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="C20" s="22" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>1260</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D20" s="24" t="s">
+      <c r="E20" s="24" t="s">
         <v>1261</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="F20" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="G20" s="24" t="s">
         <v>1263</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>1264</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
@@ -5723,25 +5740,25 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>1096</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>1098</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>23</v>
@@ -5750,7 +5767,7 @@
         <v>21</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>25</v>
@@ -5759,7 +5776,7 @@
         <v>21</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>27</v>
@@ -5768,7 +5785,7 @@
         <v>21</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>29</v>
@@ -5777,7 +5794,7 @@
         <v>21</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>31</v>
@@ -5786,10 +5803,10 @@
         <v>21</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>21</v>
@@ -5801,25 +5818,25 @@
         <v>33</v>
       </c>
       <c r="AX1" s="18" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AY1" s="18" t="s">
         <v>1105</v>
       </c>
-      <c r="AY1" s="18" t="s">
+      <c r="AZ1" s="18" t="s">
         <v>1106</v>
       </c>
-      <c r="AZ1" s="18" t="s">
+      <c r="BA1" s="18" t="s">
         <v>1107</v>
       </c>
-      <c r="BA1" s="18" t="s">
+      <c r="BB1" s="18" t="s">
         <v>1108</v>
       </c>
-      <c r="BB1" s="18" t="s">
+      <c r="BC1" s="18" t="s">
         <v>1109</v>
       </c>
-      <c r="BC1" s="18" t="s">
+      <c r="BD1" s="19" t="s">
         <v>1110</v>
-      </c>
-      <c r="BD1" s="19" t="s">
-        <v>1111</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>34</v>
@@ -5972,25 +5989,25 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>1096</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>1098</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>23</v>
@@ -5999,7 +6016,7 @@
         <v>21</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>25</v>
@@ -6008,7 +6025,7 @@
         <v>21</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>27</v>
@@ -6017,7 +6034,7 @@
         <v>21</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>29</v>
@@ -6026,7 +6043,7 @@
         <v>21</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>31</v>
@@ -6035,10 +6052,10 @@
         <v>21</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>21</v>
@@ -6050,25 +6067,25 @@
         <v>33</v>
       </c>
       <c r="AX1" s="18" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AY1" s="18" t="s">
         <v>1105</v>
       </c>
-      <c r="AY1" s="18" t="s">
+      <c r="AZ1" s="18" t="s">
         <v>1106</v>
       </c>
-      <c r="AZ1" s="18" t="s">
+      <c r="BA1" s="18" t="s">
         <v>1107</v>
       </c>
-      <c r="BA1" s="18" t="s">
+      <c r="BB1" s="18" t="s">
         <v>1108</v>
       </c>
-      <c r="BB1" s="18" t="s">
+      <c r="BC1" s="18" t="s">
         <v>1109</v>
       </c>
-      <c r="BC1" s="18" t="s">
+      <c r="BD1" s="19" t="s">
         <v>1110</v>
-      </c>
-      <c r="BD1" s="19" t="s">
-        <v>1111</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>34</v>

--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17DDB03-BF80-2043-9E47-5057452D931C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA2DE1A-186D-CE46-B5B4-96C245A15AEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="1283">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3888,6 +3888,9 @@
   </si>
   <si>
     <t>Tariff</t>
+  </si>
+  <si>
+    <t>UmFvQDA4OTI</t>
   </si>
 </sst>
 </file>
@@ -4448,7 +4451,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4593,7 +4596,7 @@
         <v>13221514</v>
       </c>
       <c r="B6" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="C6" t="s">
         <v>1278</v>

--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA2DE1A-186D-CE46-B5B4-96C245A15AEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B371ACC-32BB-0647-AF6B-B7785BDE7DDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4451,7 +4451,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4516,10 +4516,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2388008</v>
+        <v>2394650</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1093</v>
+        <v>1280</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1087</v>
@@ -4621,8 +4621,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="July@123$" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" display="July@123$" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId1" display="July@123$" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId2" display="July@123$" xr:uid="{E9178AFA-444B-724D-8F50-C99EA7A32897}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B371ACC-32BB-0647-AF6B-B7785BDE7DDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43130AD9-04D6-8041-8233-91166FA3559E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4451,13 +4451,13 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43130AD9-04D6-8041-8233-91166FA3559E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B8FFD6-ADAB-D846-8122-A26AE4069EA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35200" windowHeight="10420" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Ticket Transfer Rules" sheetId="16" r:id="rId12"/>
     <sheet name="Authentication Policy" sheetId="17" r:id="rId13"/>
     <sheet name="Action Tagging" sheetId="18" r:id="rId14"/>
+    <sheet name="State Queue Mapping" sheetId="19" r:id="rId15"/>
+    <sheet name="Transfer To Queue" sheetId="20" r:id="rId16"/>
+    <sheet name="QuestionAnswerKey" sheetId="21" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="1348">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3891,13 +3894,208 @@
   </si>
   <si>
     <t>UmFvQDA4OTI</t>
+  </si>
+  <si>
+    <t>CS Beta User</t>
+  </si>
+  <si>
+    <t>Auth Pop up(TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>reverseTransaction</t>
+  </si>
+  <si>
+    <t>resetPin</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>unblock</t>
+  </si>
+  <si>
+    <t>sendNotification</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>resetMe2UPassword</t>
+  </si>
+  <si>
+    <t>simUnBarring</t>
+  </si>
+  <si>
+    <t>simBarring</t>
+  </si>
+  <si>
+    <t>changeServiceClass</t>
+  </si>
+  <si>
+    <t>Queue Name</t>
+  </si>
+  <si>
+    <t>State name1</t>
+  </si>
+  <si>
+    <t>State name2</t>
+  </si>
+  <si>
+    <t>State name3</t>
+  </si>
+  <si>
+    <t>State name4</t>
+  </si>
+  <si>
+    <t>State name5</t>
+  </si>
+  <si>
+    <t>State name6</t>
+  </si>
+  <si>
+    <t>State name7</t>
+  </si>
+  <si>
+    <t>State name8</t>
+  </si>
+  <si>
+    <t>State name9</t>
+  </si>
+  <si>
+    <t>State name10</t>
+  </si>
+  <si>
+    <t>Transfer Anyway</t>
+  </si>
+  <si>
+    <t>Question Label</t>
+  </si>
+  <si>
+    <t>Question_Key</t>
+  </si>
+  <si>
+    <t>Answer_key</t>
+  </si>
+  <si>
+    <t>Airtel Money Name</t>
+  </si>
+  <si>
+    <t>AM_NAME</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.firstName</t>
+  </si>
+  <si>
+    <t>Available Credit Balance</t>
+  </si>
+  <si>
+    <t>AVAILABLE_CREDIT_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/account/plans.result.mainAccountBalance.balance</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.dob</t>
+  </si>
+  <si>
+    <t>GSM Name</t>
+  </si>
+  <si>
+    <t>GSM_NAME</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.name</t>
+  </si>
+  <si>
+    <t>Usage History Last Five Transaction</t>
+  </si>
+  <si>
+    <t>LAST_FIVE_TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>Last Recharge Date</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_DATE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].dateTime</t>
+  </si>
+  <si>
+    <t>Last Recharge Value</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_VALUE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].charges</t>
+  </si>
+  <si>
+    <t>Last Transaction Amount</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_AMOUNT</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].amount</t>
+  </si>
+  <si>
+    <t>Last Transaction Id</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].transactionId</t>
+  </si>
+  <si>
+    <t>Last Transaction Msisdn</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_MSISDN</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].msisdn</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>NATIONAL_ID</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.identificationNo</t>
+  </si>
+  <si>
+    <t>Register Id</t>
+  </si>
+  <si>
+    <t>REGISTERED_ID</t>
+  </si>
+  <si>
+    <t>Two Last Dialled Number</t>
+  </si>
+  <si>
+    <t>TWO_LAST_DIALLED_NUMBER</t>
+  </si>
+  <si>
+    <t>AM Wallet Balance</t>
+  </si>
+  <si>
+    <t>WALLET_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3927,6 +4125,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4028,11 +4245,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4066,10 +4287,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{8D78A12A-8C2F-E648-A505-440691B5C423}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{F890F564-711D-AA42-8146-01263568089E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4450,8 +4693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4530,8 +4773,8 @@
       <c r="I2" s="23" t="s">
         <v>1239</v>
       </c>
-      <c r="O2" t="s">
-        <v>1092</v>
+      <c r="O2" s="1" t="s">
+        <v>1283</v>
       </c>
       <c r="P2" s="23" t="s">
         <v>1237</v>
@@ -4918,74 +5161,578 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="17.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="7" width="9.1640625" style="29"/>
+    <col min="8" max="8" width="17.1640625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>1189</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="25" t="s">
         <v>1264</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="25" t="s">
         <v>1265</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="25" t="s">
         <v>1266</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="25" t="s">
         <v>1267</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="25" t="s">
         <v>1268</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="25" t="s">
         <v>1269</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="27" t="s">
         <v>1270</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="27" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="J1" s="28" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>1272</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="30" t="s">
         <v>1273</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="30" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>1275</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="31" t="s">
         <v>1276</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="31" t="s">
         <v>1276</v>
+      </c>
+      <c r="J3" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB57DD0-967E-4842-BE29-7B499F6000C1}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A81032-F80C-E542-B359-572A45EB4A16}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A90F4D5-784B-3B47-A669-E78E3BB72BBD}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -14518,7 +15265,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14553,6 +15300,9 @@
       <c r="C2" s="11" t="s">
         <v>71</v>
       </c>
+      <c r="D2" s="1">
+        <v>8082732588</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -14564,6 +15314,9 @@
       <c r="C3" s="11" t="s">
         <v>72</v>
       </c>
+      <c r="D3" s="1">
+        <v>8082732588</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -14575,6 +15328,9 @@
       <c r="C4" s="11" t="s">
         <v>73</v>
       </c>
+      <c r="D4" s="1">
+        <v>8082732588</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -14585,6 +15341,9 @@
       </c>
       <c r="C5" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8082732588</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B8FFD6-ADAB-D846-8122-A26AE4069EA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D8B8FFD6-ADAB-D846-8122-A26AE4069EA5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35200" windowHeight="10420" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="16" firstSheet="6" windowHeight="10420" windowWidth="35200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="Priority" sheetId="9" r:id="rId2"/>
-    <sheet name="Headers" sheetId="13" r:id="rId3"/>
-    <sheet name="NFTRTickets-San" sheetId="10" r:id="rId4"/>
-    <sheet name="NFTRTickets-Reg" sheetId="2" r:id="rId5"/>
-    <sheet name="FTRTickets-San" sheetId="11" r:id="rId6"/>
-    <sheet name="FTRTickets-Reg" sheetId="3" r:id="rId7"/>
-    <sheet name="UserManagement" sheetId="14" r:id="rId8"/>
-    <sheet name="PinnedTags" sheetId="6" r:id="rId9"/>
-    <sheet name="Ticket State" sheetId="8" r:id="rId10"/>
-    <sheet name="TemplateManagement" sheetId="15" r:id="rId11"/>
-    <sheet name="Ticket Transfer Rules" sheetId="16" r:id="rId12"/>
-    <sheet name="Authentication Policy" sheetId="17" r:id="rId13"/>
-    <sheet name="Action Tagging" sheetId="18" r:id="rId14"/>
-    <sheet name="State Queue Mapping" sheetId="19" r:id="rId15"/>
-    <sheet name="Transfer To Queue" sheetId="20" r:id="rId16"/>
-    <sheet name="QuestionAnswerKey" sheetId="21" r:id="rId17"/>
+    <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
+    <sheet name="Priority" r:id="rId2" sheetId="9"/>
+    <sheet name="Headers" r:id="rId3" sheetId="13"/>
+    <sheet name="NFTRTickets-San" r:id="rId4" sheetId="10"/>
+    <sheet name="NFTRTickets-Reg" r:id="rId5" sheetId="2"/>
+    <sheet name="FTRTickets-San" r:id="rId6" sheetId="11"/>
+    <sheet name="FTRTickets-Reg" r:id="rId7" sheetId="3"/>
+    <sheet name="UserManagement" r:id="rId8" sheetId="14"/>
+    <sheet name="PinnedTags" r:id="rId9" sheetId="6"/>
+    <sheet name="Ticket State" r:id="rId10" sheetId="8"/>
+    <sheet name="TemplateManagement" r:id="rId11" sheetId="15"/>
+    <sheet name="Ticket Transfer Rules" r:id="rId12" sheetId="16"/>
+    <sheet name="Authentication Policy" r:id="rId13" sheetId="17"/>
+    <sheet name="Action Tagging" r:id="rId14" sheetId="18"/>
+    <sheet name="State Queue Mapping" r:id="rId15" sheetId="19"/>
+    <sheet name="Transfer To Queue" r:id="rId16" sheetId="20"/>
+    <sheet name="QuestionAnswerKey" r:id="rId17" sheetId="21"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="1354">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4089,12 +4089,31 @@
   </si>
   <si>
     <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
+  </si>
+  <si>
+    <t>130621000948</t>
+  </si>
+  <si>
+    <t>130621000949</t>
+  </si>
+  <si>
+    <t>130621000950</t>
+  </si>
+  <si>
+    <t>130621000951</t>
+  </si>
+  <si>
+    <t>130621000953</t>
+  </si>
+  <si>
+    <t>130621000954</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4246,76 +4265,76 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="5" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{8D78A12A-8C2F-E648-A505-440691B5C423}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{F890F564-711D-AA42-8146-01263568089E}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4328,7 +4347,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4352,7 +4371,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4400,7 +4419,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4433,10 +4452,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4471,7 +4490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4506,7 +4525,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4600,21 +4619,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4631,7 +4650,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4683,14 +4702,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4699,12 +4718,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4864,16 +4883,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="July@123$" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B2" r:id="rId2" display="July@123$" xr:uid="{E9178AFA-444B-724D-8F50-C99EA7A32897}"/>
+    <hyperlink display="July@123$" r:id="rId1" ref="B4" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink display="July@123$" r:id="rId2" ref="B2" xr:uid="{E9178AFA-444B-724D-8F50-C99EA7A32897}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId3" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4882,12 +4901,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -4898,7 +4917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>54</v>
       </c>
@@ -4907,7 +4926,7 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>55</v>
       </c>
@@ -4916,7 +4935,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>57</v>
       </c>
@@ -4925,7 +4944,7 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>58</v>
       </c>
@@ -4934,7 +4953,7 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -4946,12 +4965,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4960,8 +4979,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.1640625" style="16" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="16" width="35.33203125" collapsed="true"/>
+    <col min="2" max="16384" style="16" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -5012,26 +5031,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="16"/>
-    <col min="2" max="2" width="15.33203125" style="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23" style="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.6640625" style="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1640625" style="16"/>
+    <col min="1" max="1" style="16" width="9.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="16" width="15.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="16" width="42.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="16" width="23.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="16" width="31.6640625" collapsed="true"/>
+    <col min="6" max="16384" style="16" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -5052,12 +5071,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5066,22 +5085,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.1640625" style="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5" style="21" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.1640625" style="21" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="11.5" style="21" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5" style="21" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.6640625" style="21" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5" style="21" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" style="21" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.33203125" style="21" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.5" style="21" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.1640625" style="16"/>
+    <col min="1" max="1" customWidth="true" style="16" width="13.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="16" width="18.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="16" width="22.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="21" width="12.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="21" width="13.1640625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="21" width="11.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="21" width="12.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="21" width="11.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="21" width="11.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="21" width="12.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="21" width="13.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="21" width="13.5" collapsed="true"/>
+    <col min="14" max="16384" style="16" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>1213</v>
       </c>
@@ -5122,7 +5141,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+    <row ht="153" r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>1234</v>
       </c>
@@ -5155,12 +5174,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5169,13 +5188,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="9.1640625" style="29"/>
-    <col min="8" max="8" width="17.1640625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="29"/>
+    <col min="1" max="7" style="29" width="9.1640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="29" width="17.1640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="29" width="16.6640625" collapsed="true"/>
+    <col min="10" max="16384" style="29" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row ht="48" r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>1189</v>
       </c>
@@ -5207,7 +5226,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row ht="34" r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>1272</v>
       </c>
@@ -5227,7 +5246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row ht="32" r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>1275</v>
       </c>
@@ -5247,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row ht="32" r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>1285</v>
       </c>
@@ -5263,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>1286</v>
       </c>
@@ -5279,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>1287</v>
       </c>
@@ -5295,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>1288</v>
       </c>
@@ -5311,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row ht="32" r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>1289</v>
       </c>
@@ -5327,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>1290</v>
       </c>
@@ -5343,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row ht="48" r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>1291</v>
       </c>
@@ -5359,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row ht="32" r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>1292</v>
       </c>
@@ -5375,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row ht="32" r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>1293</v>
       </c>
@@ -5391,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row ht="32" r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>1294</v>
       </c>
@@ -5408,13 +5427,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB57DD0-967E-4842-BE29-7B499F6000C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB57DD0-967E-4842-BE29-7B499F6000C1}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5458,7 +5477,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>75</v>
       </c>
@@ -5479,7 +5498,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>76</v>
       </c>
@@ -5501,12 +5520,12 @@
       <c r="K3" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A81032-F80C-E542-B359-572A45EB4A16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A81032-F80C-E542-B359-572A45EB4A16}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5515,10 +5534,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="29"/>
+    <col min="1" max="16384" style="29" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row ht="34" r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>1211</v>
       </c>
@@ -5529,7 +5548,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>75</v>
       </c>
@@ -5540,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>76</v>
       </c>
@@ -5552,12 +5571,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A90F4D5-784B-3B47-A669-E78E3BB72BBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A90F4D5-784B-3B47-A669-E78E3BB72BBD}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5566,13 +5585,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="62.33203125" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="29"/>
+    <col min="1" max="1" customWidth="true" style="29" width="37.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="29" width="39.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="29" width="62.33203125" collapsed="true"/>
+    <col min="4" max="16384" style="29" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>1307</v>
       </c>
@@ -5583,7 +5602,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>1310</v>
       </c>
@@ -5594,7 +5613,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>1313</v>
       </c>
@@ -5605,7 +5624,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>1233</v>
       </c>
@@ -5616,7 +5635,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
         <v>1318</v>
       </c>
@@ -5627,7 +5646,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>1321</v>
       </c>
@@ -5636,7 +5655,7 @@
       </c>
       <c r="C6" s="34"/>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>1323</v>
       </c>
@@ -5647,7 +5666,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
         <v>1326</v>
       </c>
@@ -5658,7 +5677,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
         <v>1329</v>
       </c>
@@ -5669,7 +5688,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>1332</v>
       </c>
@@ -5680,7 +5699,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
         <v>1335</v>
       </c>
@@ -5691,7 +5710,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
         <v>1338</v>
       </c>
@@ -5702,7 +5721,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
         <v>1341</v>
       </c>
@@ -5711,7 +5730,7 @@
       </c>
       <c r="C13" s="34"/>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>1343</v>
       </c>
@@ -5720,7 +5739,7 @@
       </c>
       <c r="C14" s="34"/>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row ht="17" r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
         <v>1345</v>
       </c>
@@ -5732,12 +5751,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5746,51 +5765,51 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -5799,18 +5818,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.1640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.1640625" style="16" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.33203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.6640625" style="16" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11" style="16" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="12.5" style="16"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="16" width="33.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="16" width="14.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="16" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="16" width="20.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="16" width="24.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="16" width="25.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="16" width="11.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="16" width="14.1640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="16" width="18.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="16" width="15.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="16" width="11.0" collapsed="true"/>
+    <col min="12" max="16384" style="16" width="12.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -6327,7 +6346,7 @@
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
     </row>
-    <row r="19" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row ht="32" r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>1248</v>
       </c>
@@ -6398,14 +6417,14 @@
       <c r="M20" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6414,12 +6433,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="23" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="5" style="1" width="9.1640625" collapsed="true"/>
+    <col min="6" max="23" customWidth="true" hidden="true" style="1" width="0.0" collapsed="true"/>
+    <col min="24" max="16384" style="1" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
@@ -6598,7 +6617,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>142</v>
       </c>
@@ -6623,8 +6642,11 @@
       <c r="BE2" s="16" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+      <c r="BG2" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row ht="16" r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>142</v>
       </c>
@@ -6649,14 +6671,17 @@
       <c r="BE3" s="16" t="s">
         <v>122</v>
       </c>
+      <c r="BG3" t="s">
+        <v>1353</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6665,10 +6690,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="23" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="16" r="1" s="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
@@ -6847,7 +6872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>83</v>
       </c>
@@ -6864,7 +6889,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>142</v>
       </c>
@@ -6890,7 +6915,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>142</v>
       </c>
@@ -6916,7 +6941,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>142</v>
       </c>
@@ -6942,7 +6967,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>142</v>
       </c>
@@ -6968,7 +6993,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>142</v>
       </c>
@@ -6994,7 +7019,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>142</v>
       </c>
@@ -7020,7 +7045,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>142</v>
       </c>
@@ -7046,7 +7071,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>142</v>
       </c>
@@ -7072,7 +7097,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>142</v>
       </c>
@@ -7098,7 +7123,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>142</v>
       </c>
@@ -7124,7 +7149,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>142</v>
       </c>
@@ -7150,7 +7175,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>142</v>
       </c>
@@ -7176,7 +7201,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>142</v>
       </c>
@@ -7202,7 +7227,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>142</v>
       </c>
@@ -7228,7 +7253,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="17" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>142</v>
       </c>
@@ -7254,7 +7279,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="18" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>142</v>
       </c>
@@ -7280,7 +7305,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="19" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>142</v>
       </c>
@@ -7306,7 +7331,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="20" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>142</v>
       </c>
@@ -7332,7 +7357,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="21" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>142</v>
       </c>
@@ -7358,7 +7383,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="22" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>142</v>
       </c>
@@ -7384,7 +7409,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="23" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>83</v>
       </c>
@@ -7410,7 +7435,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="24" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>83</v>
       </c>
@@ -7436,7 +7461,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="25" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>83</v>
       </c>
@@ -7462,7 +7487,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="26" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>83</v>
       </c>
@@ -7488,7 +7513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="27" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>83</v>
       </c>
@@ -7514,7 +7539,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="28" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>142</v>
       </c>
@@ -7540,7 +7565,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="29" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>83</v>
       </c>
@@ -7566,7 +7591,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="30" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>83</v>
       </c>
@@ -7592,7 +7617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="31" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>83</v>
       </c>
@@ -7618,7 +7643,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="32" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>83</v>
       </c>
@@ -7644,7 +7669,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="33" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>83</v>
       </c>
@@ -7670,7 +7695,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="34" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
@@ -7696,7 +7721,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="35" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>83</v>
       </c>
@@ -7722,7 +7747,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="36" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>83</v>
       </c>
@@ -7748,7 +7773,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="37" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>83</v>
       </c>
@@ -7774,7 +7799,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="38" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>83</v>
       </c>
@@ -7800,7 +7825,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="39" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>83</v>
       </c>
@@ -7826,7 +7851,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="40" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>83</v>
       </c>
@@ -7852,7 +7877,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="41" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>83</v>
       </c>
@@ -7878,7 +7903,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="42" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>88</v>
       </c>
@@ -7904,7 +7929,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="43" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>83</v>
       </c>
@@ -7930,7 +7955,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="44" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>83</v>
       </c>
@@ -7956,7 +7981,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="45" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>83</v>
       </c>
@@ -7982,7 +8007,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="46" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -8008,7 +8033,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="47" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>83</v>
       </c>
@@ -8034,7 +8059,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="48" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>83</v>
       </c>
@@ -8060,7 +8085,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="49" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>83</v>
       </c>
@@ -8086,7 +8111,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="50" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>83</v>
       </c>
@@ -8112,7 +8137,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="51" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>83</v>
       </c>
@@ -8138,7 +8163,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="52" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>142</v>
       </c>
@@ -8164,7 +8189,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="53" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>142</v>
       </c>
@@ -8190,7 +8215,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="54" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>83</v>
       </c>
@@ -8216,7 +8241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="55" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>83</v>
       </c>
@@ -8242,7 +8267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="56" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>83</v>
       </c>
@@ -8268,7 +8293,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="57" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>83</v>
       </c>
@@ -8294,7 +8319,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="58" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>83</v>
       </c>
@@ -8320,7 +8345,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="59" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>142</v>
       </c>
@@ -8346,7 +8371,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="60" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>83</v>
       </c>
@@ -8372,7 +8397,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="61" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>83</v>
       </c>
@@ -8398,7 +8423,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="62" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>83</v>
       </c>
@@ -8424,7 +8449,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="63" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>83</v>
       </c>
@@ -8450,7 +8475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="64" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>83</v>
       </c>
@@ -8476,7 +8501,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="65" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>83</v>
       </c>
@@ -8502,7 +8527,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="66" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>83</v>
       </c>
@@ -8528,7 +8553,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="67" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>83</v>
       </c>
@@ -8554,7 +8579,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="68" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>83</v>
       </c>
@@ -8580,7 +8605,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="69" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>83</v>
       </c>
@@ -8606,7 +8631,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="70" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
         <v>83</v>
       </c>
@@ -8632,7 +8657,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="71" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>83</v>
       </c>
@@ -8658,7 +8683,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="72" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>83</v>
       </c>
@@ -8684,7 +8709,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="73" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>83</v>
       </c>
@@ -8710,7 +8735,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="74" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
         <v>83</v>
       </c>
@@ -8736,7 +8761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="75" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>83</v>
       </c>
@@ -8762,7 +8787,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="76" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>83</v>
       </c>
@@ -8788,7 +8813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="77" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>83</v>
       </c>
@@ -8814,7 +8839,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="78" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
         <v>83</v>
       </c>
@@ -8840,7 +8865,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="79" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>83</v>
       </c>
@@ -8866,7 +8891,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="80" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>83</v>
       </c>
@@ -8892,7 +8917,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="81" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>142</v>
       </c>
@@ -8918,7 +8943,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="82" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>83</v>
       </c>
@@ -8944,7 +8969,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="83" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>88</v>
       </c>
@@ -8970,7 +8995,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="84" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>83</v>
       </c>
@@ -8996,7 +9021,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="85" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>83</v>
       </c>
@@ -9022,7 +9047,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="86" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
         <v>83</v>
       </c>
@@ -9048,7 +9073,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="87" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>142</v>
       </c>
@@ -9074,7 +9099,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="88" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
         <v>83</v>
       </c>
@@ -9100,7 +9125,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="89" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
         <v>83</v>
       </c>
@@ -9126,7 +9151,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="90" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>83</v>
       </c>
@@ -9152,7 +9177,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="91" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>83</v>
       </c>
@@ -9178,7 +9203,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="92" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>142</v>
       </c>
@@ -9204,7 +9229,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="93" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>142</v>
       </c>
@@ -9230,7 +9255,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="94" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>142</v>
       </c>
@@ -9256,7 +9281,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="95" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>142</v>
       </c>
@@ -9282,7 +9307,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="96" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>83</v>
       </c>
@@ -9299,7 +9324,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="97" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="97" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
         <v>83</v>
       </c>
@@ -9316,7 +9341,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="98" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="98" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
         <v>83</v>
       </c>
@@ -9333,7 +9358,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="99" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="99" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
         <v>83</v>
       </c>
@@ -9350,7 +9375,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="100" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="100" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>83</v>
       </c>
@@ -9367,7 +9392,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="101" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="101" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
         <v>83</v>
       </c>
@@ -9384,7 +9409,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="102" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="102" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
         <v>83</v>
       </c>
@@ -9410,7 +9435,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="103" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
         <v>83</v>
       </c>
@@ -9436,7 +9461,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="104" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="104" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
         <v>83</v>
       </c>
@@ -9462,7 +9487,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="105" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
         <v>83</v>
       </c>
@@ -9488,7 +9513,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="106" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>142</v>
       </c>
@@ -9514,7 +9539,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="107" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>142</v>
       </c>
@@ -9540,7 +9565,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="108" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="108" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>142</v>
       </c>
@@ -9566,7 +9591,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="109" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
         <v>83</v>
       </c>
@@ -9592,7 +9617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="110" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
         <v>83</v>
       </c>
@@ -9618,7 +9643,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="111" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>142</v>
       </c>
@@ -9644,7 +9669,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="112" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>83</v>
       </c>
@@ -9670,7 +9695,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="113" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
         <v>83</v>
       </c>
@@ -9687,7 +9712,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="114" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="114" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
         <v>83</v>
       </c>
@@ -9704,7 +9729,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="115" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
         <v>83</v>
       </c>
@@ -9721,7 +9746,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="116" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="116" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>142</v>
       </c>
@@ -9738,7 +9763,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="117" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="117" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>142</v>
       </c>
@@ -9755,7 +9780,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="118" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="118" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
         <v>83</v>
       </c>
@@ -9772,7 +9797,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="119" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="119" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
         <v>83</v>
       </c>
@@ -9789,7 +9814,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="120" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="120" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
         <v>83</v>
       </c>
@@ -9806,7 +9831,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="121" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="121" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
         <v>83</v>
       </c>
@@ -9823,7 +9848,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="122" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="122" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>142</v>
       </c>
@@ -9840,7 +9865,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="123" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="123" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>142</v>
       </c>
@@ -9857,7 +9882,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="124" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="124" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
         <v>83</v>
       </c>
@@ -9874,7 +9899,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="125" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="125" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
         <v>83</v>
       </c>
@@ -9900,7 +9925,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="126" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
         <v>83</v>
       </c>
@@ -9926,7 +9951,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="127" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
         <v>83</v>
       </c>
@@ -9952,7 +9977,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="128" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="128" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
         <v>83</v>
       </c>
@@ -9978,7 +10003,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
         <v>83</v>
       </c>
@@ -9995,7 +10020,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
         <v>83</v>
       </c>
@@ -10012,7 +10037,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
         <v>83</v>
       </c>
@@ -10029,7 +10054,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
         <v>83</v>
       </c>
@@ -10046,7 +10071,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
         <v>83</v>
       </c>
@@ -10063,7 +10088,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
         <v>83</v>
       </c>
@@ -10080,7 +10105,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>83</v>
       </c>
@@ -10097,7 +10122,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
         <v>83</v>
       </c>
@@ -10114,7 +10139,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
         <v>83</v>
       </c>
@@ -10131,7 +10156,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
         <v>83</v>
       </c>
@@ -10148,7 +10173,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
         <v>83</v>
       </c>
@@ -10165,7 +10190,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
         <v>83</v>
       </c>
@@ -10182,7 +10207,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
         <v>83</v>
       </c>
@@ -10199,7 +10224,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
         <v>83</v>
       </c>
@@ -10216,7 +10241,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>142</v>
       </c>
@@ -10233,7 +10258,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>142</v>
       </c>
@@ -10250,7 +10275,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="145" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="145" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>142</v>
       </c>
@@ -10267,7 +10292,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="146" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="146" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
         <v>142</v>
       </c>
@@ -10284,7 +10309,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="147" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="147" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>142</v>
       </c>
@@ -10301,7 +10326,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="148" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="148" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
         <v>83</v>
       </c>
@@ -10318,7 +10343,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="149" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="149" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
         <v>83</v>
       </c>
@@ -10335,7 +10360,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="150" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="150" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
         <v>83</v>
       </c>
@@ -10361,7 +10386,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="151" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="151" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
         <v>83</v>
       </c>
@@ -10387,7 +10412,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="152" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
         <v>83</v>
       </c>
@@ -10413,7 +10438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="153" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
         <v>83</v>
       </c>
@@ -10439,7 +10464,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="154" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="154" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
         <v>83</v>
       </c>
@@ -10465,7 +10490,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="155" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="155" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
         <v>83</v>
       </c>
@@ -10491,7 +10516,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="156" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="156" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
         <v>83</v>
       </c>
@@ -10508,7 +10533,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="157" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="157" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
         <v>83</v>
       </c>
@@ -10525,7 +10550,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="158" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="158" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>83</v>
       </c>
@@ -10542,7 +10567,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="159" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="159" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
         <v>83</v>
       </c>
@@ -10559,7 +10584,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="160" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="160" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
         <v>83</v>
       </c>
@@ -10576,7 +10601,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="161" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="161" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
         <v>83</v>
       </c>
@@ -10593,7 +10618,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="162" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="162" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
         <v>83</v>
       </c>
@@ -10610,7 +10635,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="163" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="163" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
         <v>83</v>
       </c>
@@ -10627,7 +10652,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="164" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="164" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
         <v>83</v>
       </c>
@@ -10644,7 +10669,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="165" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="165" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
         <v>83</v>
       </c>
@@ -10670,7 +10695,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="166" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="166" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
         <v>83</v>
       </c>
@@ -10696,7 +10721,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="167" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="167" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>142</v>
       </c>
@@ -10722,7 +10747,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="168" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="168" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
         <v>142</v>
       </c>
@@ -10748,7 +10773,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="169" spans="1:57" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="169" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>142</v>
       </c>
@@ -10775,12 +10800,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10789,12 +10814,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="18.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="60.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="40.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="20.1640625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -10814,7 +10839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>83</v>
       </c>
@@ -10831,7 +10856,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>88</v>
       </c>
@@ -10849,12 +10874,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10863,11 +10888,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="60.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="40.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -10887,7 +10912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>83</v>
       </c>
@@ -10904,7 +10929,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>88</v>
       </c>
@@ -10921,7 +10946,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>93</v>
       </c>
@@ -10938,7 +10963,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>83</v>
       </c>
@@ -10955,7 +10980,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>88</v>
       </c>
@@ -10972,7 +10997,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>93</v>
       </c>
@@ -10989,7 +11014,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>83</v>
       </c>
@@ -11006,7 +11031,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>83</v>
       </c>
@@ -11023,7 +11048,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>93</v>
       </c>
@@ -11040,7 +11065,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>93</v>
       </c>
@@ -11057,7 +11082,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>93</v>
       </c>
@@ -11074,7 +11099,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>93</v>
       </c>
@@ -11091,7 +11116,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>83</v>
       </c>
@@ -11108,7 +11133,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>83</v>
       </c>
@@ -11125,7 +11150,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>83</v>
       </c>
@@ -11142,7 +11167,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>93</v>
       </c>
@@ -11159,7 +11184,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>93</v>
       </c>
@@ -11176,7 +11201,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>93</v>
       </c>
@@ -11193,7 +11218,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>142</v>
       </c>
@@ -11210,7 +11235,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>83</v>
       </c>
@@ -11227,7 +11252,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>83</v>
       </c>
@@ -11244,7 +11269,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>93</v>
       </c>
@@ -11261,7 +11286,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>93</v>
       </c>
@@ -11278,7 +11303,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>93</v>
       </c>
@@ -11295,7 +11320,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>93</v>
       </c>
@@ -11312,7 +11337,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>93</v>
       </c>
@@ -11329,7 +11354,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>93</v>
       </c>
@@ -11346,7 +11371,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>93</v>
       </c>
@@ -11363,7 +11388,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>93</v>
       </c>
@@ -11380,7 +11405,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>93</v>
       </c>
@@ -11397,7 +11422,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>93</v>
       </c>
@@ -11414,7 +11439,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>93</v>
       </c>
@@ -11431,7 +11456,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>93</v>
       </c>
@@ -11448,7 +11473,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>93</v>
       </c>
@@ -11465,7 +11490,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>93</v>
       </c>
@@ -11482,7 +11507,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>93</v>
       </c>
@@ -11499,7 +11524,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>93</v>
       </c>
@@ -11516,7 +11541,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>93</v>
       </c>
@@ -11533,7 +11558,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>93</v>
       </c>
@@ -11550,7 +11575,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>93</v>
       </c>
@@ -11567,7 +11592,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>93</v>
       </c>
@@ -11584,7 +11609,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>93</v>
       </c>
@@ -11601,7 +11626,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>93</v>
       </c>
@@ -11618,7 +11643,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>93</v>
       </c>
@@ -11635,7 +11660,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>93</v>
       </c>
@@ -11652,7 +11677,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>93</v>
       </c>
@@ -11669,7 +11694,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>93</v>
       </c>
@@ -11686,7 +11711,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>88</v>
       </c>
@@ -11703,7 +11728,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>88</v>
       </c>
@@ -11720,7 +11745,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>88</v>
       </c>
@@ -11737,7 +11762,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>88</v>
       </c>
@@ -11754,7 +11779,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>88</v>
       </c>
@@ -11771,7 +11796,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>93</v>
       </c>
@@ -11788,7 +11813,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>93</v>
       </c>
@@ -11805,7 +11830,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>93</v>
       </c>
@@ -11822,7 +11847,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>93</v>
       </c>
@@ -11839,7 +11864,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>93</v>
       </c>
@@ -11856,7 +11881,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>93</v>
       </c>
@@ -11873,7 +11898,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>93</v>
       </c>
@@ -11890,7 +11915,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>93</v>
       </c>
@@ -11907,7 +11932,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>93</v>
       </c>
@@ -11924,7 +11949,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>93</v>
       </c>
@@ -11941,7 +11966,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>93</v>
       </c>
@@ -11958,7 +11983,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>93</v>
       </c>
@@ -11975,7 +12000,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>93</v>
       </c>
@@ -11992,7 +12017,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>93</v>
       </c>
@@ -12009,7 +12034,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>93</v>
       </c>
@@ -12026,7 +12051,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>93</v>
       </c>
@@ -12043,7 +12068,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>93</v>
       </c>
@@ -12060,7 +12085,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>93</v>
       </c>
@@ -12077,7 +12102,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>93</v>
       </c>
@@ -12094,7 +12119,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>93</v>
       </c>
@@ -12111,7 +12136,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>93</v>
       </c>
@@ -12128,7 +12153,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>93</v>
       </c>
@@ -12145,7 +12170,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>142</v>
       </c>
@@ -12162,7 +12187,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>83</v>
       </c>
@@ -12179,7 +12204,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>88</v>
       </c>
@@ -12196,7 +12221,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>83</v>
       </c>
@@ -12213,7 +12238,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>93</v>
       </c>
@@ -12230,7 +12255,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
         <v>83</v>
       </c>
@@ -12247,7 +12272,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>142</v>
       </c>
@@ -12264,7 +12289,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>83</v>
       </c>
@@ -12281,7 +12306,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>83</v>
       </c>
@@ -12298,7 +12323,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>83</v>
       </c>
@@ -12315,7 +12340,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>142</v>
       </c>
@@ -12332,7 +12357,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>142</v>
       </c>
@@ -12349,7 +12374,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
         <v>83</v>
       </c>
@@ -12366,7 +12391,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
         <v>83</v>
       </c>
@@ -12383,7 +12408,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>83</v>
       </c>
@@ -12400,7 +12425,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>142</v>
       </c>
@@ -12417,7 +12442,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>142</v>
       </c>
@@ -12434,7 +12459,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>142</v>
       </c>
@@ -12451,7 +12476,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>142</v>
       </c>
@@ -12468,7 +12493,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>142</v>
       </c>
@@ -12485,7 +12510,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>142</v>
       </c>
@@ -12502,7 +12527,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>142</v>
       </c>
@@ -12519,7 +12544,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
         <v>142</v>
       </c>
@@ -12536,7 +12561,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>142</v>
       </c>
@@ -12553,7 +12578,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
         <v>142</v>
       </c>
@@ -12570,7 +12595,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>142</v>
       </c>
@@ -12587,7 +12612,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>142</v>
       </c>
@@ -12604,7 +12629,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>142</v>
       </c>
@@ -12621,7 +12646,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>142</v>
       </c>
@@ -12638,7 +12663,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>325</v>
       </c>
@@ -12655,7 +12680,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>325</v>
       </c>
@@ -12672,7 +12697,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>325</v>
       </c>
@@ -12689,7 +12714,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>325</v>
       </c>
@@ -12706,7 +12731,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>325</v>
       </c>
@@ -12723,7 +12748,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
         <v>325</v>
       </c>
@@ -12740,7 +12765,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>325</v>
       </c>
@@ -12757,7 +12782,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
         <v>325</v>
       </c>
@@ -12774,7 +12799,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>325</v>
       </c>
@@ -12791,7 +12816,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>325</v>
       </c>
@@ -12808,7 +12833,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>325</v>
       </c>
@@ -12825,7 +12850,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>325</v>
       </c>
@@ -12842,7 +12867,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
         <v>83</v>
       </c>
@@ -12859,7 +12884,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>325</v>
       </c>
@@ -12876,7 +12901,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>325</v>
       </c>
@@ -12893,7 +12918,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>325</v>
       </c>
@@ -12910,7 +12935,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>325</v>
       </c>
@@ -12927,7 +12952,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>325</v>
       </c>
@@ -12944,7 +12969,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>325</v>
       </c>
@@ -12961,7 +12986,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
         <v>325</v>
       </c>
@@ -12978,7 +13003,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>325</v>
       </c>
@@ -12995,7 +13020,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
         <v>325</v>
       </c>
@@ -13012,7 +13037,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>325</v>
       </c>
@@ -13029,7 +13054,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
         <v>325</v>
       </c>
@@ -13046,7 +13071,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>325</v>
       </c>
@@ -13063,7 +13088,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>93</v>
       </c>
@@ -13080,7 +13105,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>93</v>
       </c>
@@ -13097,7 +13122,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
         <v>93</v>
       </c>
@@ -13114,7 +13139,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>325</v>
       </c>
@@ -13131,7 +13156,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
         <v>88</v>
       </c>
@@ -13148,7 +13173,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
         <v>325</v>
       </c>
@@ -13165,7 +13190,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
         <v>325</v>
       </c>
@@ -13182,7 +13207,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>325</v>
       </c>
@@ -13199,7 +13224,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
         <v>88</v>
       </c>
@@ -13216,7 +13241,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>325</v>
       </c>
@@ -13233,7 +13258,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
         <v>325</v>
       </c>
@@ -13250,7 +13275,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>325</v>
       </c>
@@ -13267,7 +13292,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
         <v>325</v>
       </c>
@@ -13284,7 +13309,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>325</v>
       </c>
@@ -13301,7 +13326,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>88</v>
       </c>
@@ -13318,7 +13343,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>325</v>
       </c>
@@ -13335,7 +13360,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
         <v>325</v>
       </c>
@@ -13352,7 +13377,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>325</v>
       </c>
@@ -13369,7 +13394,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
         <v>325</v>
       </c>
@@ -13386,7 +13411,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
         <v>325</v>
       </c>
@@ -13403,7 +13428,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>325</v>
       </c>
@@ -13420,7 +13445,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>325</v>
       </c>
@@ -13437,7 +13462,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
         <v>325</v>
       </c>
@@ -13454,7 +13479,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
         <v>325</v>
       </c>
@@ -13471,7 +13496,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>325</v>
       </c>
@@ -13488,7 +13513,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>325</v>
       </c>
@@ -13505,7 +13530,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
         <v>325</v>
       </c>
@@ -13522,7 +13547,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
         <v>325</v>
       </c>
@@ -13539,7 +13564,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>83</v>
       </c>
@@ -13556,7 +13581,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>325</v>
       </c>
@@ -13573,7 +13598,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
         <v>325</v>
       </c>
@@ -13590,7 +13615,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
         <v>325</v>
       </c>
@@ -13607,7 +13632,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
         <v>325</v>
       </c>
@@ -13624,7 +13649,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>325</v>
       </c>
@@ -13641,7 +13666,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
         <v>88</v>
       </c>
@@ -13658,7 +13683,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>325</v>
       </c>
@@ -13675,7 +13700,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>325</v>
       </c>
@@ -13692,7 +13717,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>325</v>
       </c>
@@ -13709,7 +13734,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
         <v>325</v>
       </c>
@@ -13726,7 +13751,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>325</v>
       </c>
@@ -13743,7 +13768,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
         <v>88</v>
       </c>
@@ -13760,7 +13785,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
         <v>88</v>
       </c>
@@ -13777,7 +13802,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
         <v>325</v>
       </c>
@@ -13794,7 +13819,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
         <v>93</v>
       </c>
@@ -13811,7 +13836,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
         <v>93</v>
       </c>
@@ -13828,7 +13853,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
         <v>93</v>
       </c>
@@ -13845,7 +13870,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="13" t="s">
         <v>325</v>
       </c>
@@ -13862,7 +13887,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
         <v>325</v>
       </c>
@@ -13879,7 +13904,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
         <v>325</v>
       </c>
@@ -13896,7 +13921,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
         <v>325</v>
       </c>
@@ -13913,7 +13938,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
         <v>325</v>
       </c>
@@ -13930,7 +13955,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
         <v>325</v>
       </c>
@@ -13947,7 +13972,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
         <v>325</v>
       </c>
@@ -13964,7 +13989,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
         <v>325</v>
       </c>
@@ -13981,7 +14006,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
         <v>93</v>
       </c>
@@ -13998,7 +14023,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
         <v>93</v>
       </c>
@@ -14015,7 +14040,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
         <v>88</v>
       </c>
@@ -14032,7 +14057,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
         <v>325</v>
       </c>
@@ -14049,7 +14074,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
         <v>88</v>
       </c>
@@ -14066,7 +14091,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
         <v>325</v>
       </c>
@@ -14083,7 +14108,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
         <v>88</v>
       </c>
@@ -14100,7 +14125,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
         <v>325</v>
       </c>
@@ -14117,7 +14142,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
         <v>325</v>
       </c>
@@ -14134,7 +14159,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
         <v>325</v>
       </c>
@@ -14151,7 +14176,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
         <v>325</v>
       </c>
@@ -14168,7 +14193,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
         <v>325</v>
       </c>
@@ -14185,7 +14210,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="14" t="s">
         <v>83</v>
       </c>
@@ -14202,7 +14227,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="14" t="s">
         <v>83</v>
       </c>
@@ -14219,7 +14244,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="14" t="s">
         <v>83</v>
       </c>
@@ -14236,7 +14261,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
         <v>83</v>
       </c>
@@ -14253,7 +14278,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
         <v>83</v>
       </c>
@@ -14270,7 +14295,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
         <v>88</v>
       </c>
@@ -14287,7 +14312,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
         <v>83</v>
       </c>
@@ -14304,7 +14329,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="14" t="s">
         <v>83</v>
       </c>
@@ -14321,7 +14346,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="14" t="s">
         <v>83</v>
       </c>
@@ -14338,7 +14363,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="14" t="s">
         <v>83</v>
       </c>
@@ -14355,7 +14380,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="14" t="s">
         <v>83</v>
       </c>
@@ -14372,7 +14397,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
         <v>325</v>
       </c>
@@ -14389,7 +14414,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
         <v>325</v>
       </c>
@@ -14406,7 +14431,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
         <v>325</v>
       </c>
@@ -14423,7 +14448,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
         <v>325</v>
       </c>
@@ -14440,7 +14465,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
         <v>325</v>
       </c>
@@ -14457,7 +14482,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
         <v>325</v>
       </c>
@@ -14474,7 +14499,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
         <v>325</v>
       </c>
@@ -14491,7 +14516,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
         <v>88</v>
       </c>
@@ -14508,7 +14533,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
         <v>325</v>
       </c>
@@ -14525,7 +14550,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
         <v>88</v>
       </c>
@@ -14542,7 +14567,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
         <v>325</v>
       </c>
@@ -14559,7 +14584,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
         <v>325</v>
       </c>
@@ -14576,7 +14601,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
         <v>325</v>
       </c>
@@ -14593,7 +14618,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
         <v>325</v>
       </c>
@@ -14610,7 +14635,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
         <v>325</v>
       </c>
@@ -14627,7 +14652,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
         <v>325</v>
       </c>
@@ -14644,7 +14669,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
         <v>325</v>
       </c>
@@ -14661,7 +14686,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
         <v>325</v>
       </c>
@@ -14678,7 +14703,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
         <v>325</v>
       </c>
@@ -14695,7 +14720,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
         <v>325</v>
       </c>
@@ -14712,7 +14737,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
         <v>325</v>
       </c>
@@ -14729,7 +14754,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="14" t="s">
         <v>83</v>
       </c>
@@ -14746,7 +14771,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
         <v>325</v>
       </c>
@@ -14763,7 +14788,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
         <v>93</v>
       </c>
@@ -14780,7 +14805,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
         <v>93</v>
       </c>
@@ -14797,7 +14822,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
         <v>93</v>
       </c>
@@ -14814,7 +14839,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
         <v>325</v>
       </c>
@@ -14831,7 +14856,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
         <v>93</v>
       </c>
@@ -14848,7 +14873,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
         <v>325</v>
       </c>
@@ -14865,7 +14890,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
         <v>325</v>
       </c>
@@ -14882,7 +14907,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
         <v>325</v>
       </c>
@@ -14899,7 +14924,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
         <v>325</v>
       </c>
@@ -14916,7 +14941,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
         <v>325</v>
       </c>
@@ -14933,7 +14958,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
         <v>325</v>
       </c>
@@ -14950,7 +14975,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
         <v>325</v>
       </c>
@@ -14967,7 +14992,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
         <v>325</v>
       </c>
@@ -14984,7 +15009,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
         <v>325</v>
       </c>
@@ -15001,7 +15026,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
         <v>325</v>
       </c>
@@ -15018,7 +15043,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
         <v>93</v>
       </c>
@@ -15035,7 +15060,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
         <v>93</v>
       </c>
@@ -15052,7 +15077,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
         <v>93</v>
       </c>
@@ -15069,7 +15094,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
         <v>93</v>
       </c>
@@ -15086,7 +15111,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
         <v>93</v>
       </c>
@@ -15103,7 +15128,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
         <v>93</v>
       </c>
@@ -15120,7 +15145,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
         <v>93</v>
       </c>
@@ -15138,12 +15163,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15152,9 +15177,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.83203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.1640625" style="16"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="16" width="19.5" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="16" width="25.83203125" collapsed="true"/>
+    <col min="4" max="16384" style="16" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -15256,12 +15281,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15270,13 +15295,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -15290,7 +15315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>66</v>
       </c>
@@ -15304,7 +15329,7 @@
         <v>8082732588</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>67</v>
       </c>
@@ -15318,7 +15343,7 @@
         <v>8082732588</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>68</v>
       </c>
@@ -15332,7 +15357,7 @@
         <v>8082732588</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>69</v>
       </c>
@@ -15347,6 +15372,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -1,39 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D8B8FFD6-ADAB-D846-8122-A26AE4069EA5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView activeTab="16" firstSheet="6" windowHeight="10420" windowWidth="35200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="35205" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
-    <sheet name="Priority" r:id="rId2" sheetId="9"/>
-    <sheet name="Headers" r:id="rId3" sheetId="13"/>
-    <sheet name="NFTRTickets-San" r:id="rId4" sheetId="10"/>
-    <sheet name="NFTRTickets-Reg" r:id="rId5" sheetId="2"/>
-    <sheet name="FTRTickets-San" r:id="rId6" sheetId="11"/>
-    <sheet name="FTRTickets-Reg" r:id="rId7" sheetId="3"/>
-    <sheet name="UserManagement" r:id="rId8" sheetId="14"/>
-    <sheet name="PinnedTags" r:id="rId9" sheetId="6"/>
-    <sheet name="Ticket State" r:id="rId10" sheetId="8"/>
-    <sheet name="TemplateManagement" r:id="rId11" sheetId="15"/>
-    <sheet name="Ticket Transfer Rules" r:id="rId12" sheetId="16"/>
-    <sheet name="Authentication Policy" r:id="rId13" sheetId="17"/>
-    <sheet name="Action Tagging" r:id="rId14" sheetId="18"/>
-    <sheet name="State Queue Mapping" r:id="rId15" sheetId="19"/>
-    <sheet name="Transfer To Queue" r:id="rId16" sheetId="20"/>
-    <sheet name="QuestionAnswerKey" r:id="rId17" sheetId="21"/>
+    <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Priority" sheetId="9" r:id="rId2"/>
+    <sheet name="Headers" sheetId="13" r:id="rId3"/>
+    <sheet name="NFTRTickets-San" sheetId="10" r:id="rId4"/>
+    <sheet name="NFTRTickets-Reg" sheetId="2" r:id="rId5"/>
+    <sheet name="FTRTickets-San" sheetId="11" r:id="rId6"/>
+    <sheet name="FTRTickets-Reg" sheetId="3" r:id="rId7"/>
+    <sheet name="UserManagement" sheetId="14" r:id="rId8"/>
+    <sheet name="PinnedTags" sheetId="6" r:id="rId9"/>
+    <sheet name="Ticket State" sheetId="8" r:id="rId10"/>
+    <sheet name="TemplateManagement" sheetId="15" r:id="rId11"/>
+    <sheet name="Ticket Transfer Rules" sheetId="16" r:id="rId12"/>
+    <sheet name="Authentication Policy" sheetId="17" r:id="rId13"/>
+    <sheet name="Action Tagging" sheetId="18" r:id="rId14"/>
+    <sheet name="State Queue Mapping" sheetId="19" r:id="rId15"/>
+    <sheet name="Transfer To Queue" sheetId="20" r:id="rId16"/>
+    <sheet name="QuestionAnswerKey" sheetId="21" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="1362">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4091,29 +4090,52 @@
     <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
   </si>
   <si>
-    <t>130621000948</t>
-  </si>
-  <si>
-    <t>130621000949</t>
-  </si>
-  <si>
-    <t>130621000950</t>
-  </si>
-  <si>
-    <t>130621000951</t>
-  </si>
-  <si>
     <t>130621000953</t>
   </si>
   <si>
     <t>130621000954</t>
+  </si>
+  <si>
+    <t>UC-UT Offer</t>
+  </si>
+  <si>
+    <t>Offer ID</t>
+  </si>
+  <si>
+    <t>Offer Name</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>PAM Service ID</t>
+  </si>
+  <si>
+    <t>Offer Type</t>
+  </si>
+  <si>
+    <t>Offer State</t>
+  </si>
+  <si>
+    <t>No. Of DAs</t>
+  </si>
+  <si>
+    <t>Friends and Family</t>
+  </si>
+  <si>
+    <t>FnF Number</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>FnF Indicator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4265,76 +4287,76 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="35">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="5" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{8D78A12A-8C2F-E648-A505-440691B5C423}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{F890F564-711D-AA42-8146-01263568089E}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4347,7 +4369,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4366,12 +4388,12 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4414,12 +4436,12 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4452,10 +4474,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4490,7 +4512,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4525,7 +4547,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4619,21 +4641,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4650,7 +4672,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4702,28 +4724,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.83203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4776,7 +4798,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2394650</v>
       </c>
@@ -4802,7 +4824,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2388192</v>
       </c>
@@ -4819,7 +4841,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2394650</v>
       </c>
@@ -4836,7 +4858,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2388008</v>
       </c>
@@ -4853,7 +4875,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13221514</v>
       </c>
@@ -4867,7 +4889,7 @@
         <v>8082732588</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>13221514</v>
       </c>
@@ -4883,30 +4905,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="July@123$" r:id="rId1" ref="B4" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink display="July@123$" r:id="rId2" ref="B2" xr:uid="{E9178AFA-444B-724D-8F50-C99EA7A32897}"/>
+    <hyperlink ref="B4" r:id="rId1" display="July@123$"/>
+    <hyperlink ref="B2" r:id="rId2" display="July@123$"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId3" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.1640625" collapsed="true"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="16" r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -4917,7 +4939,7 @@
         <v>46</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>54</v>
       </c>
@@ -4926,7 +4948,7 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row ht="16" r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>55</v>
       </c>
@@ -4935,7 +4957,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row ht="16" r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>57</v>
       </c>
@@ -4944,7 +4966,7 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row ht="16" r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>58</v>
       </c>
@@ -4953,7 +4975,7 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row ht="16" r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -4965,25 +4987,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" activeCellId="1" sqref="I1 J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="16" width="35.33203125" collapsed="true"/>
-    <col min="2" max="16384" style="16" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="35.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>1198</v>
       </c>
@@ -4991,7 +5013,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>1200</v>
       </c>
@@ -4999,7 +5021,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1202</v>
       </c>
@@ -5007,7 +5029,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>1204</v>
       </c>
@@ -5015,45 +5037,45 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>1207</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="9.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="16" width="15.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="16" width="42.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="16" width="23.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="16" width="31.6640625" collapsed="true"/>
-    <col min="6" max="16384" style="16" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="16" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" style="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.7109375" style="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1208</v>
       </c>
@@ -5071,36 +5093,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="16" width="13.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="16" width="18.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="16" width="22.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="21" width="12.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="21" width="13.1640625" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" style="21" width="11.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="21" width="12.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="21" width="11.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="21" width="11.5" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="21" width="12.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="21" width="13.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="21" width="13.5" collapsed="true"/>
-    <col min="14" max="16384" style="16" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="13.7109375" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" style="21" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="11.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.7109375" style="21" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="21" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="17" r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>1213</v>
       </c>
@@ -5141,7 +5163,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row ht="153" r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>1234</v>
       </c>
@@ -5174,27 +5196,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" style="29" width="9.1640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="29" width="17.1640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="29" width="16.6640625" collapsed="true"/>
-    <col min="10" max="16384" style="29" width="9.1640625" collapsed="true"/>
+    <col min="1" max="7" width="9.140625" style="29" collapsed="1"/>
+    <col min="8" max="8" width="17.140625" style="29" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.7109375" style="29" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="29" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="48" r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>1189</v>
       </c>
@@ -5226,7 +5248,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row ht="34" r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>1272</v>
       </c>
@@ -5246,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="32" r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>1275</v>
       </c>
@@ -5266,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="32" r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>1285</v>
       </c>
@@ -5282,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="16" r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>1286</v>
       </c>
@@ -5298,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="16" r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>1287</v>
       </c>
@@ -5314,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="16" r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>1288</v>
       </c>
@@ -5330,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="32" r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>1289</v>
       </c>
@@ -5346,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="16" r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>1290</v>
       </c>
@@ -5362,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="48" r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>1291</v>
       </c>
@@ -5378,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="32" r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>1292</v>
       </c>
@@ -5394,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="32" r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>1293</v>
       </c>
@@ -5410,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="32" r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>1294</v>
       </c>
@@ -5427,22 +5449,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB57DD0-967E-4842-BE29-7B499F6000C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>1295</v>
       </c>
@@ -5477,7 +5499,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>75</v>
       </c>
@@ -5498,7 +5520,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row ht="16" r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>76</v>
       </c>
@@ -5520,24 +5542,24 @@
       <c r="K3" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A81032-F80C-E542-B359-572A45EB4A16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="29" width="10.83203125" collapsed="true"/>
+    <col min="1" max="16384" width="10.85546875" style="29" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="34" r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>1211</v>
       </c>
@@ -5548,7 +5570,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row ht="17" r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>75</v>
       </c>
@@ -5559,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="17" r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>76</v>
       </c>
@@ -5571,27 +5593,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A90F4D5-784B-3B47-A669-E78E3BB72BBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="29" width="37.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="29" width="39.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="29" width="62.33203125" collapsed="true"/>
-    <col min="4" max="16384" style="29" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="37.28515625" style="29" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.140625" style="29" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="62.28515625" style="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="10.85546875" style="29" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="17" r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>1307</v>
       </c>
@@ -5602,7 +5624,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row ht="17" r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>1310</v>
       </c>
@@ -5613,7 +5635,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row ht="17" r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>1313</v>
       </c>
@@ -5624,7 +5646,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row ht="17" r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>1233</v>
       </c>
@@ -5635,7 +5657,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row ht="17" r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>1318</v>
       </c>
@@ -5646,7 +5668,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row ht="17" r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>1321</v>
       </c>
@@ -5655,7 +5677,7 @@
       </c>
       <c r="C6" s="34"/>
     </row>
-    <row ht="17" r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>1323</v>
       </c>
@@ -5666,7 +5688,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row ht="17" r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>1326</v>
       </c>
@@ -5677,7 +5699,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row ht="17" r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>1329</v>
       </c>
@@ -5688,7 +5710,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row ht="17" r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>1332</v>
       </c>
@@ -5699,7 +5721,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row ht="17" r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>1335</v>
       </c>
@@ -5710,7 +5732,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row ht="17" r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>1338</v>
       </c>
@@ -5721,7 +5743,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row ht="17" r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>1341</v>
       </c>
@@ -5730,7 +5752,7 @@
       </c>
       <c r="C13" s="34"/>
     </row>
-    <row ht="17" r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>1343</v>
       </c>
@@ -5739,7 +5761,7 @@
       </c>
       <c r="C14" s="34"/>
     </row>
-    <row ht="17" r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>1345</v>
       </c>
@@ -5751,88 +5773,88 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="16" r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row ht="16" r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row ht="16" r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row ht="16" r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row ht="16" r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row ht="16" r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="16" width="33.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="16" width="14.1640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="16" width="17.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="16" width="20.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="16" width="24.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="16" width="25.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="16" width="11.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="16" width="14.1640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="16" width="18.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="16" width="15.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="16" width="11.0" collapsed="true"/>
-    <col min="12" max="16384" style="16" width="12.5" collapsed="true"/>
+    <col min="1" max="1" width="33.140625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.42578125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.42578125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.7109375" style="16" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11" style="16" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="12.42578125" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>1111</v>
       </c>
@@ -5873,7 +5895,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>1035</v>
       </c>
@@ -5900,7 +5922,7 @@
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>1126</v>
       </c>
@@ -5927,7 +5949,7 @@
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>1131</v>
       </c>
@@ -5954,7 +5976,7 @@
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>1134</v>
       </c>
@@ -5987,7 +6009,7 @@
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>1140</v>
       </c>
@@ -6012,7 +6034,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>1142</v>
       </c>
@@ -6037,7 +6059,7 @@
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>1144</v>
       </c>
@@ -6064,7 +6086,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>1147</v>
       </c>
@@ -6091,7 +6113,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>1153</v>
       </c>
@@ -6118,7 +6140,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>1158</v>
       </c>
@@ -6145,7 +6167,7 @@
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>1164</v>
       </c>
@@ -6176,7 +6198,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>1172</v>
       </c>
@@ -6201,7 +6223,7 @@
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>1177</v>
       </c>
@@ -6238,7 +6260,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>1182</v>
       </c>
@@ -6269,7 +6291,7 @@
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>1185</v>
       </c>
@@ -6294,7 +6316,7 @@
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>1190</v>
       </c>
@@ -6319,7 +6341,7 @@
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>1195</v>
       </c>
@@ -6346,7 +6368,7 @@
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
     </row>
-    <row ht="32" r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>1248</v>
       </c>
@@ -6387,7 +6409,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>1258</v>
       </c>
@@ -6416,29 +6438,93 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" style="1" width="9.1640625" collapsed="true"/>
-    <col min="6" max="23" customWidth="true" hidden="true" style="1" width="0.0" collapsed="true"/>
-    <col min="24" max="16384" style="1" width="9.1640625" collapsed="true"/>
+    <col min="1" max="5" width="9.140625" style="1" collapsed="1"/>
+    <col min="6" max="23" width="0" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="16" r="1" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
@@ -6617,7 +6703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>142</v>
       </c>
@@ -6643,10 +6729,10 @@
         <v>122</v>
       </c>
       <c r="BG2" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row ht="16" r="3" spans="1:59" x14ac:dyDescent="0.2">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>142</v>
       </c>
@@ -6672,28 +6758,28 @@
         <v>122</v>
       </c>
       <c r="BG3" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="23" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="6" max="23" width="0" hidden="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="16" r="1" s="1" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
@@ -6872,7 +6958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>83</v>
       </c>
@@ -6889,7 +6975,7 @@
         <v>727</v>
       </c>
     </row>
-    <row ht="16" r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>142</v>
       </c>
@@ -6915,7 +7001,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="4" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>142</v>
       </c>
@@ -6941,7 +7027,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="5" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>142</v>
       </c>
@@ -6967,7 +7053,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="6" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>142</v>
       </c>
@@ -6993,7 +7079,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>142</v>
       </c>
@@ -7019,7 +7105,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>142</v>
       </c>
@@ -7045,7 +7131,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="9" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>142</v>
       </c>
@@ -7071,7 +7157,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="10" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>142</v>
       </c>
@@ -7097,7 +7183,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>142</v>
       </c>
@@ -7123,7 +7209,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>142</v>
       </c>
@@ -7149,7 +7235,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>142</v>
       </c>
@@ -7175,7 +7261,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="14" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>142</v>
       </c>
@@ -7201,7 +7287,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="15" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>142</v>
       </c>
@@ -7227,7 +7313,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="16" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>142</v>
       </c>
@@ -7253,7 +7339,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="17" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>142</v>
       </c>
@@ -7279,7 +7365,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="18" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>142</v>
       </c>
@@ -7305,7 +7391,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="19" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>142</v>
       </c>
@@ -7331,7 +7417,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="20" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>142</v>
       </c>
@@ -7357,7 +7443,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="21" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>142</v>
       </c>
@@ -7383,7 +7469,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="22" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>142</v>
       </c>
@@ -7409,7 +7495,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="23" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>83</v>
       </c>
@@ -7435,7 +7521,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="24" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>83</v>
       </c>
@@ -7461,7 +7547,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="25" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>83</v>
       </c>
@@ -7487,7 +7573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>83</v>
       </c>
@@ -7513,7 +7599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>83</v>
       </c>
@@ -7539,7 +7625,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>142</v>
       </c>
@@ -7565,7 +7651,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="29" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>83</v>
       </c>
@@ -7591,7 +7677,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="30" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>83</v>
       </c>
@@ -7617,7 +7703,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="31" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>83</v>
       </c>
@@ -7643,7 +7729,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="32" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>83</v>
       </c>
@@ -7669,7 +7755,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="33" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>83</v>
       </c>
@@ -7695,7 +7781,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="34" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
@@ -7721,7 +7807,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="35" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>83</v>
       </c>
@@ -7747,7 +7833,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="36" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>83</v>
       </c>
@@ -7773,7 +7859,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="37" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>83</v>
       </c>
@@ -7799,7 +7885,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="38" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>83</v>
       </c>
@@ -7825,7 +7911,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="39" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>83</v>
       </c>
@@ -7851,7 +7937,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="40" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>83</v>
       </c>
@@ -7877,7 +7963,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="41" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>83</v>
       </c>
@@ -7903,7 +7989,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="42" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>88</v>
       </c>
@@ -7929,7 +8015,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="43" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>83</v>
       </c>
@@ -7955,7 +8041,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="44" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>83</v>
       </c>
@@ -7981,7 +8067,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="45" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>83</v>
       </c>
@@ -8007,7 +8093,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="46" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -8033,7 +8119,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="47" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>83</v>
       </c>
@@ -8059,7 +8145,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="48" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>83</v>
       </c>
@@ -8085,7 +8171,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="49" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>83</v>
       </c>
@@ -8111,7 +8197,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="50" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>83</v>
       </c>
@@ -8137,7 +8223,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="51" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>83</v>
       </c>
@@ -8163,7 +8249,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="52" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>142</v>
       </c>
@@ -8189,7 +8275,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="53" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>142</v>
       </c>
@@ -8215,7 +8301,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="54" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>83</v>
       </c>
@@ -8241,7 +8327,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="55" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>83</v>
       </c>
@@ -8267,7 +8353,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="56" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>83</v>
       </c>
@@ -8293,7 +8379,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="57" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>83</v>
       </c>
@@ -8319,7 +8405,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="58" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>83</v>
       </c>
@@ -8345,7 +8431,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="59" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>142</v>
       </c>
@@ -8371,7 +8457,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="60" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>83</v>
       </c>
@@ -8397,7 +8483,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="61" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>83</v>
       </c>
@@ -8423,7 +8509,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="62" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>83</v>
       </c>
@@ -8449,7 +8535,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="63" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>83</v>
       </c>
@@ -8475,7 +8561,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="64" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>83</v>
       </c>
@@ -8501,7 +8587,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="65" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>83</v>
       </c>
@@ -8527,7 +8613,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="66" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>83</v>
       </c>
@@ -8553,7 +8639,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="67" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>83</v>
       </c>
@@ -8579,7 +8665,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="68" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>83</v>
       </c>
@@ -8605,7 +8691,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="69" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>83</v>
       </c>
@@ -8631,7 +8717,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="70" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>83</v>
       </c>
@@ -8657,7 +8743,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="71" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>83</v>
       </c>
@@ -8683,7 +8769,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="72" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>83</v>
       </c>
@@ -8709,7 +8795,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="73" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>83</v>
       </c>
@@ -8735,7 +8821,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="74" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>83</v>
       </c>
@@ -8761,7 +8847,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="75" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>83</v>
       </c>
@@ -8787,7 +8873,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="76" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>83</v>
       </c>
@@ -8813,7 +8899,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="77" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>83</v>
       </c>
@@ -8839,7 +8925,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="78" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>83</v>
       </c>
@@ -8865,7 +8951,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="79" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>83</v>
       </c>
@@ -8891,7 +8977,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="80" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>83</v>
       </c>
@@ -8917,7 +9003,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="81" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>142</v>
       </c>
@@ -8943,7 +9029,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="82" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>83</v>
       </c>
@@ -8969,7 +9055,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="83" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>88</v>
       </c>
@@ -8995,7 +9081,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="84" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>83</v>
       </c>
@@ -9021,7 +9107,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="85" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>83</v>
       </c>
@@ -9047,7 +9133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="86" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>83</v>
       </c>
@@ -9073,7 +9159,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="87" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>142</v>
       </c>
@@ -9099,7 +9185,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="88" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>83</v>
       </c>
@@ -9125,7 +9211,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="89" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>83</v>
       </c>
@@ -9151,7 +9237,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="90" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>83</v>
       </c>
@@ -9177,7 +9263,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="91" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>83</v>
       </c>
@@ -9203,7 +9289,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="92" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>142</v>
       </c>
@@ -9229,7 +9315,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="93" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>142</v>
       </c>
@@ -9255,7 +9341,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="94" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>142</v>
       </c>
@@ -9281,7 +9367,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="95" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>142</v>
       </c>
@@ -9307,7 +9393,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="96" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>83</v>
       </c>
@@ -9324,7 +9410,7 @@
         <v>948</v>
       </c>
     </row>
-    <row ht="16" r="97" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>83</v>
       </c>
@@ -9341,7 +9427,7 @@
         <v>950</v>
       </c>
     </row>
-    <row ht="16" r="98" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>83</v>
       </c>
@@ -9358,7 +9444,7 @@
         <v>952</v>
       </c>
     </row>
-    <row ht="16" r="99" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>83</v>
       </c>
@@ -9375,7 +9461,7 @@
         <v>954</v>
       </c>
     </row>
-    <row ht="16" r="100" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>83</v>
       </c>
@@ -9392,7 +9478,7 @@
         <v>956</v>
       </c>
     </row>
-    <row ht="16" r="101" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>83</v>
       </c>
@@ -9409,7 +9495,7 @@
         <v>958</v>
       </c>
     </row>
-    <row ht="16" r="102" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>83</v>
       </c>
@@ -9435,7 +9521,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="103" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>83</v>
       </c>
@@ -9461,7 +9547,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="104" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>83</v>
       </c>
@@ -9487,7 +9573,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="105" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>83</v>
       </c>
@@ -9513,7 +9599,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="106" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>142</v>
       </c>
@@ -9539,7 +9625,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="107" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>142</v>
       </c>
@@ -9565,7 +9651,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="108" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>142</v>
       </c>
@@ -9591,7 +9677,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="109" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>83</v>
       </c>
@@ -9617,7 +9703,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="110" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>83</v>
       </c>
@@ -9643,7 +9729,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="111" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>142</v>
       </c>
@@ -9669,7 +9755,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="112" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>83</v>
       </c>
@@ -9695,7 +9781,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="113" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>83</v>
       </c>
@@ -9712,7 +9798,7 @@
         <v>320</v>
       </c>
     </row>
-    <row ht="16" r="114" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>83</v>
       </c>
@@ -9729,7 +9815,7 @@
         <v>322</v>
       </c>
     </row>
-    <row ht="16" r="115" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>83</v>
       </c>
@@ -9746,7 +9832,7 @@
         <v>324</v>
       </c>
     </row>
-    <row ht="16" r="116" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>142</v>
       </c>
@@ -9763,7 +9849,7 @@
         <v>328</v>
       </c>
     </row>
-    <row ht="16" r="117" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>142</v>
       </c>
@@ -9780,7 +9866,7 @@
         <v>330</v>
       </c>
     </row>
-    <row ht="16" r="118" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>83</v>
       </c>
@@ -9797,7 +9883,7 @@
         <v>331</v>
       </c>
     </row>
-    <row ht="16" r="119" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>83</v>
       </c>
@@ -9814,7 +9900,7 @@
         <v>333</v>
       </c>
     </row>
-    <row ht="16" r="120" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>83</v>
       </c>
@@ -9831,7 +9917,7 @@
         <v>334</v>
       </c>
     </row>
-    <row ht="16" r="121" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>83</v>
       </c>
@@ -9848,7 +9934,7 @@
         <v>335</v>
       </c>
     </row>
-    <row ht="16" r="122" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>142</v>
       </c>
@@ -9865,7 +9951,7 @@
         <v>337</v>
       </c>
     </row>
-    <row ht="16" r="123" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>142</v>
       </c>
@@ -9882,7 +9968,7 @@
         <v>338</v>
       </c>
     </row>
-    <row ht="16" r="124" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>83</v>
       </c>
@@ -9899,7 +9985,7 @@
         <v>339</v>
       </c>
     </row>
-    <row ht="16" r="125" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
         <v>83</v>
       </c>
@@ -9925,7 +10011,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="126" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>83</v>
       </c>
@@ -9951,7 +10037,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="127" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>83</v>
       </c>
@@ -9977,7 +10063,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="128" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>83</v>
       </c>
@@ -10003,7 +10089,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>83</v>
       </c>
@@ -10020,7 +10106,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row ht="16" r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>83</v>
       </c>
@@ -10037,7 +10123,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row ht="16" r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
         <v>83</v>
       </c>
@@ -10054,7 +10140,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row ht="16" r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>83</v>
       </c>
@@ -10071,7 +10157,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row ht="16" r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>83</v>
       </c>
@@ -10088,7 +10174,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row ht="16" r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>83</v>
       </c>
@@ -10105,7 +10191,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row ht="16" r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>83</v>
       </c>
@@ -10122,7 +10208,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row ht="16" r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>83</v>
       </c>
@@ -10139,7 +10225,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row ht="16" r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>83</v>
       </c>
@@ -10156,7 +10242,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row ht="16" r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
         <v>83</v>
       </c>
@@ -10173,7 +10259,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row ht="16" r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>83</v>
       </c>
@@ -10190,7 +10276,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row ht="16" r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>83</v>
       </c>
@@ -10207,7 +10293,7 @@
         <v>979</v>
       </c>
     </row>
-    <row ht="16" r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>83</v>
       </c>
@@ -10224,7 +10310,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row ht="16" r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>83</v>
       </c>
@@ -10241,7 +10327,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row ht="16" r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>142</v>
       </c>
@@ -10258,7 +10344,7 @@
         <v>948</v>
       </c>
     </row>
-    <row ht="16" r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>142</v>
       </c>
@@ -10275,7 +10361,7 @@
         <v>950</v>
       </c>
     </row>
-    <row ht="16" r="145" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>142</v>
       </c>
@@ -10292,7 +10378,7 @@
         <v>952</v>
       </c>
     </row>
-    <row ht="16" r="146" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>142</v>
       </c>
@@ -10309,7 +10395,7 @@
         <v>954</v>
       </c>
     </row>
-    <row ht="16" r="147" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>142</v>
       </c>
@@ -10326,7 +10412,7 @@
         <v>956</v>
       </c>
     </row>
-    <row ht="16" r="148" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>83</v>
       </c>
@@ -10343,7 +10429,7 @@
         <v>958</v>
       </c>
     </row>
-    <row ht="16" r="149" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
         <v>83</v>
       </c>
@@ -10360,7 +10446,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row ht="16" r="150" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
         <v>83</v>
       </c>
@@ -10386,7 +10472,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="151" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>83</v>
       </c>
@@ -10412,7 +10498,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="152" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
         <v>83</v>
       </c>
@@ -10438,7 +10524,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="153" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
         <v>83</v>
       </c>
@@ -10464,7 +10550,7 @@
         <v>75</v>
       </c>
     </row>
-    <row ht="16" r="154" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
         <v>83</v>
       </c>
@@ -10490,7 +10576,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="155" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>83</v>
       </c>
@@ -10516,7 +10602,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="16" r="156" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>83</v>
       </c>
@@ -10533,7 +10619,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row ht="16" r="157" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
         <v>83</v>
       </c>
@@ -10550,7 +10636,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row ht="16" r="158" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
         <v>83</v>
       </c>
@@ -10567,7 +10653,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row ht="16" r="159" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>83</v>
       </c>
@@ -10584,7 +10670,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row ht="16" r="160" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
         <v>83</v>
       </c>
@@ -10601,7 +10687,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row ht="16" r="161" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
         <v>83</v>
       </c>
@@ -10618,7 +10704,7 @@
         <v>346</v>
       </c>
     </row>
-    <row ht="16" r="162" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>83</v>
       </c>
@@ -10635,7 +10721,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row ht="16" r="163" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
         <v>83</v>
       </c>
@@ -10652,7 +10738,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row ht="16" r="164" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
         <v>83</v>
       </c>
@@ -10669,7 +10755,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row ht="16" r="165" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
         <v>83</v>
       </c>
@@ -10695,7 +10781,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="166" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
         <v>83</v>
       </c>
@@ -10721,7 +10807,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="167" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>142</v>
       </c>
@@ -10747,7 +10833,7 @@
         <v>273</v>
       </c>
     </row>
-    <row ht="16" r="168" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>142</v>
       </c>
@@ -10773,7 +10859,7 @@
         <v>273</v>
       </c>
     </row>
-    <row ht="16" r="169" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>142</v>
       </c>
@@ -10800,29 +10886,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="18.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="60.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="40.1640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="20.1640625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -10839,7 +10925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>83</v>
       </c>
@@ -10856,7 +10942,7 @@
         <v>87</v>
       </c>
     </row>
-    <row ht="16" r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>88</v>
       </c>
@@ -10874,28 +10960,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="60.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="40.1640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.1640625" collapsed="true"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -10912,7 +10998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>83</v>
       </c>
@@ -10929,7 +11015,7 @@
         <v>87</v>
       </c>
     </row>
-    <row ht="16" r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>88</v>
       </c>
@@ -10946,7 +11032,7 @@
         <v>92</v>
       </c>
     </row>
-    <row ht="16" r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>93</v>
       </c>
@@ -10963,7 +11049,7 @@
         <v>97</v>
       </c>
     </row>
-    <row ht="16" r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>83</v>
       </c>
@@ -10980,7 +11066,7 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="16" r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>88</v>
       </c>
@@ -10997,7 +11083,7 @@
         <v>102</v>
       </c>
     </row>
-    <row ht="16" r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>93</v>
       </c>
@@ -11014,7 +11100,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="16" r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>83</v>
       </c>
@@ -11031,7 +11117,7 @@
         <v>110</v>
       </c>
     </row>
-    <row ht="16" r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>83</v>
       </c>
@@ -11048,7 +11134,7 @@
         <v>114</v>
       </c>
     </row>
-    <row ht="16" r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>93</v>
       </c>
@@ -11065,7 +11151,7 @@
         <v>117</v>
       </c>
     </row>
-    <row ht="16" r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>93</v>
       </c>
@@ -11082,7 +11168,7 @@
         <v>121</v>
       </c>
     </row>
-    <row ht="16" r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>93</v>
       </c>
@@ -11099,7 +11185,7 @@
         <v>125</v>
       </c>
     </row>
-    <row ht="16" r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>93</v>
       </c>
@@ -11116,7 +11202,7 @@
         <v>127</v>
       </c>
     </row>
-    <row ht="16" r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>83</v>
       </c>
@@ -11133,7 +11219,7 @@
         <v>129</v>
       </c>
     </row>
-    <row ht="16" r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>83</v>
       </c>
@@ -11150,7 +11236,7 @@
         <v>131</v>
       </c>
     </row>
-    <row ht="16" r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>83</v>
       </c>
@@ -11167,7 +11253,7 @@
         <v>133</v>
       </c>
     </row>
-    <row ht="16" r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>93</v>
       </c>
@@ -11184,7 +11270,7 @@
         <v>136</v>
       </c>
     </row>
-    <row ht="16" r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>93</v>
       </c>
@@ -11201,7 +11287,7 @@
         <v>138</v>
       </c>
     </row>
-    <row ht="16" r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>93</v>
       </c>
@@ -11218,7 +11304,7 @@
         <v>141</v>
       </c>
     </row>
-    <row ht="16" r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>142</v>
       </c>
@@ -11235,7 +11321,7 @@
         <v>145</v>
       </c>
     </row>
-    <row ht="16" r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>83</v>
       </c>
@@ -11252,7 +11338,7 @@
         <v>147</v>
       </c>
     </row>
-    <row ht="16" r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>83</v>
       </c>
@@ -11269,7 +11355,7 @@
         <v>149</v>
       </c>
     </row>
-    <row ht="16" r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>93</v>
       </c>
@@ -11286,7 +11372,7 @@
         <v>153</v>
       </c>
     </row>
-    <row ht="16" r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>93</v>
       </c>
@@ -11303,7 +11389,7 @@
         <v>156</v>
       </c>
     </row>
-    <row ht="16" r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>93</v>
       </c>
@@ -11320,7 +11406,7 @@
         <v>159</v>
       </c>
     </row>
-    <row ht="16" r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>93</v>
       </c>
@@ -11337,7 +11423,7 @@
         <v>161</v>
       </c>
     </row>
-    <row ht="16" r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>93</v>
       </c>
@@ -11354,7 +11440,7 @@
         <v>163</v>
       </c>
     </row>
-    <row ht="16" r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>93</v>
       </c>
@@ -11371,7 +11457,7 @@
         <v>165</v>
       </c>
     </row>
-    <row ht="16" r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>93</v>
       </c>
@@ -11388,7 +11474,7 @@
         <v>167</v>
       </c>
     </row>
-    <row ht="16" r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>93</v>
       </c>
@@ -11405,7 +11491,7 @@
         <v>169</v>
       </c>
     </row>
-    <row ht="16" r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>93</v>
       </c>
@@ -11422,7 +11508,7 @@
         <v>171</v>
       </c>
     </row>
-    <row ht="16" r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>93</v>
       </c>
@@ -11439,7 +11525,7 @@
         <v>173</v>
       </c>
     </row>
-    <row ht="16" r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>93</v>
       </c>
@@ -11456,7 +11542,7 @@
         <v>175</v>
       </c>
     </row>
-    <row ht="16" r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>93</v>
       </c>
@@ -11473,7 +11559,7 @@
         <v>177</v>
       </c>
     </row>
-    <row ht="16" r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>93</v>
       </c>
@@ -11490,7 +11576,7 @@
         <v>179</v>
       </c>
     </row>
-    <row ht="16" r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>93</v>
       </c>
@@ -11507,7 +11593,7 @@
         <v>181</v>
       </c>
     </row>
-    <row ht="16" r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>93</v>
       </c>
@@ -11524,7 +11610,7 @@
         <v>183</v>
       </c>
     </row>
-    <row ht="16" r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>93</v>
       </c>
@@ -11541,7 +11627,7 @@
         <v>185</v>
       </c>
     </row>
-    <row ht="16" r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>93</v>
       </c>
@@ -11558,7 +11644,7 @@
         <v>187</v>
       </c>
     </row>
-    <row ht="16" r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>93</v>
       </c>
@@ -11575,7 +11661,7 @@
         <v>189</v>
       </c>
     </row>
-    <row ht="16" r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>93</v>
       </c>
@@ -11592,7 +11678,7 @@
         <v>191</v>
       </c>
     </row>
-    <row ht="16" r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>93</v>
       </c>
@@ -11609,7 +11695,7 @@
         <v>193</v>
       </c>
     </row>
-    <row ht="16" r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>93</v>
       </c>
@@ -11626,7 +11712,7 @@
         <v>195</v>
       </c>
     </row>
-    <row ht="16" r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>93</v>
       </c>
@@ -11643,7 +11729,7 @@
         <v>197</v>
       </c>
     </row>
-    <row ht="16" r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>93</v>
       </c>
@@ -11660,7 +11746,7 @@
         <v>199</v>
       </c>
     </row>
-    <row ht="16" r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>93</v>
       </c>
@@ -11677,7 +11763,7 @@
         <v>201</v>
       </c>
     </row>
-    <row ht="16" r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>93</v>
       </c>
@@ -11694,7 +11780,7 @@
         <v>203</v>
       </c>
     </row>
-    <row ht="16" r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>93</v>
       </c>
@@ -11711,7 +11797,7 @@
         <v>205</v>
       </c>
     </row>
-    <row ht="16" r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>88</v>
       </c>
@@ -11728,7 +11814,7 @@
         <v>207</v>
       </c>
     </row>
-    <row ht="16" r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>88</v>
       </c>
@@ -11745,7 +11831,7 @@
         <v>209</v>
       </c>
     </row>
-    <row ht="16" r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>88</v>
       </c>
@@ -11762,7 +11848,7 @@
         <v>211</v>
       </c>
     </row>
-    <row ht="16" r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>88</v>
       </c>
@@ -11779,7 +11865,7 @@
         <v>213</v>
       </c>
     </row>
-    <row ht="16" r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>88</v>
       </c>
@@ -11796,7 +11882,7 @@
         <v>215</v>
       </c>
     </row>
-    <row ht="16" r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>93</v>
       </c>
@@ -11813,7 +11899,7 @@
         <v>217</v>
       </c>
     </row>
-    <row ht="16" r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>93</v>
       </c>
@@ -11830,7 +11916,7 @@
         <v>219</v>
       </c>
     </row>
-    <row ht="16" r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>93</v>
       </c>
@@ -11847,7 +11933,7 @@
         <v>221</v>
       </c>
     </row>
-    <row ht="16" r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>93</v>
       </c>
@@ -11864,7 +11950,7 @@
         <v>223</v>
       </c>
     </row>
-    <row ht="16" r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>93</v>
       </c>
@@ -11881,7 +11967,7 @@
         <v>225</v>
       </c>
     </row>
-    <row ht="16" r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>93</v>
       </c>
@@ -11898,7 +11984,7 @@
         <v>227</v>
       </c>
     </row>
-    <row ht="16" r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>93</v>
       </c>
@@ -11915,7 +12001,7 @@
         <v>229</v>
       </c>
     </row>
-    <row ht="16" r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>93</v>
       </c>
@@ -11932,7 +12018,7 @@
         <v>231</v>
       </c>
     </row>
-    <row ht="16" r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>93</v>
       </c>
@@ -11949,7 +12035,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>93</v>
       </c>
@@ -11966,7 +12052,7 @@
         <v>235</v>
       </c>
     </row>
-    <row ht="16" r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>93</v>
       </c>
@@ -11983,7 +12069,7 @@
         <v>237</v>
       </c>
     </row>
-    <row ht="16" r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>93</v>
       </c>
@@ -12000,7 +12086,7 @@
         <v>239</v>
       </c>
     </row>
-    <row ht="16" r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>93</v>
       </c>
@@ -12017,7 +12103,7 @@
         <v>241</v>
       </c>
     </row>
-    <row ht="16" r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>93</v>
       </c>
@@ -12034,7 +12120,7 @@
         <v>243</v>
       </c>
     </row>
-    <row ht="16" r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>93</v>
       </c>
@@ -12051,7 +12137,7 @@
         <v>245</v>
       </c>
     </row>
-    <row ht="16" r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>93</v>
       </c>
@@ -12068,7 +12154,7 @@
         <v>247</v>
       </c>
     </row>
-    <row ht="16" r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>93</v>
       </c>
@@ -12085,7 +12171,7 @@
         <v>249</v>
       </c>
     </row>
-    <row ht="16" r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>93</v>
       </c>
@@ -12102,7 +12188,7 @@
         <v>251</v>
       </c>
     </row>
-    <row ht="16" r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>93</v>
       </c>
@@ -12119,7 +12205,7 @@
         <v>253</v>
       </c>
     </row>
-    <row ht="16" r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>93</v>
       </c>
@@ -12136,7 +12222,7 @@
         <v>255</v>
       </c>
     </row>
-    <row ht="16" r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>93</v>
       </c>
@@ -12153,7 +12239,7 @@
         <v>257</v>
       </c>
     </row>
-    <row ht="16" r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>93</v>
       </c>
@@ -12170,7 +12256,7 @@
         <v>260</v>
       </c>
     </row>
-    <row ht="16" r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>142</v>
       </c>
@@ -12187,7 +12273,7 @@
         <v>127</v>
       </c>
     </row>
-    <row ht="16" r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>83</v>
       </c>
@@ -12204,7 +12290,7 @@
         <v>266</v>
       </c>
     </row>
-    <row ht="16" r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>88</v>
       </c>
@@ -12221,7 +12307,7 @@
         <v>269</v>
       </c>
     </row>
-    <row ht="16" r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>83</v>
       </c>
@@ -12238,7 +12324,7 @@
         <v>272</v>
       </c>
     </row>
-    <row ht="16" r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>93</v>
       </c>
@@ -12255,7 +12341,7 @@
         <v>276</v>
       </c>
     </row>
-    <row ht="16" r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>83</v>
       </c>
@@ -12272,7 +12358,7 @@
         <v>279</v>
       </c>
     </row>
-    <row ht="16" r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>142</v>
       </c>
@@ -12289,7 +12375,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="16" r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>83</v>
       </c>
@@ -12306,7 +12392,7 @@
         <v>285</v>
       </c>
     </row>
-    <row ht="16" r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>83</v>
       </c>
@@ -12323,7 +12409,7 @@
         <v>289</v>
       </c>
     </row>
-    <row ht="16" r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>83</v>
       </c>
@@ -12340,7 +12426,7 @@
         <v>291</v>
       </c>
     </row>
-    <row ht="16" r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>142</v>
       </c>
@@ -12357,7 +12443,7 @@
         <v>293</v>
       </c>
     </row>
-    <row ht="16" r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>142</v>
       </c>
@@ -12374,7 +12460,7 @@
         <v>296</v>
       </c>
     </row>
-    <row ht="16" r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>83</v>
       </c>
@@ -12391,7 +12477,7 @@
         <v>300</v>
       </c>
     </row>
-    <row ht="16" r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>83</v>
       </c>
@@ -12408,7 +12494,7 @@
         <v>303</v>
       </c>
     </row>
-    <row ht="16" r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>83</v>
       </c>
@@ -12425,7 +12511,7 @@
         <v>305</v>
       </c>
     </row>
-    <row ht="16" r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>142</v>
       </c>
@@ -12442,7 +12528,7 @@
         <v>307</v>
       </c>
     </row>
-    <row ht="16" r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>142</v>
       </c>
@@ -12459,7 +12545,7 @@
         <v>309</v>
       </c>
     </row>
-    <row ht="16" r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>142</v>
       </c>
@@ -12476,7 +12562,7 @@
         <v>293</v>
       </c>
     </row>
-    <row ht="16" r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>142</v>
       </c>
@@ -12493,7 +12579,7 @@
         <v>313</v>
       </c>
     </row>
-    <row ht="16" r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>142</v>
       </c>
@@ -12510,7 +12596,7 @@
         <v>296</v>
       </c>
     </row>
-    <row ht="16" r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>142</v>
       </c>
@@ -12527,7 +12613,7 @@
         <v>300</v>
       </c>
     </row>
-    <row ht="16" r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>142</v>
       </c>
@@ -12544,7 +12630,7 @@
         <v>316</v>
       </c>
     </row>
-    <row ht="16" r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>142</v>
       </c>
@@ -12561,7 +12647,7 @@
         <v>303</v>
       </c>
     </row>
-    <row ht="16" r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>142</v>
       </c>
@@ -12578,7 +12664,7 @@
         <v>305</v>
       </c>
     </row>
-    <row ht="16" r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>142</v>
       </c>
@@ -12595,7 +12681,7 @@
         <v>307</v>
       </c>
     </row>
-    <row ht="16" r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>142</v>
       </c>
@@ -12612,7 +12698,7 @@
         <v>309</v>
       </c>
     </row>
-    <row ht="16" r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>142</v>
       </c>
@@ -12629,7 +12715,7 @@
         <v>320</v>
       </c>
     </row>
-    <row ht="16" r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>142</v>
       </c>
@@ -12646,7 +12732,7 @@
         <v>322</v>
       </c>
     </row>
-    <row ht="16" r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>142</v>
       </c>
@@ -12663,7 +12749,7 @@
         <v>324</v>
       </c>
     </row>
-    <row ht="16" r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>325</v>
       </c>
@@ -12680,7 +12766,7 @@
         <v>328</v>
       </c>
     </row>
-    <row ht="16" r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>325</v>
       </c>
@@ -12697,7 +12783,7 @@
         <v>330</v>
       </c>
     </row>
-    <row ht="16" r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>325</v>
       </c>
@@ -12714,7 +12800,7 @@
         <v>331</v>
       </c>
     </row>
-    <row ht="16" r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>325</v>
       </c>
@@ -12731,7 +12817,7 @@
         <v>333</v>
       </c>
     </row>
-    <row ht="16" r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>325</v>
       </c>
@@ -12748,7 +12834,7 @@
         <v>334</v>
       </c>
     </row>
-    <row ht="16" r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>325</v>
       </c>
@@ -12765,7 +12851,7 @@
         <v>335</v>
       </c>
     </row>
-    <row ht="16" r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>325</v>
       </c>
@@ -12782,7 +12868,7 @@
         <v>337</v>
       </c>
     </row>
-    <row ht="16" r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>325</v>
       </c>
@@ -12799,7 +12885,7 @@
         <v>338</v>
       </c>
     </row>
-    <row ht="16" r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>325</v>
       </c>
@@ -12816,7 +12902,7 @@
         <v>339</v>
       </c>
     </row>
-    <row ht="16" r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>325</v>
       </c>
@@ -12833,7 +12919,7 @@
         <v>341</v>
       </c>
     </row>
-    <row ht="16" r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>325</v>
       </c>
@@ -12850,7 +12936,7 @@
         <v>342</v>
       </c>
     </row>
-    <row ht="16" r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>325</v>
       </c>
@@ -12867,7 +12953,7 @@
         <v>343</v>
       </c>
     </row>
-    <row ht="16" r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>83</v>
       </c>
@@ -12884,7 +12970,7 @@
         <v>346</v>
       </c>
     </row>
-    <row ht="16" r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>325</v>
       </c>
@@ -12901,7 +12987,7 @@
         <v>349</v>
       </c>
     </row>
-    <row ht="16" r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>325</v>
       </c>
@@ -12918,7 +13004,7 @@
         <v>351</v>
       </c>
     </row>
-    <row ht="16" r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>325</v>
       </c>
@@ -12935,7 +13021,7 @@
         <v>352</v>
       </c>
     </row>
-    <row ht="16" r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>325</v>
       </c>
@@ -12952,7 +13038,7 @@
         <v>354</v>
       </c>
     </row>
-    <row ht="16" r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>325</v>
       </c>
@@ -12969,7 +13055,7 @@
         <v>355</v>
       </c>
     </row>
-    <row ht="16" r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>325</v>
       </c>
@@ -12986,7 +13072,7 @@
         <v>356</v>
       </c>
     </row>
-    <row ht="16" r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>325</v>
       </c>
@@ -13003,7 +13089,7 @@
         <v>358</v>
       </c>
     </row>
-    <row ht="16" r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>325</v>
       </c>
@@ -13020,7 +13106,7 @@
         <v>359</v>
       </c>
     </row>
-    <row ht="16" r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>325</v>
       </c>
@@ -13037,7 +13123,7 @@
         <v>360</v>
       </c>
     </row>
-    <row ht="16" r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>325</v>
       </c>
@@ -13054,7 +13140,7 @@
         <v>362</v>
       </c>
     </row>
-    <row ht="16" r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>325</v>
       </c>
@@ -13071,7 +13157,7 @@
         <v>363</v>
       </c>
     </row>
-    <row ht="16" r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>325</v>
       </c>
@@ -13088,7 +13174,7 @@
         <v>364</v>
       </c>
     </row>
-    <row ht="16" r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>93</v>
       </c>
@@ -13105,7 +13191,7 @@
         <v>367</v>
       </c>
     </row>
-    <row ht="16" r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>93</v>
       </c>
@@ -13122,7 +13208,7 @@
         <v>369</v>
       </c>
     </row>
-    <row ht="16" r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>93</v>
       </c>
@@ -13139,7 +13225,7 @@
         <v>372</v>
       </c>
     </row>
-    <row ht="16" r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>325</v>
       </c>
@@ -13156,7 +13242,7 @@
         <v>375</v>
       </c>
     </row>
-    <row ht="16" r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>88</v>
       </c>
@@ -13173,7 +13259,7 @@
         <v>378</v>
       </c>
     </row>
-    <row ht="16" r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>325</v>
       </c>
@@ -13190,7 +13276,7 @@
         <v>381</v>
       </c>
     </row>
-    <row ht="16" r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>325</v>
       </c>
@@ -13207,7 +13293,7 @@
         <v>384</v>
       </c>
     </row>
-    <row ht="16" r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>325</v>
       </c>
@@ -13224,7 +13310,7 @@
         <v>387</v>
       </c>
     </row>
-    <row ht="16" r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>88</v>
       </c>
@@ -13241,7 +13327,7 @@
         <v>390</v>
       </c>
     </row>
-    <row ht="16" r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>325</v>
       </c>
@@ -13258,7 +13344,7 @@
         <v>393</v>
       </c>
     </row>
-    <row ht="16" r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>325</v>
       </c>
@@ -13275,7 +13361,7 @@
         <v>396</v>
       </c>
     </row>
-    <row ht="16" r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>325</v>
       </c>
@@ -13292,7 +13378,7 @@
         <v>399</v>
       </c>
     </row>
-    <row ht="16" r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>325</v>
       </c>
@@ -13309,7 +13395,7 @@
         <v>403</v>
       </c>
     </row>
-    <row ht="16" r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>325</v>
       </c>
@@ -13326,7 +13412,7 @@
         <v>406</v>
       </c>
     </row>
-    <row ht="16" r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>88</v>
       </c>
@@ -13343,7 +13429,7 @@
         <v>409</v>
       </c>
     </row>
-    <row ht="16" r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>325</v>
       </c>
@@ -13360,7 +13446,7 @@
         <v>412</v>
       </c>
     </row>
-    <row ht="16" r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>325</v>
       </c>
@@ -13377,7 +13463,7 @@
         <v>415</v>
       </c>
     </row>
-    <row ht="16" r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>325</v>
       </c>
@@ -13394,7 +13480,7 @@
         <v>418</v>
       </c>
     </row>
-    <row ht="16" r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>325</v>
       </c>
@@ -13411,7 +13497,7 @@
         <v>421</v>
       </c>
     </row>
-    <row ht="16" r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>325</v>
       </c>
@@ -13428,7 +13514,7 @@
         <v>424</v>
       </c>
     </row>
-    <row ht="16" r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>325</v>
       </c>
@@ -13445,7 +13531,7 @@
         <v>427</v>
       </c>
     </row>
-    <row ht="16" r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>325</v>
       </c>
@@ -13462,7 +13548,7 @@
         <v>430</v>
       </c>
     </row>
-    <row ht="16" r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>325</v>
       </c>
@@ -13479,7 +13565,7 @@
         <v>434</v>
       </c>
     </row>
-    <row ht="16" r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>325</v>
       </c>
@@ -13496,7 +13582,7 @@
         <v>437</v>
       </c>
     </row>
-    <row ht="16" r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>325</v>
       </c>
@@ -13513,7 +13599,7 @@
         <v>440</v>
       </c>
     </row>
-    <row ht="16" r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>325</v>
       </c>
@@ -13530,7 +13616,7 @@
         <v>443</v>
       </c>
     </row>
-    <row ht="16" r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>325</v>
       </c>
@@ -13547,7 +13633,7 @@
         <v>446</v>
       </c>
     </row>
-    <row ht="16" r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
         <v>325</v>
       </c>
@@ -13564,7 +13650,7 @@
         <v>449</v>
       </c>
     </row>
-    <row ht="16" r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
         <v>83</v>
       </c>
@@ -13581,7 +13667,7 @@
         <v>452</v>
       </c>
     </row>
-    <row ht="16" r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>325</v>
       </c>
@@ -13598,7 +13684,7 @@
         <v>455</v>
       </c>
     </row>
-    <row ht="16" r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>325</v>
       </c>
@@ -13615,7 +13701,7 @@
         <v>458</v>
       </c>
     </row>
-    <row ht="16" r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>325</v>
       </c>
@@ -13632,7 +13718,7 @@
         <v>461</v>
       </c>
     </row>
-    <row ht="16" r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>325</v>
       </c>
@@ -13649,7 +13735,7 @@
         <v>464</v>
       </c>
     </row>
-    <row ht="16" r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
         <v>325</v>
       </c>
@@ -13666,7 +13752,7 @@
         <v>467</v>
       </c>
     </row>
-    <row ht="16" r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
         <v>88</v>
       </c>
@@ -13683,7 +13769,7 @@
         <v>470</v>
       </c>
     </row>
-    <row ht="16" r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
         <v>325</v>
       </c>
@@ -13700,7 +13786,7 @@
         <v>473</v>
       </c>
     </row>
-    <row ht="16" r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>325</v>
       </c>
@@ -13717,7 +13803,7 @@
         <v>476</v>
       </c>
     </row>
-    <row ht="16" r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>325</v>
       </c>
@@ -13734,7 +13820,7 @@
         <v>479</v>
       </c>
     </row>
-    <row ht="16" r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>325</v>
       </c>
@@ -13751,7 +13837,7 @@
         <v>482</v>
       </c>
     </row>
-    <row ht="16" r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>325</v>
       </c>
@@ -13768,7 +13854,7 @@
         <v>485</v>
       </c>
     </row>
-    <row ht="16" r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
         <v>88</v>
       </c>
@@ -13785,7 +13871,7 @@
         <v>71</v>
       </c>
     </row>
-    <row ht="16" r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
         <v>88</v>
       </c>
@@ -13802,7 +13888,7 @@
         <v>72</v>
       </c>
     </row>
-    <row ht="16" r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>325</v>
       </c>
@@ -13819,7 +13905,7 @@
         <v>493</v>
       </c>
     </row>
-    <row ht="16" r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
         <v>93</v>
       </c>
@@ -13836,7 +13922,7 @@
         <v>496</v>
       </c>
     </row>
-    <row ht="16" r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>93</v>
       </c>
@@ -13853,7 +13939,7 @@
         <v>499</v>
       </c>
     </row>
-    <row ht="16" r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
         <v>93</v>
       </c>
@@ -13870,7 +13956,7 @@
         <v>502</v>
       </c>
     </row>
-    <row ht="16" r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>325</v>
       </c>
@@ -13887,7 +13973,7 @@
         <v>506</v>
       </c>
     </row>
-    <row ht="16" r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
         <v>325</v>
       </c>
@@ -13904,7 +13990,7 @@
         <v>509</v>
       </c>
     </row>
-    <row ht="16" r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>325</v>
       </c>
@@ -13921,7 +14007,7 @@
         <v>512</v>
       </c>
     </row>
-    <row ht="16" r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
         <v>325</v>
       </c>
@@ -13938,7 +14024,7 @@
         <v>515</v>
       </c>
     </row>
-    <row ht="16" r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>325</v>
       </c>
@@ -13955,7 +14041,7 @@
         <v>518</v>
       </c>
     </row>
-    <row ht="16" r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>325</v>
       </c>
@@ -13972,7 +14058,7 @@
         <v>521</v>
       </c>
     </row>
-    <row ht="16" r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
         <v>325</v>
       </c>
@@ -13989,7 +14075,7 @@
         <v>524</v>
       </c>
     </row>
-    <row ht="16" r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
         <v>325</v>
       </c>
@@ -14006,7 +14092,7 @@
         <v>527</v>
       </c>
     </row>
-    <row ht="16" r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
         <v>93</v>
       </c>
@@ -14023,7 +14109,7 @@
         <v>530</v>
       </c>
     </row>
-    <row ht="16" r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
         <v>93</v>
       </c>
@@ -14040,7 +14126,7 @@
         <v>533</v>
       </c>
     </row>
-    <row ht="16" r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
         <v>88</v>
       </c>
@@ -14057,7 +14143,7 @@
         <v>536</v>
       </c>
     </row>
-    <row ht="16" r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
         <v>325</v>
       </c>
@@ -14074,7 +14160,7 @@
         <v>539</v>
       </c>
     </row>
-    <row ht="16" r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
         <v>88</v>
       </c>
@@ -14091,7 +14177,7 @@
         <v>542</v>
       </c>
     </row>
-    <row ht="16" r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
         <v>325</v>
       </c>
@@ -14108,7 +14194,7 @@
         <v>545</v>
       </c>
     </row>
-    <row ht="16" r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
         <v>88</v>
       </c>
@@ -14125,7 +14211,7 @@
         <v>73</v>
       </c>
     </row>
-    <row ht="16" r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
         <v>325</v>
       </c>
@@ -14142,7 +14228,7 @@
         <v>550</v>
       </c>
     </row>
-    <row ht="16" r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
         <v>325</v>
       </c>
@@ -14159,7 +14245,7 @@
         <v>553</v>
       </c>
     </row>
-    <row ht="16" r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
         <v>325</v>
       </c>
@@ -14176,7 +14262,7 @@
         <v>556</v>
       </c>
     </row>
-    <row ht="16" r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
         <v>325</v>
       </c>
@@ -14193,7 +14279,7 @@
         <v>559</v>
       </c>
     </row>
-    <row ht="16" r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
         <v>325</v>
       </c>
@@ -14210,7 +14296,7 @@
         <v>562</v>
       </c>
     </row>
-    <row ht="16" r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
         <v>83</v>
       </c>
@@ -14227,7 +14313,7 @@
         <v>566</v>
       </c>
     </row>
-    <row ht="16" r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
         <v>83</v>
       </c>
@@ -14244,7 +14330,7 @@
         <v>568</v>
       </c>
     </row>
-    <row ht="16" r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
         <v>83</v>
       </c>
@@ -14261,7 +14347,7 @@
         <v>570</v>
       </c>
     </row>
-    <row ht="16" r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
         <v>83</v>
       </c>
@@ -14278,7 +14364,7 @@
         <v>573</v>
       </c>
     </row>
-    <row ht="16" r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
         <v>83</v>
       </c>
@@ -14295,7 +14381,7 @@
         <v>576</v>
       </c>
     </row>
-    <row ht="16" r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
         <v>88</v>
       </c>
@@ -14312,7 +14398,7 @@
         <v>579</v>
       </c>
     </row>
-    <row ht="16" r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
         <v>83</v>
       </c>
@@ -14329,7 +14415,7 @@
         <v>582</v>
       </c>
     </row>
-    <row ht="16" r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
         <v>83</v>
       </c>
@@ -14346,7 +14432,7 @@
         <v>585</v>
       </c>
     </row>
-    <row ht="16" r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
         <v>83</v>
       </c>
@@ -14363,7 +14449,7 @@
         <v>588</v>
       </c>
     </row>
-    <row ht="16" r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
         <v>83</v>
       </c>
@@ -14380,7 +14466,7 @@
         <v>591</v>
       </c>
     </row>
-    <row ht="16" r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
         <v>83</v>
       </c>
@@ -14397,7 +14483,7 @@
         <v>594</v>
       </c>
     </row>
-    <row ht="16" r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
         <v>325</v>
       </c>
@@ -14414,7 +14500,7 @@
         <v>597</v>
       </c>
     </row>
-    <row ht="16" r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
         <v>325</v>
       </c>
@@ -14431,7 +14517,7 @@
         <v>601</v>
       </c>
     </row>
-    <row ht="16" r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
         <v>325</v>
       </c>
@@ -14448,7 +14534,7 @@
         <v>604</v>
       </c>
     </row>
-    <row ht="16" r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
         <v>325</v>
       </c>
@@ -14465,7 +14551,7 @@
         <v>607</v>
       </c>
     </row>
-    <row ht="16" r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
         <v>325</v>
       </c>
@@ -14482,7 +14568,7 @@
         <v>610</v>
       </c>
     </row>
-    <row ht="16" r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
         <v>325</v>
       </c>
@@ -14499,7 +14585,7 @@
         <v>613</v>
       </c>
     </row>
-    <row ht="16" r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
         <v>325</v>
       </c>
@@ -14516,7 +14602,7 @@
         <v>616</v>
       </c>
     </row>
-    <row ht="16" r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
         <v>88</v>
       </c>
@@ -14533,7 +14619,7 @@
         <v>74</v>
       </c>
     </row>
-    <row ht="16" r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
         <v>325</v>
       </c>
@@ -14550,7 +14636,7 @@
         <v>621</v>
       </c>
     </row>
-    <row ht="16" r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
         <v>88</v>
       </c>
@@ -14567,7 +14653,7 @@
         <v>624</v>
       </c>
     </row>
-    <row ht="16" r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
         <v>325</v>
       </c>
@@ -14584,7 +14670,7 @@
         <v>627</v>
       </c>
     </row>
-    <row ht="16" r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
         <v>325</v>
       </c>
@@ -14601,7 +14687,7 @@
         <v>631</v>
       </c>
     </row>
-    <row ht="16" r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
         <v>325</v>
       </c>
@@ -14618,7 +14704,7 @@
         <v>634</v>
       </c>
     </row>
-    <row ht="16" r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
         <v>325</v>
       </c>
@@ -14635,7 +14721,7 @@
         <v>637</v>
       </c>
     </row>
-    <row ht="16" r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
         <v>325</v>
       </c>
@@ -14652,7 +14738,7 @@
         <v>640</v>
       </c>
     </row>
-    <row ht="16" r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
         <v>325</v>
       </c>
@@ -14669,7 +14755,7 @@
         <v>643</v>
       </c>
     </row>
-    <row ht="16" r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
         <v>325</v>
       </c>
@@ -14686,7 +14772,7 @@
         <v>646</v>
       </c>
     </row>
-    <row ht="16" r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
         <v>325</v>
       </c>
@@ -14703,7 +14789,7 @@
         <v>649</v>
       </c>
     </row>
-    <row ht="16" r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
         <v>325</v>
       </c>
@@ -14720,7 +14806,7 @@
         <v>652</v>
       </c>
     </row>
-    <row ht="16" r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="s">
         <v>325</v>
       </c>
@@ -14737,7 +14823,7 @@
         <v>655</v>
       </c>
     </row>
-    <row ht="16" r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="s">
         <v>325</v>
       </c>
@@ -14754,7 +14840,7 @@
         <v>658</v>
       </c>
     </row>
-    <row ht="16" r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="14" t="s">
         <v>83</v>
       </c>
@@ -14771,7 +14857,7 @@
         <v>661</v>
       </c>
     </row>
-    <row ht="16" r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="s">
         <v>325</v>
       </c>
@@ -14788,7 +14874,7 @@
         <v>664</v>
       </c>
     </row>
-    <row ht="16" r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="s">
         <v>93</v>
       </c>
@@ -14805,7 +14891,7 @@
         <v>667</v>
       </c>
     </row>
-    <row ht="16" r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
         <v>93</v>
       </c>
@@ -14822,7 +14908,7 @@
         <v>670</v>
       </c>
     </row>
-    <row ht="16" r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
         <v>93</v>
       </c>
@@ -14839,7 +14925,7 @@
         <v>673</v>
       </c>
     </row>
-    <row ht="16" r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="s">
         <v>325</v>
       </c>
@@ -14856,7 +14942,7 @@
         <v>676</v>
       </c>
     </row>
-    <row ht="16" r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="s">
         <v>93</v>
       </c>
@@ -14873,7 +14959,7 @@
         <v>679</v>
       </c>
     </row>
-    <row ht="16" r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
         <v>325</v>
       </c>
@@ -14890,7 +14976,7 @@
         <v>682</v>
       </c>
     </row>
-    <row ht="16" r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
         <v>325</v>
       </c>
@@ -14907,7 +14993,7 @@
         <v>685</v>
       </c>
     </row>
-    <row ht="16" r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
         <v>325</v>
       </c>
@@ -14924,7 +15010,7 @@
         <v>688</v>
       </c>
     </row>
-    <row ht="16" r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
         <v>325</v>
       </c>
@@ -14941,7 +15027,7 @@
         <v>691</v>
       </c>
     </row>
-    <row ht="16" r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="s">
         <v>325</v>
       </c>
@@ -14958,7 +15044,7 @@
         <v>694</v>
       </c>
     </row>
-    <row ht="16" r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="s">
         <v>325</v>
       </c>
@@ -14975,7 +15061,7 @@
         <v>697</v>
       </c>
     </row>
-    <row ht="16" r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="13" t="s">
         <v>325</v>
       </c>
@@ -14992,7 +15078,7 @@
         <v>127</v>
       </c>
     </row>
-    <row ht="16" r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
         <v>325</v>
       </c>
@@ -15009,7 +15095,7 @@
         <v>117</v>
       </c>
     </row>
-    <row ht="16" r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="s">
         <v>325</v>
       </c>
@@ -15026,7 +15112,7 @@
         <v>141</v>
       </c>
     </row>
-    <row ht="16" r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
         <v>325</v>
       </c>
@@ -15043,7 +15129,7 @@
         <v>703</v>
       </c>
     </row>
-    <row ht="16" r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
         <v>93</v>
       </c>
@@ -15060,7 +15146,7 @@
         <v>706</v>
       </c>
     </row>
-    <row ht="16" r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
         <v>93</v>
       </c>
@@ -15077,7 +15163,7 @@
         <v>709</v>
       </c>
     </row>
-    <row ht="16" r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="s">
         <v>93</v>
       </c>
@@ -15094,7 +15180,7 @@
         <v>712</v>
       </c>
     </row>
-    <row ht="16" r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
         <v>93</v>
       </c>
@@ -15111,7 +15197,7 @@
         <v>715</v>
       </c>
     </row>
-    <row ht="16" r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
         <v>93</v>
       </c>
@@ -15128,7 +15214,7 @@
         <v>718</v>
       </c>
     </row>
-    <row ht="16" r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="s">
         <v>93</v>
       </c>
@@ -15145,7 +15231,7 @@
         <v>721</v>
       </c>
     </row>
-    <row ht="16" r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="13" t="s">
         <v>93</v>
       </c>
@@ -15163,26 +15249,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="16" width="19.5" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="16" width="25.83203125" collapsed="true"/>
-    <col min="4" max="16384" style="16" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="19.42578125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.85546875" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>43</v>
       </c>
@@ -15193,7 +15279,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>60</v>
       </c>
@@ -15204,7 +15290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>61</v>
       </c>
@@ -15215,7 +15301,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>62</v>
       </c>
@@ -15226,7 +15312,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>63</v>
       </c>
@@ -15237,7 +15323,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>64</v>
       </c>
@@ -15248,7 +15334,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>65</v>
       </c>
@@ -15259,7 +15345,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>62</v>
       </c>
@@ -15267,7 +15353,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>81</v>
       </c>
@@ -15275,33 +15361,33 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.83203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="16" r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -15315,7 +15401,7 @@
         <v>42</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>66</v>
       </c>
@@ -15329,7 +15415,7 @@
         <v>8082732588</v>
       </c>
     </row>
-    <row ht="16" r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>67</v>
       </c>
@@ -15343,7 +15429,7 @@
         <v>8082732588</v>
       </c>
     </row>
-    <row ht="16" r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>68</v>
       </c>
@@ -15357,7 +15443,7 @@
         <v>8082732588</v>
       </c>
     </row>
-    <row ht="16" r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>69</v>
       </c>
@@ -15372,6 +15458,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="1362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="1385">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3771,15 +3771,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Charges (ZMW)</t>
-  </si>
-  <si>
-    <t>Bundle Price (ZMW)</t>
-  </si>
-  <si>
-    <t>Loan Amount (ZMW)</t>
-  </si>
-  <si>
     <t>Service Details</t>
   </si>
   <si>
@@ -3789,354 +3780,432 @@
     <t>More Airtel Money History</t>
   </si>
   <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Beneficiary</t>
+  </si>
+  <si>
+    <t>Quick Actions</t>
+  </si>
+  <si>
+    <t>Action Trail Tab</t>
+  </si>
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Agent Id</t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>Option2</t>
+  </si>
+  <si>
+    <t>Option3</t>
+  </si>
+  <si>
+    <t>Option4</t>
+  </si>
+  <si>
+    <t>Option5</t>
+  </si>
+  <si>
+    <t>Category code</t>
+  </si>
+  <si>
+    <t>Test Data-UAT</t>
+  </si>
+  <si>
+    <t>Test Data-Prod</t>
+  </si>
+  <si>
+    <t>SIM Bar Unbar</t>
+  </si>
+  <si>
+    <t>SIM Lost</t>
+  </si>
+  <si>
+    <t>SIM Broken</t>
+  </si>
+  <si>
+    <t>Voucher Id</t>
+  </si>
+  <si>
+    <t>24070996121021997829</t>
+  </si>
+  <si>
+    <t>QXByQDIwMjE</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>UmFvQDA4OTE</t>
+  </si>
+  <si>
+    <t>U29hQDIwMjE</t>
+  </si>
+  <si>
+    <t>Tariff</t>
+  </si>
+  <si>
+    <t>UmFvQDA4OTI</t>
+  </si>
+  <si>
+    <t>CS Beta User</t>
+  </si>
+  <si>
+    <t>Auth Pop up(TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>reverseTransaction</t>
+  </si>
+  <si>
+    <t>resetPin</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>unblock</t>
+  </si>
+  <si>
+    <t>sendNotification</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>resetMe2UPassword</t>
+  </si>
+  <si>
+    <t>simUnBarring</t>
+  </si>
+  <si>
+    <t>simBarring</t>
+  </si>
+  <si>
+    <t>changeServiceClass</t>
+  </si>
+  <si>
+    <t>Queue Name</t>
+  </si>
+  <si>
+    <t>State name1</t>
+  </si>
+  <si>
+    <t>State name2</t>
+  </si>
+  <si>
+    <t>State name3</t>
+  </si>
+  <si>
+    <t>State name4</t>
+  </si>
+  <si>
+    <t>State name5</t>
+  </si>
+  <si>
+    <t>State name6</t>
+  </si>
+  <si>
+    <t>State name7</t>
+  </si>
+  <si>
+    <t>State name8</t>
+  </si>
+  <si>
+    <t>State name9</t>
+  </si>
+  <si>
+    <t>State name10</t>
+  </si>
+  <si>
+    <t>Transfer Anyway</t>
+  </si>
+  <si>
+    <t>Question Label</t>
+  </si>
+  <si>
+    <t>Question_Key</t>
+  </si>
+  <si>
+    <t>Answer_key</t>
+  </si>
+  <si>
+    <t>Airtel Money Name</t>
+  </si>
+  <si>
+    <t>AM_NAME</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.firstName</t>
+  </si>
+  <si>
+    <t>Available Credit Balance</t>
+  </si>
+  <si>
+    <t>AVAILABLE_CREDIT_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/account/plans.result.mainAccountBalance.balance</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.dob</t>
+  </si>
+  <si>
+    <t>GSM Name</t>
+  </si>
+  <si>
+    <t>GSM_NAME</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.name</t>
+  </si>
+  <si>
+    <t>Usage History Last Five Transaction</t>
+  </si>
+  <si>
+    <t>LAST_FIVE_TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>Last Recharge Date</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_DATE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].dateTime</t>
+  </si>
+  <si>
+    <t>Last Recharge Value</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_VALUE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].charges</t>
+  </si>
+  <si>
+    <t>Last Transaction Amount</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_AMOUNT</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].amount</t>
+  </si>
+  <si>
+    <t>Last Transaction Id</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].transactionId</t>
+  </si>
+  <si>
+    <t>Last Transaction Msisdn</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_MSISDN</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].msisdn</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>NATIONAL_ID</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.identificationNo</t>
+  </si>
+  <si>
+    <t>Register Id</t>
+  </si>
+  <si>
+    <t>REGISTERED_ID</t>
+  </si>
+  <si>
+    <t>Two Last Dialled Number</t>
+  </si>
+  <si>
+    <t>TWO_LAST_DIALLED_NUMBER</t>
+  </si>
+  <si>
+    <t>AM Wallet Balance</t>
+  </si>
+  <si>
+    <t>WALLET_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
+  </si>
+  <si>
+    <t>130621000953</t>
+  </si>
+  <si>
+    <t>130621000954</t>
+  </si>
+  <si>
+    <t>UC-UT Offer</t>
+  </si>
+  <si>
+    <t>Offer ID</t>
+  </si>
+  <si>
+    <t>Offer Name</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>PAM Service ID</t>
+  </si>
+  <si>
+    <t>Offer Type</t>
+  </si>
+  <si>
+    <t>Offer State</t>
+  </si>
+  <si>
+    <t>No. Of DAs</t>
+  </si>
+  <si>
+    <t>Friends and Family</t>
+  </si>
+  <si>
+    <t>FnF Number</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>FnF Indicator</t>
+  </si>
+  <si>
+    <t>ADD ON BUNDLE USAGE</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>ACCOUNT INFORMATION DETAIL</t>
+  </si>
+  <si>
+    <t>Date &amp; time</t>
+  </si>
+  <si>
+    <t>Reference No.</t>
+  </si>
+  <si>
+    <t>Bill Amount</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>LINKED MSISDN</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
+    <t>SIM Number</t>
+  </si>
+  <si>
+    <t>GSM Service Activation Date</t>
+  </si>
+  <si>
+    <t>Line Type</t>
+  </si>
+  <si>
+    <t>Payment Level</t>
+  </si>
+  <si>
+    <t>GSM Status</t>
+  </si>
+  <si>
+    <t>Current Usage Limit</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>CUG</t>
+  </si>
+  <si>
+    <t>DND</t>
+  </si>
+  <si>
+    <t>Security Deposit</t>
+  </si>
+  <si>
+    <t>Charges (NGN)</t>
+  </si>
+  <si>
+    <t>Bundle Price (NGN)</t>
+  </si>
+  <si>
+    <t>Loan Amount (NGN)</t>
+  </si>
+  <si>
     <t>Amount
-(ZMW)</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Beneficiary</t>
+(NGN)</t>
   </si>
   <si>
     <t>Service Charge
-(ZMW)</t>
+(NGN)</t>
   </si>
   <si>
     <t>Pre balance
-(ZMW)</t>
+(NGN)</t>
   </si>
   <si>
     <t>Post balance
-(ZMW)</t>
-  </si>
-  <si>
-    <t>Quick Actions</t>
-  </si>
-  <si>
-    <t>Action Trail Tab</t>
-  </si>
-  <si>
-    <t>Action Type</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>Agent Id</t>
-  </si>
-  <si>
-    <t>Agent Name</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Option1</t>
-  </si>
-  <si>
-    <t>Option2</t>
-  </si>
-  <si>
-    <t>Option3</t>
-  </si>
-  <si>
-    <t>Option4</t>
-  </si>
-  <si>
-    <t>Option5</t>
-  </si>
-  <si>
-    <t>Category code</t>
-  </si>
-  <si>
-    <t>Test Data-UAT</t>
-  </si>
-  <si>
-    <t>Test Data-Prod</t>
-  </si>
-  <si>
-    <t>SIM Bar Unbar</t>
-  </si>
-  <si>
-    <t>SIM Lost</t>
-  </si>
-  <si>
-    <t>SIM Broken</t>
-  </si>
-  <si>
-    <t>Voucher Id</t>
-  </si>
-  <si>
-    <t>24070996121021997829</t>
-  </si>
-  <si>
-    <t>QXByQDIwMjE</t>
-  </si>
-  <si>
-    <t>Beta</t>
-  </si>
-  <si>
-    <t>UmFvQDA4OTE</t>
-  </si>
-  <si>
-    <t>U29hQDIwMjE</t>
-  </si>
-  <si>
-    <t>Tariff</t>
-  </si>
-  <si>
-    <t>UmFvQDA4OTI</t>
-  </si>
-  <si>
-    <t>CS Beta User</t>
-  </si>
-  <si>
-    <t>Auth Pop up(TRUE/FALSE)</t>
-  </si>
-  <si>
-    <t>reverseTransaction</t>
-  </si>
-  <si>
-    <t>resetPin</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>unblock</t>
-  </si>
-  <si>
-    <t>sendNotification</t>
-  </si>
-  <si>
-    <t>voucher</t>
-  </si>
-  <si>
-    <t>resetMe2UPassword</t>
-  </si>
-  <si>
-    <t>simUnBarring</t>
-  </si>
-  <si>
-    <t>simBarring</t>
-  </si>
-  <si>
-    <t>changeServiceClass</t>
-  </si>
-  <si>
-    <t>Queue Name</t>
-  </si>
-  <si>
-    <t>State name1</t>
-  </si>
-  <si>
-    <t>State name2</t>
-  </si>
-  <si>
-    <t>State name3</t>
-  </si>
-  <si>
-    <t>State name4</t>
-  </si>
-  <si>
-    <t>State name5</t>
-  </si>
-  <si>
-    <t>State name6</t>
-  </si>
-  <si>
-    <t>State name7</t>
-  </si>
-  <si>
-    <t>State name8</t>
-  </si>
-  <si>
-    <t>State name9</t>
-  </si>
-  <si>
-    <t>State name10</t>
-  </si>
-  <si>
-    <t>Transfer Anyway</t>
-  </si>
-  <si>
-    <t>Question Label</t>
-  </si>
-  <si>
-    <t>Question_Key</t>
-  </si>
-  <si>
-    <t>Answer_key</t>
-  </si>
-  <si>
-    <t>Airtel Money Name</t>
-  </si>
-  <si>
-    <t>AM_NAME</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/profile.result.firstName</t>
-  </si>
-  <si>
-    <t>Available Credit Balance</t>
-  </si>
-  <si>
-    <t>AVAILABLE_CREDIT_BALANCE</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/account/plans.result.mainAccountBalance.balance</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/gsm/kyc.result.dob</t>
-  </si>
-  <si>
-    <t>GSM Name</t>
-  </si>
-  <si>
-    <t>GSM_NAME</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/gsm/kyc.result.name</t>
-  </si>
-  <si>
-    <t>Usage History Last Five Transaction</t>
-  </si>
-  <si>
-    <t>LAST_FIVE_TRANSACTIONS</t>
-  </si>
-  <si>
-    <t>Last Recharge Date</t>
-  </si>
-  <si>
-    <t>LAST_RECHARGE_DATE</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/recharge/history.result[0].dateTime</t>
-  </si>
-  <si>
-    <t>Last Recharge Value</t>
-  </si>
-  <si>
-    <t>LAST_RECHARGE_VALUE</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/recharge/history.result[0].charges</t>
-  </si>
-  <si>
-    <t>Last Transaction Amount</t>
-  </si>
-  <si>
-    <t>LAST_TRANSACTION_AMOUNT</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/transaction/history.result.data[0].amount</t>
-  </si>
-  <si>
-    <t>Last Transaction Id</t>
-  </si>
-  <si>
-    <t>LAST_TRANSACTION_ID</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/transaction/history.result.data[0].transactionId</t>
-  </si>
-  <si>
-    <t>Last Transaction Msisdn</t>
-  </si>
-  <si>
-    <t>LAST_TRANSACTION_MSISDN</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/transaction/history.result.data[0].msisdn</t>
-  </si>
-  <si>
-    <t>National Id</t>
-  </si>
-  <si>
-    <t>NATIONAL_ID</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/gsm/kyc.result.identificationNo</t>
-  </si>
-  <si>
-    <t>Register Id</t>
-  </si>
-  <si>
-    <t>REGISTERED_ID</t>
-  </si>
-  <si>
-    <t>Two Last Dialled Number</t>
-  </si>
-  <si>
-    <t>TWO_LAST_DIALLED_NUMBER</t>
-  </si>
-  <si>
-    <t>AM Wallet Balance</t>
-  </si>
-  <si>
-    <t>WALLET_BALANCE</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
-  </si>
-  <si>
-    <t>130621000953</t>
-  </si>
-  <si>
-    <t>130621000954</t>
-  </si>
-  <si>
-    <t>UC-UT Offer</t>
-  </si>
-  <si>
-    <t>Offer ID</t>
-  </si>
-  <si>
-    <t>Offer Name</t>
-  </si>
-  <si>
-    <t>Product ID</t>
-  </si>
-  <si>
-    <t>PAM Service ID</t>
-  </si>
-  <si>
-    <t>Offer Type</t>
-  </si>
-  <si>
-    <t>Offer State</t>
-  </si>
-  <si>
-    <t>No. Of DAs</t>
-  </si>
-  <si>
-    <t>Friends and Family</t>
-  </si>
-  <si>
-    <t>FnF Number</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>FnF Indicator</t>
+(NGN)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4186,6 +4255,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF1C293B"/>
+      <name val="Tondo-regular"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4225,7 +4299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -4285,6 +4359,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4294,7 +4397,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4348,6 +4451,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4388,7 +4495,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4436,7 +4543,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4738,14 +4845,14 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4798,12 +4905,12 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>2394650</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1087</v>
@@ -4815,7 +4922,7 @@
         <v>1239</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="P2" s="23" t="s">
         <v>1237</v>
@@ -4824,12 +4931,12 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>2388192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1088</v>
@@ -4841,12 +4948,12 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2394650</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1090</v>
@@ -4858,7 +4965,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>2388008</v>
       </c>
@@ -4875,29 +4982,29 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>13221514</v>
       </c>
       <c r="B6" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="C6" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="D6">
         <v>8082732588</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>13221514</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="C7" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="D7">
         <v>9042837429</v>
@@ -4921,14 +5028,14 @@
       <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -4939,7 +5046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="8" t="s">
         <v>54</v>
       </c>
@@ -4948,7 +5055,7 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="8" t="s">
         <v>55</v>
       </c>
@@ -4957,7 +5064,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="8" t="s">
         <v>57</v>
       </c>
@@ -4966,7 +5073,7 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="8" t="s">
         <v>58</v>
       </c>
@@ -4975,7 +5082,7 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -4999,13 +5106,13 @@
       <selection activeCell="J13" activeCellId="1" sqref="I1 J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="35.28515625" style="16" customWidth="1" collapsed="1"/>
     <col min="2" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="20" t="s">
         <v>1198</v>
       </c>
@@ -5013,7 +5120,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="16" t="s">
         <v>1200</v>
       </c>
@@ -5021,7 +5128,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
         <v>1202</v>
       </c>
@@ -5029,7 +5136,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="16" t="s">
         <v>1204</v>
       </c>
@@ -5037,17 +5144,17 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="16" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="16" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="16" t="s">
         <v>1207</v>
       </c>
@@ -5065,7 +5172,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="16" collapsed="1"/>
     <col min="2" max="2" width="15.28515625" style="16" customWidth="1" collapsed="1"/>
@@ -5075,7 +5182,7 @@
     <col min="6" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="12" t="s">
         <v>1208</v>
       </c>
@@ -5105,7 +5212,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="16" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.140625" style="16" customWidth="1" collapsed="1"/>
@@ -5122,7 +5229,7 @@
     <col min="14" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
         <v>1213</v>
       </c>
@@ -5163,7 +5270,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="141.75">
       <c r="A2" s="16" t="s">
         <v>1234</v>
       </c>
@@ -5208,7 +5315,7 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="7" width="9.140625" style="29" collapsed="1"/>
     <col min="8" max="8" width="17.140625" style="29" customWidth="1" collapsed="1"/>
@@ -5216,47 +5323,47 @@
     <col min="10" max="16384" width="9.140625" style="29" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="45">
       <c r="A1" s="25" t="s">
         <v>1189</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>1264</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="J1" s="28" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="31.5">
+      <c r="A2" s="30" t="s">
         <v>1265</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="B2" s="30" t="s">
         <v>1266</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="C2" s="30" t="s">
         <v>1267</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>1268</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>1269</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>1270</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>1271</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>1274</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -5268,9 +5375,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="25" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -5279,18 +5386,18 @@
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="31" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="J3" s="25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="45">
       <c r="A4" s="25" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -5304,9 +5411,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="25" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -5320,9 +5427,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="25" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -5336,9 +5443,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="25" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -5352,9 +5459,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" s="25" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -5368,9 +5475,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="25" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -5384,9 +5491,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45">
       <c r="A10" s="25" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -5400,9 +5507,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="30">
       <c r="A11" s="25" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -5416,9 +5523,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30">
       <c r="A12" s="25" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -5432,9 +5539,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="45">
       <c r="A13" s="25" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -5462,44 +5569,44 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="32" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>1295</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>1296</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>1297</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>1298</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>1300</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>1302</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>1303</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>1304</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="12" t="s">
         <v>75</v>
       </c>
@@ -5520,7 +5627,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="12" t="s">
         <v>76</v>
       </c>
@@ -5554,12 +5661,12 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="10.85546875" style="29" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="31.5">
       <c r="A1" s="30" t="s">
         <v>1211</v>
       </c>
@@ -5567,10 +5674,10 @@
         <v>1212</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="30" t="s">
         <v>75</v>
       </c>
@@ -5581,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="30" t="s">
         <v>76</v>
       </c>
@@ -5605,7 +5712,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.28515625" style="29" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="39.140625" style="29" customWidth="1" collapsed="1"/>
@@ -5613,163 +5720,163 @@
     <col min="4" max="16384" width="10.85546875" style="29" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="30" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="30" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.5">
+      <c r="A3" s="30" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>1307</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C3" s="30" t="s">
         <v>1308</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="30" t="s">
         <v>1233</v>
       </c>
       <c r="B4" s="30" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="30" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
+      <c r="A6" s="30" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" s="30" t="s">
         <v>1316</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="B7" s="30" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="C7" s="30" t="s">
         <v>1318</v>
       </c>
-      <c r="B5" s="30" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
+      <c r="A8" s="30" t="s">
         <v>1319</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="B8" s="30" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="C8" s="30" t="s">
         <v>1321</v>
       </c>
-      <c r="B6" s="30" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="A9" s="30" t="s">
         <v>1322</v>
       </c>
-      <c r="C6" s="34"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="B9" s="30" t="s">
         <v>1323</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="C9" s="30" t="s">
         <v>1324</v>
       </c>
-      <c r="C7" s="30" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="31.5">
+      <c r="A10" s="30" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="B10" s="30" t="s">
         <v>1326</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="C10" s="30" t="s">
         <v>1327</v>
       </c>
-      <c r="C8" s="30" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
+      <c r="A11" s="30" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="B11" s="30" t="s">
         <v>1329</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="C11" s="30" t="s">
         <v>1330</v>
       </c>
-      <c r="C9" s="30" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="15.75">
+      <c r="A12" s="30" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="B12" s="30" t="s">
         <v>1332</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="C12" s="30" t="s">
         <v>1333</v>
       </c>
-      <c r="C10" s="30" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15.75">
+      <c r="A13" s="30" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="B13" s="30" t="s">
         <v>1335</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75">
+      <c r="A14" s="30" t="s">
         <v>1336</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="B14" s="30" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75">
+      <c r="A15" s="30" t="s">
         <v>1338</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B15" s="30" t="s">
         <v>1339</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C15" s="30" t="s">
         <v>1340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C13" s="34"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C14" s="34"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>1347</v>
       </c>
     </row>
   </sheetData>
@@ -5785,42 +5892,42 @@
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75">
       <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.75">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.75">
       <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.75">
       <c r="A5" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.75">
       <c r="A6" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.75">
       <c r="A7" s="7" t="s">
         <v>53</v>
       </c>
@@ -5832,13 +5939,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="33.140625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="14.140625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
@@ -5854,7 +5961,7 @@
     <col min="12" max="16384" width="12.42578125" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="22" t="s">
         <v>1111</v>
       </c>
@@ -5895,7 +6002,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="22" t="s">
         <v>1035</v>
       </c>
@@ -5922,7 +6029,7 @@
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="22" t="s">
         <v>1126</v>
       </c>
@@ -5949,12 +6056,12 @@
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="22" t="s">
         <v>1131</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>1243</v>
+        <v>1378</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>1128</v>
@@ -5976,7 +6083,7 @@
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="22" t="s">
         <v>1134</v>
       </c>
@@ -6002,14 +6109,14 @@
         <v>1139</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>1244</v>
+        <v>1379</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="22" t="s">
         <v>1140</v>
       </c>
@@ -6034,7 +6141,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="22" t="s">
         <v>1142</v>
       </c>
@@ -6059,7 +6166,7 @@
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="22" t="s">
         <v>1144</v>
       </c>
@@ -6086,7 +6193,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="22" t="s">
         <v>1147</v>
       </c>
@@ -6113,7 +6220,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="24" t="s">
         <v>1153</v>
       </c>
@@ -6121,7 +6228,7 @@
         <v>1154</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>1245</v>
+        <v>1380</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>1155</v>
@@ -6140,7 +6247,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="24" t="s">
         <v>1158</v>
       </c>
@@ -6167,7 +6274,7 @@
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="24" t="s">
         <v>1164</v>
       </c>
@@ -6198,7 +6305,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="22" t="s">
         <v>1172</v>
       </c>
@@ -6223,12 +6330,12 @@
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="24" t="s">
         <v>1177</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>1243</v>
+        <v>1378</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>1128</v>
@@ -6260,7 +6367,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="24" t="s">
         <v>1182</v>
       </c>
@@ -6291,7 +6398,7 @@
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="24" t="s">
         <v>1185</v>
       </c>
@@ -6316,7 +6423,7 @@
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="24" t="s">
         <v>1190</v>
       </c>
@@ -6341,7 +6448,7 @@
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="24" t="s">
         <v>1195</v>
       </c>
@@ -6349,13 +6456,13 @@
         <v>1196</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>1197</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>1189</v>
@@ -6368,68 +6475,68 @@
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
     </row>
-    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="45">
       <c r="A19" s="24" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>1249</v>
+        <v>1381</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>1123</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>1124</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>1254</v>
+        <v>1382</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>1255</v>
+        <v>1383</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>1256</v>
+        <v>1384</v>
       </c>
       <c r="L19" s="24" t="s">
         <v>1125</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="24" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>1128</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
@@ -6438,18 +6545,18 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="15">
       <c r="A21" s="22" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>1193</v>
@@ -6458,30 +6565,30 @@
         <v>1152</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="15">
       <c r="A22" s="22" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>1193</v>
@@ -6490,7 +6597,7 @@
         <v>1152</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>1189</v>
@@ -6501,6 +6608,103 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.5">
+      <c r="A23" s="35" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="37" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="37" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>1376</v>
+      </c>
+      <c r="L25" s="38" t="s">
+        <v>1377</v>
+      </c>
+      <c r="M25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6517,14 +6721,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="9.140625" style="1" collapsed="1"/>
     <col min="6" max="23" width="0" style="1" hidden="1" customWidth="1" collapsed="1"/>
     <col min="24" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="15.75">
       <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
@@ -6703,7 +6907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="15.75">
       <c r="A2" s="16" t="s">
         <v>142</v>
       </c>
@@ -6729,10 +6933,10 @@
         <v>122</v>
       </c>
       <c r="BG2" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" ht="15.75">
       <c r="A3" s="16" t="s">
         <v>142</v>
       </c>
@@ -6758,7 +6962,7 @@
         <v>122</v>
       </c>
       <c r="BG3" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
     </row>
   </sheetData>
@@ -6774,12 +6978,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="6" max="23" width="0" hidden="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="15.75">
       <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
@@ -6958,7 +7162,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="15.75">
       <c r="A2" s="14" t="s">
         <v>83</v>
       </c>
@@ -6975,7 +7179,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" ht="15.75">
       <c r="A3" s="13" t="s">
         <v>142</v>
       </c>
@@ -7001,7 +7205,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" ht="15.75">
       <c r="A4" s="13" t="s">
         <v>142</v>
       </c>
@@ -7027,7 +7231,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" ht="15.75">
       <c r="A5" s="13" t="s">
         <v>142</v>
       </c>
@@ -7053,7 +7257,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" ht="15.75">
       <c r="A6" s="13" t="s">
         <v>142</v>
       </c>
@@ -7079,7 +7283,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" ht="15.75">
       <c r="A7" s="13" t="s">
         <v>142</v>
       </c>
@@ -7105,7 +7309,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" ht="15.75">
       <c r="A8" s="13" t="s">
         <v>142</v>
       </c>
@@ -7131,7 +7335,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" ht="15.75">
       <c r="A9" s="13" t="s">
         <v>142</v>
       </c>
@@ -7157,7 +7361,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" ht="15.75">
       <c r="A10" s="13" t="s">
         <v>142</v>
       </c>
@@ -7183,7 +7387,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" ht="15.75">
       <c r="A11" s="13" t="s">
         <v>142</v>
       </c>
@@ -7209,7 +7413,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" ht="15.75">
       <c r="A12" s="13" t="s">
         <v>142</v>
       </c>
@@ -7235,7 +7439,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" ht="15.75">
       <c r="A13" s="13" t="s">
         <v>142</v>
       </c>
@@ -7261,7 +7465,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" ht="15.75">
       <c r="A14" s="13" t="s">
         <v>142</v>
       </c>
@@ -7287,7 +7491,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" ht="15.75">
       <c r="A15" s="13" t="s">
         <v>142</v>
       </c>
@@ -7313,7 +7517,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" ht="15.75">
       <c r="A16" s="13" t="s">
         <v>142</v>
       </c>
@@ -7339,7 +7543,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" ht="15.75">
       <c r="A17" s="13" t="s">
         <v>142</v>
       </c>
@@ -7365,7 +7569,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" ht="15.75">
       <c r="A18" s="13" t="s">
         <v>142</v>
       </c>
@@ -7391,7 +7595,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" ht="15.75">
       <c r="A19" s="13" t="s">
         <v>142</v>
       </c>
@@ -7417,7 +7621,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" ht="15.75">
       <c r="A20" s="13" t="s">
         <v>142</v>
       </c>
@@ -7443,7 +7647,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" ht="15.75">
       <c r="A21" s="13" t="s">
         <v>142</v>
       </c>
@@ -7469,7 +7673,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" ht="15.75">
       <c r="A22" s="13" t="s">
         <v>142</v>
       </c>
@@ -7495,7 +7699,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" ht="15.75">
       <c r="A23" s="14" t="s">
         <v>83</v>
       </c>
@@ -7521,7 +7725,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" ht="15.75">
       <c r="A24" s="14" t="s">
         <v>83</v>
       </c>
@@ -7547,7 +7751,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" ht="15.75">
       <c r="A25" s="14" t="s">
         <v>83</v>
       </c>
@@ -7573,7 +7777,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" ht="15.75">
       <c r="A26" s="14" t="s">
         <v>83</v>
       </c>
@@ -7599,7 +7803,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" ht="15.75">
       <c r="A27" s="14" t="s">
         <v>83</v>
       </c>
@@ -7625,7 +7829,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" ht="15.75">
       <c r="A28" s="13" t="s">
         <v>142</v>
       </c>
@@ -7651,7 +7855,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" ht="15.75">
       <c r="A29" s="14" t="s">
         <v>83</v>
       </c>
@@ -7677,7 +7881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" ht="15.75">
       <c r="A30" s="14" t="s">
         <v>83</v>
       </c>
@@ -7703,7 +7907,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" ht="15.75">
       <c r="A31" s="14" t="s">
         <v>83</v>
       </c>
@@ -7729,7 +7933,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" ht="15.75">
       <c r="A32" s="14" t="s">
         <v>83</v>
       </c>
@@ -7755,7 +7959,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" ht="15.75">
       <c r="A33" s="14" t="s">
         <v>83</v>
       </c>
@@ -7781,7 +7985,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57" ht="15.75">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
@@ -7807,7 +8011,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57" ht="15.75">
       <c r="A35" s="14" t="s">
         <v>83</v>
       </c>
@@ -7833,7 +8037,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:57" ht="15.75">
       <c r="A36" s="14" t="s">
         <v>83</v>
       </c>
@@ -7859,7 +8063,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:57" ht="15.75">
       <c r="A37" s="14" t="s">
         <v>83</v>
       </c>
@@ -7885,7 +8089,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:57" ht="15.75">
       <c r="A38" s="14" t="s">
         <v>83</v>
       </c>
@@ -7911,7 +8115,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:57" ht="15.75">
       <c r="A39" s="14" t="s">
         <v>83</v>
       </c>
@@ -7937,7 +8141,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:57" ht="15.75">
       <c r="A40" s="14" t="s">
         <v>83</v>
       </c>
@@ -7963,7 +8167,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:57" ht="15.75">
       <c r="A41" s="14" t="s">
         <v>83</v>
       </c>
@@ -7989,7 +8193,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:57" ht="15.75">
       <c r="A42" s="13" t="s">
         <v>88</v>
       </c>
@@ -8015,7 +8219,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:57" ht="15.75">
       <c r="A43" s="14" t="s">
         <v>83</v>
       </c>
@@ -8041,7 +8245,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:57" ht="15.75">
       <c r="A44" s="14" t="s">
         <v>83</v>
       </c>
@@ -8067,7 +8271,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" ht="15.75">
       <c r="A45" s="14" t="s">
         <v>83</v>
       </c>
@@ -8093,7 +8297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:57" ht="15.75">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -8119,7 +8323,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:57" ht="15.75">
       <c r="A47" s="14" t="s">
         <v>83</v>
       </c>
@@ -8145,7 +8349,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:57" ht="15.75">
       <c r="A48" s="14" t="s">
         <v>83</v>
       </c>
@@ -8171,7 +8375,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:57" ht="15.75">
       <c r="A49" s="14" t="s">
         <v>83</v>
       </c>
@@ -8197,7 +8401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:57" ht="15.75">
       <c r="A50" s="14" t="s">
         <v>83</v>
       </c>
@@ -8223,7 +8427,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:57" ht="15.75">
       <c r="A51" s="14" t="s">
         <v>83</v>
       </c>
@@ -8249,7 +8453,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:57" ht="15.75">
       <c r="A52" s="13" t="s">
         <v>142</v>
       </c>
@@ -8275,7 +8479,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:57" ht="15.75">
       <c r="A53" s="13" t="s">
         <v>142</v>
       </c>
@@ -8301,7 +8505,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:57" ht="15.75">
       <c r="A54" s="14" t="s">
         <v>83</v>
       </c>
@@ -8327,7 +8531,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:57" ht="15.75">
       <c r="A55" s="14" t="s">
         <v>83</v>
       </c>
@@ -8353,7 +8557,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:57" ht="15.75">
       <c r="A56" s="14" t="s">
         <v>83</v>
       </c>
@@ -8379,7 +8583,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:57" ht="15.75">
       <c r="A57" s="14" t="s">
         <v>83</v>
       </c>
@@ -8405,7 +8609,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:57" ht="15.75">
       <c r="A58" s="14" t="s">
         <v>83</v>
       </c>
@@ -8431,7 +8635,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:57" ht="15.75">
       <c r="A59" s="13" t="s">
         <v>142</v>
       </c>
@@ -8457,7 +8661,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:57" ht="15.75">
       <c r="A60" s="14" t="s">
         <v>83</v>
       </c>
@@ -8483,7 +8687,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:57" ht="15.75">
       <c r="A61" s="14" t="s">
         <v>83</v>
       </c>
@@ -8509,7 +8713,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:57" ht="15.75">
       <c r="A62" s="14" t="s">
         <v>83</v>
       </c>
@@ -8535,7 +8739,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:57" ht="15.75">
       <c r="A63" s="14" t="s">
         <v>83</v>
       </c>
@@ -8561,7 +8765,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:57" ht="15.75">
       <c r="A64" s="14" t="s">
         <v>83</v>
       </c>
@@ -8587,7 +8791,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:57" ht="15.75">
       <c r="A65" s="14" t="s">
         <v>83</v>
       </c>
@@ -8613,7 +8817,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:57" ht="15.75">
       <c r="A66" s="14" t="s">
         <v>83</v>
       </c>
@@ -8639,7 +8843,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:57" ht="15.75">
       <c r="A67" s="14" t="s">
         <v>83</v>
       </c>
@@ -8665,7 +8869,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:57" ht="15.75">
       <c r="A68" s="14" t="s">
         <v>83</v>
       </c>
@@ -8691,7 +8895,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:57" ht="15.75">
       <c r="A69" s="14" t="s">
         <v>83</v>
       </c>
@@ -8717,7 +8921,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:57" ht="15.75">
       <c r="A70" s="14" t="s">
         <v>83</v>
       </c>
@@ -8743,7 +8947,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:57" ht="15.75">
       <c r="A71" s="14" t="s">
         <v>83</v>
       </c>
@@ -8769,7 +8973,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:57" ht="15.75">
       <c r="A72" s="14" t="s">
         <v>83</v>
       </c>
@@ -8795,7 +8999,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:57" ht="15.75">
       <c r="A73" s="14" t="s">
         <v>83</v>
       </c>
@@ -8821,7 +9025,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:57" ht="15.75">
       <c r="A74" s="14" t="s">
         <v>83</v>
       </c>
@@ -8847,7 +9051,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:57" ht="15.75">
       <c r="A75" s="14" t="s">
         <v>83</v>
       </c>
@@ -8873,7 +9077,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:57" ht="15.75">
       <c r="A76" s="14" t="s">
         <v>83</v>
       </c>
@@ -8899,7 +9103,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:57" ht="15.75">
       <c r="A77" s="14" t="s">
         <v>83</v>
       </c>
@@ -8925,7 +9129,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:57" ht="15.75">
       <c r="A78" s="14" t="s">
         <v>83</v>
       </c>
@@ -8951,7 +9155,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:57" ht="15.75">
       <c r="A79" s="14" t="s">
         <v>83</v>
       </c>
@@ -8977,7 +9181,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:57" ht="15.75">
       <c r="A80" s="14" t="s">
         <v>83</v>
       </c>
@@ -9003,7 +9207,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:57" ht="15.75">
       <c r="A81" s="13" t="s">
         <v>142</v>
       </c>
@@ -9029,7 +9233,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:57" ht="15.75">
       <c r="A82" s="14" t="s">
         <v>83</v>
       </c>
@@ -9055,7 +9259,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:57" ht="15.75">
       <c r="A83" s="13" t="s">
         <v>88</v>
       </c>
@@ -9081,7 +9285,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:57" ht="15.75">
       <c r="A84" s="14" t="s">
         <v>83</v>
       </c>
@@ -9107,7 +9311,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:57" ht="15.75">
       <c r="A85" s="14" t="s">
         <v>83</v>
       </c>
@@ -9133,7 +9337,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:57" ht="15.75">
       <c r="A86" s="14" t="s">
         <v>83</v>
       </c>
@@ -9159,7 +9363,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:57" ht="15.75">
       <c r="A87" s="13" t="s">
         <v>142</v>
       </c>
@@ -9185,7 +9389,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:57" ht="15.75">
       <c r="A88" s="14" t="s">
         <v>83</v>
       </c>
@@ -9211,7 +9415,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:57" ht="15.75">
       <c r="A89" s="14" t="s">
         <v>83</v>
       </c>
@@ -9237,7 +9441,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:57" ht="15.75">
       <c r="A90" s="14" t="s">
         <v>83</v>
       </c>
@@ -9263,7 +9467,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:57" ht="15.75">
       <c r="A91" s="14" t="s">
         <v>83</v>
       </c>
@@ -9289,7 +9493,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:57" ht="15.75">
       <c r="A92" s="13" t="s">
         <v>142</v>
       </c>
@@ -9315,7 +9519,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:57" ht="15.75">
       <c r="A93" s="13" t="s">
         <v>142</v>
       </c>
@@ -9341,7 +9545,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:57" ht="15.75">
       <c r="A94" s="13" t="s">
         <v>142</v>
       </c>
@@ -9367,7 +9571,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:57" ht="15.75">
       <c r="A95" s="13" t="s">
         <v>142</v>
       </c>
@@ -9393,7 +9597,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:57" ht="15.75">
       <c r="A96" s="14" t="s">
         <v>83</v>
       </c>
@@ -9410,7 +9614,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="97" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:57" ht="15.75">
       <c r="A97" s="14" t="s">
         <v>83</v>
       </c>
@@ -9427,7 +9631,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="98" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:57" ht="15.75">
       <c r="A98" s="14" t="s">
         <v>83</v>
       </c>
@@ -9444,7 +9648,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="99" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:57" ht="15.75">
       <c r="A99" s="14" t="s">
         <v>83</v>
       </c>
@@ -9461,7 +9665,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="100" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:57" ht="15.75">
       <c r="A100" s="14" t="s">
         <v>83</v>
       </c>
@@ -9478,7 +9682,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="101" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:57" ht="15.75">
       <c r="A101" s="14" t="s">
         <v>83</v>
       </c>
@@ -9495,7 +9699,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="102" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:57" ht="15.75">
       <c r="A102" s="14" t="s">
         <v>83</v>
       </c>
@@ -9521,7 +9725,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:57" ht="15.75">
       <c r="A103" s="14" t="s">
         <v>83</v>
       </c>
@@ -9547,7 +9751,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="104" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:57" ht="15.75">
       <c r="A104" s="14" t="s">
         <v>83</v>
       </c>
@@ -9573,7 +9777,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:57" ht="15.75">
       <c r="A105" s="14" t="s">
         <v>83</v>
       </c>
@@ -9599,7 +9803,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:57" ht="15.75">
       <c r="A106" s="13" t="s">
         <v>142</v>
       </c>
@@ -9625,7 +9829,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:57" ht="15.75">
       <c r="A107" s="13" t="s">
         <v>142</v>
       </c>
@@ -9651,7 +9855,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="108" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:57" ht="15.75">
       <c r="A108" s="13" t="s">
         <v>142</v>
       </c>
@@ -9677,7 +9881,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:57" ht="15.75">
       <c r="A109" s="14" t="s">
         <v>83</v>
       </c>
@@ -9703,7 +9907,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:57" ht="15.75">
       <c r="A110" s="14" t="s">
         <v>83</v>
       </c>
@@ -9729,7 +9933,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:57" ht="15.75">
       <c r="A111" s="13" t="s">
         <v>142</v>
       </c>
@@ -9755,7 +9959,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:57" ht="15.75">
       <c r="A112" s="14" t="s">
         <v>83</v>
       </c>
@@ -9781,7 +9985,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:57" ht="15.75">
       <c r="A113" s="14" t="s">
         <v>83</v>
       </c>
@@ -9798,7 +10002,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="114" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:57" ht="15.75">
       <c r="A114" s="14" t="s">
         <v>83</v>
       </c>
@@ -9815,7 +10019,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:57" ht="15.75">
       <c r="A115" s="14" t="s">
         <v>83</v>
       </c>
@@ -9832,7 +10036,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="116" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:57" ht="15.75">
       <c r="A116" s="13" t="s">
         <v>142</v>
       </c>
@@ -9849,7 +10053,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="117" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:57" ht="15.75">
       <c r="A117" s="13" t="s">
         <v>142</v>
       </c>
@@ -9866,7 +10070,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="118" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:57" ht="15.75">
       <c r="A118" s="14" t="s">
         <v>83</v>
       </c>
@@ -9883,7 +10087,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="119" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:57" ht="15.75">
       <c r="A119" s="14" t="s">
         <v>83</v>
       </c>
@@ -9900,7 +10104,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="120" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:57" ht="15.75">
       <c r="A120" s="14" t="s">
         <v>83</v>
       </c>
@@ -9917,7 +10121,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="121" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:57" ht="15.75">
       <c r="A121" s="14" t="s">
         <v>83</v>
       </c>
@@ -9934,7 +10138,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="122" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:57" ht="15.75">
       <c r="A122" s="13" t="s">
         <v>142</v>
       </c>
@@ -9951,7 +10155,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="123" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:57" ht="15.75">
       <c r="A123" s="13" t="s">
         <v>142</v>
       </c>
@@ -9968,7 +10172,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="124" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:57" ht="15.75">
       <c r="A124" s="14" t="s">
         <v>83</v>
       </c>
@@ -9985,7 +10189,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="125" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:57" ht="15.75">
       <c r="A125" s="14" t="s">
         <v>83</v>
       </c>
@@ -10011,7 +10215,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:57" ht="15.75">
       <c r="A126" s="14" t="s">
         <v>83</v>
       </c>
@@ -10037,7 +10241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:57" ht="15.75">
       <c r="A127" s="14" t="s">
         <v>83</v>
       </c>
@@ -10063,7 +10267,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="128" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:57" ht="15.75">
       <c r="A128" s="14" t="s">
         <v>83</v>
       </c>
@@ -10089,7 +10293,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="15.75">
       <c r="A129" s="14" t="s">
         <v>83</v>
       </c>
@@ -10106,7 +10310,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15.75">
       <c r="A130" s="14" t="s">
         <v>83</v>
       </c>
@@ -10123,7 +10327,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="15.75">
       <c r="A131" s="14" t="s">
         <v>83</v>
       </c>
@@ -10140,7 +10344,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15.75">
       <c r="A132" s="14" t="s">
         <v>83</v>
       </c>
@@ -10157,7 +10361,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15.75">
       <c r="A133" s="14" t="s">
         <v>83</v>
       </c>
@@ -10174,7 +10378,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="15.75">
       <c r="A134" s="14" t="s">
         <v>83</v>
       </c>
@@ -10191,7 +10395,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="15.75">
       <c r="A135" s="14" t="s">
         <v>83</v>
       </c>
@@ -10208,7 +10412,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15.75">
       <c r="A136" s="14" t="s">
         <v>83</v>
       </c>
@@ -10225,7 +10429,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="15.75">
       <c r="A137" s="14" t="s">
         <v>83</v>
       </c>
@@ -10242,7 +10446,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15.75">
       <c r="A138" s="14" t="s">
         <v>83</v>
       </c>
@@ -10259,7 +10463,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15.75">
       <c r="A139" s="14" t="s">
         <v>83</v>
       </c>
@@ -10276,7 +10480,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15.75">
       <c r="A140" s="14" t="s">
         <v>83</v>
       </c>
@@ -10293,7 +10497,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="15.75">
       <c r="A141" s="14" t="s">
         <v>83</v>
       </c>
@@ -10310,7 +10514,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="15.75">
       <c r="A142" s="14" t="s">
         <v>83</v>
       </c>
@@ -10327,7 +10531,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="15.75">
       <c r="A143" s="13" t="s">
         <v>142</v>
       </c>
@@ -10344,7 +10548,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="15.75">
       <c r="A144" s="13" t="s">
         <v>142</v>
       </c>
@@ -10361,7 +10565,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="145" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:57" ht="15.75">
       <c r="A145" s="13" t="s">
         <v>142</v>
       </c>
@@ -10378,7 +10582,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="146" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:57" ht="15.75">
       <c r="A146" s="13" t="s">
         <v>142</v>
       </c>
@@ -10395,7 +10599,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="147" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:57" ht="15.75">
       <c r="A147" s="13" t="s">
         <v>142</v>
       </c>
@@ -10412,7 +10616,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="148" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:57" ht="15.75">
       <c r="A148" s="14" t="s">
         <v>83</v>
       </c>
@@ -10429,7 +10633,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="149" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:57" ht="15.75">
       <c r="A149" s="14" t="s">
         <v>83</v>
       </c>
@@ -10446,7 +10650,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="150" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:57" ht="15.75">
       <c r="A150" s="14" t="s">
         <v>83</v>
       </c>
@@ -10472,7 +10676,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="151" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:57" ht="15.75">
       <c r="A151" s="14" t="s">
         <v>83</v>
       </c>
@@ -10498,7 +10702,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:57" ht="15.75">
       <c r="A152" s="14" t="s">
         <v>83</v>
       </c>
@@ -10524,7 +10728,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:57" ht="15.75">
       <c r="A153" s="14" t="s">
         <v>83</v>
       </c>
@@ -10550,7 +10754,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="154" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:57" ht="15.75">
       <c r="A154" s="14" t="s">
         <v>83</v>
       </c>
@@ -10576,7 +10780,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="155" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:57" ht="15.75">
       <c r="A155" s="14" t="s">
         <v>83</v>
       </c>
@@ -10602,7 +10806,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="156" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:57" ht="15.75">
       <c r="A156" s="14" t="s">
         <v>83</v>
       </c>
@@ -10619,7 +10823,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="157" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:57" ht="15.75">
       <c r="A157" s="14" t="s">
         <v>83</v>
       </c>
@@ -10636,7 +10840,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="158" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:57" ht="15.75">
       <c r="A158" s="14" t="s">
         <v>83</v>
       </c>
@@ -10653,7 +10857,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="159" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:57" ht="15.75">
       <c r="A159" s="14" t="s">
         <v>83</v>
       </c>
@@ -10670,7 +10874,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="160" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:57" ht="15.75">
       <c r="A160" s="14" t="s">
         <v>83</v>
       </c>
@@ -10687,7 +10891,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="161" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:57" ht="15.75">
       <c r="A161" s="14" t="s">
         <v>83</v>
       </c>
@@ -10704,7 +10908,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="162" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:57" ht="15.75">
       <c r="A162" s="14" t="s">
         <v>83</v>
       </c>
@@ -10721,7 +10925,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="163" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:57" ht="15.75">
       <c r="A163" s="14" t="s">
         <v>83</v>
       </c>
@@ -10738,7 +10942,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="164" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:57" ht="15.75">
       <c r="A164" s="14" t="s">
         <v>83</v>
       </c>
@@ -10755,7 +10959,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="165" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:57" ht="15.75">
       <c r="A165" s="14" t="s">
         <v>83</v>
       </c>
@@ -10781,7 +10985,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="166" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:57" ht="15.75">
       <c r="A166" s="14" t="s">
         <v>83</v>
       </c>
@@ -10807,7 +11011,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="167" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:57" ht="15.75">
       <c r="A167" s="13" t="s">
         <v>142</v>
       </c>
@@ -10833,7 +11037,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="168" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:57" ht="15.75">
       <c r="A168" s="13" t="s">
         <v>142</v>
       </c>
@@ -10859,7 +11063,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="169" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:57" ht="15.75">
       <c r="A169" s="13" t="s">
         <v>142</v>
       </c>
@@ -10898,7 +11102,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1" collapsed="1"/>
@@ -10908,7 +11112,7 @@
     <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -10925,7 +11129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="14" t="s">
         <v>83</v>
       </c>
@@ -10942,7 +11146,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="16" t="s">
         <v>88</v>
       </c>
@@ -10972,7 +11176,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1" collapsed="1"/>
@@ -10981,7 +11185,7 @@
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -10998,7 +11202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="14" t="s">
         <v>83</v>
       </c>
@@ -11015,7 +11219,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="13" t="s">
         <v>88</v>
       </c>
@@ -11032,7 +11236,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="13" t="s">
         <v>93</v>
       </c>
@@ -11049,7 +11253,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="14" t="s">
         <v>83</v>
       </c>
@@ -11066,7 +11270,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="13" t="s">
         <v>88</v>
       </c>
@@ -11083,7 +11287,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="13" t="s">
         <v>93</v>
       </c>
@@ -11100,7 +11304,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="14" t="s">
         <v>83</v>
       </c>
@@ -11117,7 +11321,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="14" t="s">
         <v>83</v>
       </c>
@@ -11134,7 +11338,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="13" t="s">
         <v>93</v>
       </c>
@@ -11151,7 +11355,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="13" t="s">
         <v>93</v>
       </c>
@@ -11168,7 +11372,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="13" t="s">
         <v>93</v>
       </c>
@@ -11185,7 +11389,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="13" t="s">
         <v>93</v>
       </c>
@@ -11202,7 +11406,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="14" t="s">
         <v>83</v>
       </c>
@@ -11219,7 +11423,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75">
       <c r="A15" s="14" t="s">
         <v>83</v>
       </c>
@@ -11236,7 +11440,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75">
       <c r="A16" s="14" t="s">
         <v>83</v>
       </c>
@@ -11253,7 +11457,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="13" t="s">
         <v>93</v>
       </c>
@@ -11270,7 +11474,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="13" t="s">
         <v>93</v>
       </c>
@@ -11287,7 +11491,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="13" t="s">
         <v>93</v>
       </c>
@@ -11304,7 +11508,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="13" t="s">
         <v>142</v>
       </c>
@@ -11321,7 +11525,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="14" t="s">
         <v>83</v>
       </c>
@@ -11338,7 +11542,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="14" t="s">
         <v>83</v>
       </c>
@@ -11355,7 +11559,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="13" t="s">
         <v>93</v>
       </c>
@@ -11372,7 +11576,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="13" t="s">
         <v>93</v>
       </c>
@@ -11389,7 +11593,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75">
       <c r="A25" s="13" t="s">
         <v>93</v>
       </c>
@@ -11406,7 +11610,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="13" t="s">
         <v>93</v>
       </c>
@@ -11423,7 +11627,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75">
       <c r="A27" s="13" t="s">
         <v>93</v>
       </c>
@@ -11440,7 +11644,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="13" t="s">
         <v>93</v>
       </c>
@@ -11457,7 +11661,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75">
       <c r="A29" s="13" t="s">
         <v>93</v>
       </c>
@@ -11474,7 +11678,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75">
       <c r="A30" s="13" t="s">
         <v>93</v>
       </c>
@@ -11491,7 +11695,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75">
       <c r="A31" s="13" t="s">
         <v>93</v>
       </c>
@@ -11508,7 +11712,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75">
       <c r="A32" s="13" t="s">
         <v>93</v>
       </c>
@@ -11525,7 +11729,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75">
       <c r="A33" s="13" t="s">
         <v>93</v>
       </c>
@@ -11542,7 +11746,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75">
       <c r="A34" s="13" t="s">
         <v>93</v>
       </c>
@@ -11559,7 +11763,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75">
       <c r="A35" s="13" t="s">
         <v>93</v>
       </c>
@@ -11576,7 +11780,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75">
       <c r="A36" s="13" t="s">
         <v>93</v>
       </c>
@@ -11593,7 +11797,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75">
       <c r="A37" s="13" t="s">
         <v>93</v>
       </c>
@@ -11610,7 +11814,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75">
       <c r="A38" s="13" t="s">
         <v>93</v>
       </c>
@@ -11627,7 +11831,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75">
       <c r="A39" s="13" t="s">
         <v>93</v>
       </c>
@@ -11644,7 +11848,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75">
       <c r="A40" s="13" t="s">
         <v>93</v>
       </c>
@@ -11661,7 +11865,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75">
       <c r="A41" s="13" t="s">
         <v>93</v>
       </c>
@@ -11678,7 +11882,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75">
       <c r="A42" s="13" t="s">
         <v>93</v>
       </c>
@@ -11695,7 +11899,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75">
       <c r="A43" s="13" t="s">
         <v>93</v>
       </c>
@@ -11712,7 +11916,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75">
       <c r="A44" s="13" t="s">
         <v>93</v>
       </c>
@@ -11729,7 +11933,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75">
       <c r="A45" s="13" t="s">
         <v>93</v>
       </c>
@@ -11746,7 +11950,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75">
       <c r="A46" s="13" t="s">
         <v>93</v>
       </c>
@@ -11763,7 +11967,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75">
       <c r="A47" s="13" t="s">
         <v>93</v>
       </c>
@@ -11780,7 +11984,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75">
       <c r="A48" s="13" t="s">
         <v>93</v>
       </c>
@@ -11797,7 +12001,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75">
       <c r="A49" s="13" t="s">
         <v>88</v>
       </c>
@@ -11814,7 +12018,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75">
       <c r="A50" s="13" t="s">
         <v>88</v>
       </c>
@@ -11831,7 +12035,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75">
       <c r="A51" s="13" t="s">
         <v>88</v>
       </c>
@@ -11848,7 +12052,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75">
       <c r="A52" s="13" t="s">
         <v>88</v>
       </c>
@@ -11865,7 +12069,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.75">
       <c r="A53" s="13" t="s">
         <v>88</v>
       </c>
@@ -11882,7 +12086,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75">
       <c r="A54" s="13" t="s">
         <v>93</v>
       </c>
@@ -11899,7 +12103,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75">
       <c r="A55" s="13" t="s">
         <v>93</v>
       </c>
@@ -11916,7 +12120,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75">
       <c r="A56" s="13" t="s">
         <v>93</v>
       </c>
@@ -11933,7 +12137,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15.75">
       <c r="A57" s="13" t="s">
         <v>93</v>
       </c>
@@ -11950,7 +12154,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15.75">
       <c r="A58" s="13" t="s">
         <v>93</v>
       </c>
@@ -11967,7 +12171,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15.75">
       <c r="A59" s="13" t="s">
         <v>93</v>
       </c>
@@ -11984,7 +12188,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.75">
       <c r="A60" s="13" t="s">
         <v>93</v>
       </c>
@@ -12001,7 +12205,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75">
       <c r="A61" s="13" t="s">
         <v>93</v>
       </c>
@@ -12018,7 +12222,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75">
       <c r="A62" s="13" t="s">
         <v>93</v>
       </c>
@@ -12035,7 +12239,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75">
       <c r="A63" s="13" t="s">
         <v>93</v>
       </c>
@@ -12052,7 +12256,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.75">
       <c r="A64" s="13" t="s">
         <v>93</v>
       </c>
@@ -12069,7 +12273,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15.75">
       <c r="A65" s="13" t="s">
         <v>93</v>
       </c>
@@ -12086,7 +12290,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15.75">
       <c r="A66" s="13" t="s">
         <v>93</v>
       </c>
@@ -12103,7 +12307,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15.75">
       <c r="A67" s="13" t="s">
         <v>93</v>
       </c>
@@ -12120,7 +12324,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15.75">
       <c r="A68" s="13" t="s">
         <v>93</v>
       </c>
@@ -12137,7 +12341,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15.75">
       <c r="A69" s="13" t="s">
         <v>93</v>
       </c>
@@ -12154,7 +12358,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75">
       <c r="A70" s="13" t="s">
         <v>93</v>
       </c>
@@ -12171,7 +12375,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15.75">
       <c r="A71" s="13" t="s">
         <v>93</v>
       </c>
@@ -12188,7 +12392,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15.75">
       <c r="A72" s="13" t="s">
         <v>93</v>
       </c>
@@ -12205,7 +12409,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15.75">
       <c r="A73" s="13" t="s">
         <v>93</v>
       </c>
@@ -12222,7 +12426,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15.75">
       <c r="A74" s="13" t="s">
         <v>93</v>
       </c>
@@ -12239,7 +12443,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75">
       <c r="A75" s="13" t="s">
         <v>93</v>
       </c>
@@ -12256,7 +12460,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15.75">
       <c r="A76" s="13" t="s">
         <v>142</v>
       </c>
@@ -12273,7 +12477,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15.75">
       <c r="A77" s="14" t="s">
         <v>83</v>
       </c>
@@ -12290,7 +12494,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15.75">
       <c r="A78" s="13" t="s">
         <v>88</v>
       </c>
@@ -12307,7 +12511,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15.75">
       <c r="A79" s="14" t="s">
         <v>83</v>
       </c>
@@ -12324,7 +12528,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15.75">
       <c r="A80" s="13" t="s">
         <v>93</v>
       </c>
@@ -12341,7 +12545,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15.75">
       <c r="A81" s="14" t="s">
         <v>83</v>
       </c>
@@ -12358,7 +12562,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15.75">
       <c r="A82" s="13" t="s">
         <v>142</v>
       </c>
@@ -12375,7 +12579,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15.75">
       <c r="A83" s="14" t="s">
         <v>83</v>
       </c>
@@ -12392,7 +12596,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15.75">
       <c r="A84" s="14" t="s">
         <v>83</v>
       </c>
@@ -12409,7 +12613,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15.75">
       <c r="A85" s="14" t="s">
         <v>83</v>
       </c>
@@ -12426,7 +12630,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15.75">
       <c r="A86" s="13" t="s">
         <v>142</v>
       </c>
@@ -12443,7 +12647,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15.75">
       <c r="A87" s="13" t="s">
         <v>142</v>
       </c>
@@ -12460,7 +12664,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15.75">
       <c r="A88" s="14" t="s">
         <v>83</v>
       </c>
@@ -12477,7 +12681,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15.75">
       <c r="A89" s="14" t="s">
         <v>83</v>
       </c>
@@ -12494,7 +12698,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15.75">
       <c r="A90" s="14" t="s">
         <v>83</v>
       </c>
@@ -12511,7 +12715,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15.75">
       <c r="A91" s="13" t="s">
         <v>142</v>
       </c>
@@ -12528,7 +12732,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15.75">
       <c r="A92" s="13" t="s">
         <v>142</v>
       </c>
@@ -12545,7 +12749,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15.75">
       <c r="A93" s="13" t="s">
         <v>142</v>
       </c>
@@ -12562,7 +12766,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15.75">
       <c r="A94" s="13" t="s">
         <v>142</v>
       </c>
@@ -12579,7 +12783,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15.75">
       <c r="A95" s="13" t="s">
         <v>142</v>
       </c>
@@ -12596,7 +12800,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15.75">
       <c r="A96" s="13" t="s">
         <v>142</v>
       </c>
@@ -12613,7 +12817,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="15.75">
       <c r="A97" s="13" t="s">
         <v>142</v>
       </c>
@@ -12630,7 +12834,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15.75">
       <c r="A98" s="13" t="s">
         <v>142</v>
       </c>
@@ -12647,7 +12851,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15.75">
       <c r="A99" s="13" t="s">
         <v>142</v>
       </c>
@@ -12664,7 +12868,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15.75">
       <c r="A100" s="13" t="s">
         <v>142</v>
       </c>
@@ -12681,7 +12885,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15.75">
       <c r="A101" s="13" t="s">
         <v>142</v>
       </c>
@@ -12698,7 +12902,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15.75">
       <c r="A102" s="13" t="s">
         <v>142</v>
       </c>
@@ -12715,7 +12919,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15.75">
       <c r="A103" s="13" t="s">
         <v>142</v>
       </c>
@@ -12732,7 +12936,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15.75">
       <c r="A104" s="13" t="s">
         <v>142</v>
       </c>
@@ -12749,7 +12953,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15.75">
       <c r="A105" s="13" t="s">
         <v>325</v>
       </c>
@@ -12766,7 +12970,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15.75">
       <c r="A106" s="13" t="s">
         <v>325</v>
       </c>
@@ -12783,7 +12987,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15.75">
       <c r="A107" s="13" t="s">
         <v>325</v>
       </c>
@@ -12800,7 +13004,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="15.75">
       <c r="A108" s="13" t="s">
         <v>325</v>
       </c>
@@ -12817,7 +13021,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15.75">
       <c r="A109" s="13" t="s">
         <v>325</v>
       </c>
@@ -12834,7 +13038,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15.75">
       <c r="A110" s="13" t="s">
         <v>325</v>
       </c>
@@ -12851,7 +13055,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15.75">
       <c r="A111" s="13" t="s">
         <v>325</v>
       </c>
@@ -12868,7 +13072,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15.75">
       <c r="A112" s="13" t="s">
         <v>325</v>
       </c>
@@ -12885,7 +13089,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15.75">
       <c r="A113" s="13" t="s">
         <v>325</v>
       </c>
@@ -12902,7 +13106,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15.75">
       <c r="A114" s="13" t="s">
         <v>325</v>
       </c>
@@ -12919,7 +13123,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15.75">
       <c r="A115" s="13" t="s">
         <v>325</v>
       </c>
@@ -12936,7 +13140,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15.75">
       <c r="A116" s="13" t="s">
         <v>325</v>
       </c>
@@ -12953,7 +13157,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15.75">
       <c r="A117" s="14" t="s">
         <v>83</v>
       </c>
@@ -12970,7 +13174,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15.75">
       <c r="A118" s="13" t="s">
         <v>325</v>
       </c>
@@ -12987,7 +13191,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15.75">
       <c r="A119" s="13" t="s">
         <v>325</v>
       </c>
@@ -13004,7 +13208,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15.75">
       <c r="A120" s="13" t="s">
         <v>325</v>
       </c>
@@ -13021,7 +13225,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="15.75">
       <c r="A121" s="13" t="s">
         <v>325</v>
       </c>
@@ -13038,7 +13242,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="15.75">
       <c r="A122" s="13" t="s">
         <v>325</v>
       </c>
@@ -13055,7 +13259,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="15.75">
       <c r="A123" s="13" t="s">
         <v>325</v>
       </c>
@@ -13072,7 +13276,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15.75">
       <c r="A124" s="13" t="s">
         <v>325</v>
       </c>
@@ -13089,7 +13293,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15.75">
       <c r="A125" s="13" t="s">
         <v>325</v>
       </c>
@@ -13106,7 +13310,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15.75">
       <c r="A126" s="13" t="s">
         <v>325</v>
       </c>
@@ -13123,7 +13327,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="15.75">
       <c r="A127" s="13" t="s">
         <v>325</v>
       </c>
@@ -13140,7 +13344,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15.75">
       <c r="A128" s="13" t="s">
         <v>325</v>
       </c>
@@ -13157,7 +13361,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="15.75">
       <c r="A129" s="13" t="s">
         <v>325</v>
       </c>
@@ -13174,7 +13378,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15.75">
       <c r="A130" s="13" t="s">
         <v>93</v>
       </c>
@@ -13191,7 +13395,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="15.75">
       <c r="A131" s="13" t="s">
         <v>93</v>
       </c>
@@ -13208,7 +13412,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15.75">
       <c r="A132" s="13" t="s">
         <v>93</v>
       </c>
@@ -13225,7 +13429,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15.75">
       <c r="A133" s="13" t="s">
         <v>325</v>
       </c>
@@ -13242,7 +13446,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="15.75">
       <c r="A134" s="13" t="s">
         <v>88</v>
       </c>
@@ -13259,7 +13463,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="15.75">
       <c r="A135" s="13" t="s">
         <v>325</v>
       </c>
@@ -13276,7 +13480,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15.75">
       <c r="A136" s="13" t="s">
         <v>325</v>
       </c>
@@ -13293,7 +13497,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="15.75">
       <c r="A137" s="13" t="s">
         <v>325</v>
       </c>
@@ -13310,7 +13514,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15.75">
       <c r="A138" s="13" t="s">
         <v>88</v>
       </c>
@@ -13327,7 +13531,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15.75">
       <c r="A139" s="13" t="s">
         <v>325</v>
       </c>
@@ -13344,7 +13548,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15.75">
       <c r="A140" s="13" t="s">
         <v>325</v>
       </c>
@@ -13361,7 +13565,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="15.75">
       <c r="A141" s="13" t="s">
         <v>325</v>
       </c>
@@ -13378,7 +13582,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="15.75">
       <c r="A142" s="13" t="s">
         <v>325</v>
       </c>
@@ -13395,7 +13599,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="15.75">
       <c r="A143" s="13" t="s">
         <v>325</v>
       </c>
@@ -13412,7 +13616,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="15.75">
       <c r="A144" s="13" t="s">
         <v>88</v>
       </c>
@@ -13429,7 +13633,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="15.75">
       <c r="A145" s="13" t="s">
         <v>325</v>
       </c>
@@ -13446,7 +13650,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="15.75">
       <c r="A146" s="13" t="s">
         <v>325</v>
       </c>
@@ -13463,7 +13667,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="15.75">
       <c r="A147" s="13" t="s">
         <v>325</v>
       </c>
@@ -13480,7 +13684,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="15.75">
       <c r="A148" s="13" t="s">
         <v>325</v>
       </c>
@@ -13497,7 +13701,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="15.75">
       <c r="A149" s="13" t="s">
         <v>325</v>
       </c>
@@ -13514,7 +13718,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="15.75">
       <c r="A150" s="13" t="s">
         <v>325</v>
       </c>
@@ -13531,7 +13735,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="15.75">
       <c r="A151" s="13" t="s">
         <v>325</v>
       </c>
@@ -13548,7 +13752,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="15.75">
       <c r="A152" s="13" t="s">
         <v>325</v>
       </c>
@@ -13565,7 +13769,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="15.75">
       <c r="A153" s="13" t="s">
         <v>325</v>
       </c>
@@ -13582,7 +13786,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15.75">
       <c r="A154" s="13" t="s">
         <v>325</v>
       </c>
@@ -13599,7 +13803,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15.75">
       <c r="A155" s="13" t="s">
         <v>325</v>
       </c>
@@ -13616,7 +13820,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15.75">
       <c r="A156" s="13" t="s">
         <v>325</v>
       </c>
@@ -13633,7 +13837,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="15.75">
       <c r="A157" s="13" t="s">
         <v>325</v>
       </c>
@@ -13650,7 +13854,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="15.75">
       <c r="A158" s="14" t="s">
         <v>83</v>
       </c>
@@ -13667,7 +13871,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="15.75">
       <c r="A159" s="13" t="s">
         <v>325</v>
       </c>
@@ -13684,7 +13888,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="15.75">
       <c r="A160" s="13" t="s">
         <v>325</v>
       </c>
@@ -13701,7 +13905,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15.75">
       <c r="A161" s="13" t="s">
         <v>325</v>
       </c>
@@ -13718,7 +13922,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15.75">
       <c r="A162" s="13" t="s">
         <v>325</v>
       </c>
@@ -13735,7 +13939,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15.75">
       <c r="A163" s="13" t="s">
         <v>325</v>
       </c>
@@ -13752,7 +13956,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="15.75">
       <c r="A164" s="13" t="s">
         <v>88</v>
       </c>
@@ -13769,7 +13973,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="15.75">
       <c r="A165" s="13" t="s">
         <v>325</v>
       </c>
@@ -13786,7 +13990,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15.75">
       <c r="A166" s="13" t="s">
         <v>325</v>
       </c>
@@ -13803,7 +14007,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="15.75">
       <c r="A167" s="13" t="s">
         <v>325</v>
       </c>
@@ -13820,7 +14024,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15.75">
       <c r="A168" s="13" t="s">
         <v>325</v>
       </c>
@@ -13837,7 +14041,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15.75">
       <c r="A169" s="13" t="s">
         <v>325</v>
       </c>
@@ -13854,7 +14058,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="15.75">
       <c r="A170" s="13" t="s">
         <v>88</v>
       </c>
@@ -13871,7 +14075,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15.75">
       <c r="A171" s="13" t="s">
         <v>88</v>
       </c>
@@ -13888,7 +14092,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="15.75">
       <c r="A172" s="13" t="s">
         <v>325</v>
       </c>
@@ -13905,7 +14109,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15.75">
       <c r="A173" s="13" t="s">
         <v>93</v>
       </c>
@@ -13922,7 +14126,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="15.75">
       <c r="A174" s="13" t="s">
         <v>93</v>
       </c>
@@ -13939,7 +14143,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="15.75">
       <c r="A175" s="13" t="s">
         <v>93</v>
       </c>
@@ -13956,7 +14160,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15.75">
       <c r="A176" s="13" t="s">
         <v>325</v>
       </c>
@@ -13973,7 +14177,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15.75">
       <c r="A177" s="13" t="s">
         <v>325</v>
       </c>
@@ -13990,7 +14194,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="15.75">
       <c r="A178" s="13" t="s">
         <v>325</v>
       </c>
@@ -14007,7 +14211,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="15.75">
       <c r="A179" s="13" t="s">
         <v>325</v>
       </c>
@@ -14024,7 +14228,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="15.75">
       <c r="A180" s="13" t="s">
         <v>325</v>
       </c>
@@ -14041,7 +14245,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="15.75">
       <c r="A181" s="13" t="s">
         <v>325</v>
       </c>
@@ -14058,7 +14262,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="15.75">
       <c r="A182" s="13" t="s">
         <v>325</v>
       </c>
@@ -14075,7 +14279,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="15.75">
       <c r="A183" s="13" t="s">
         <v>325</v>
       </c>
@@ -14092,7 +14296,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="15.75">
       <c r="A184" s="13" t="s">
         <v>93</v>
       </c>
@@ -14109,7 +14313,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15.75">
       <c r="A185" s="13" t="s">
         <v>93</v>
       </c>
@@ -14126,7 +14330,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="15.75">
       <c r="A186" s="13" t="s">
         <v>88</v>
       </c>
@@ -14143,7 +14347,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="15.75">
       <c r="A187" s="13" t="s">
         <v>325</v>
       </c>
@@ -14160,7 +14364,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="15.75">
       <c r="A188" s="13" t="s">
         <v>88</v>
       </c>
@@ -14177,7 +14381,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="15.75">
       <c r="A189" s="13" t="s">
         <v>325</v>
       </c>
@@ -14194,7 +14398,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="15.75">
       <c r="A190" s="13" t="s">
         <v>88</v>
       </c>
@@ -14211,7 +14415,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15.75">
       <c r="A191" s="13" t="s">
         <v>325</v>
       </c>
@@ -14228,7 +14432,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="15.75">
       <c r="A192" s="13" t="s">
         <v>325</v>
       </c>
@@ -14245,7 +14449,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="15.75">
       <c r="A193" s="13" t="s">
         <v>325</v>
       </c>
@@ -14262,7 +14466,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="15.75">
       <c r="A194" s="13" t="s">
         <v>325</v>
       </c>
@@ -14279,7 +14483,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="15.75">
       <c r="A195" s="13" t="s">
         <v>325</v>
       </c>
@@ -14296,7 +14500,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="15.75">
       <c r="A196" s="14" t="s">
         <v>83</v>
       </c>
@@ -14313,7 +14517,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="15.75">
       <c r="A197" s="14" t="s">
         <v>83</v>
       </c>
@@ -14330,7 +14534,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="15.75">
       <c r="A198" s="14" t="s">
         <v>83</v>
       </c>
@@ -14347,7 +14551,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="15.75">
       <c r="A199" s="14" t="s">
         <v>83</v>
       </c>
@@ -14364,7 +14568,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="15.75">
       <c r="A200" s="14" t="s">
         <v>83</v>
       </c>
@@ -14381,7 +14585,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="15.75">
       <c r="A201" s="13" t="s">
         <v>88</v>
       </c>
@@ -14398,7 +14602,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="15.75">
       <c r="A202" s="14" t="s">
         <v>83</v>
       </c>
@@ -14415,7 +14619,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="15.75">
       <c r="A203" s="14" t="s">
         <v>83</v>
       </c>
@@ -14432,7 +14636,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="15.75">
       <c r="A204" s="14" t="s">
         <v>83</v>
       </c>
@@ -14449,7 +14653,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="15.75">
       <c r="A205" s="14" t="s">
         <v>83</v>
       </c>
@@ -14466,7 +14670,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="15.75">
       <c r="A206" s="14" t="s">
         <v>83</v>
       </c>
@@ -14483,7 +14687,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="15.75">
       <c r="A207" s="13" t="s">
         <v>325</v>
       </c>
@@ -14500,7 +14704,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="15.75">
       <c r="A208" s="13" t="s">
         <v>325</v>
       </c>
@@ -14517,7 +14721,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15.75">
       <c r="A209" s="13" t="s">
         <v>325</v>
       </c>
@@ -14534,7 +14738,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="15.75">
       <c r="A210" s="13" t="s">
         <v>325</v>
       </c>
@@ -14551,7 +14755,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="15.75">
       <c r="A211" s="13" t="s">
         <v>325</v>
       </c>
@@ -14568,7 +14772,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15.75">
       <c r="A212" s="13" t="s">
         <v>325</v>
       </c>
@@ -14585,7 +14789,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="15.75">
       <c r="A213" s="13" t="s">
         <v>325</v>
       </c>
@@ -14602,7 +14806,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="15.75">
       <c r="A214" s="13" t="s">
         <v>88</v>
       </c>
@@ -14619,7 +14823,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="15.75">
       <c r="A215" s="13" t="s">
         <v>325</v>
       </c>
@@ -14636,7 +14840,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="15.75">
       <c r="A216" s="13" t="s">
         <v>88</v>
       </c>
@@ -14653,7 +14857,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="15.75">
       <c r="A217" s="13" t="s">
         <v>325</v>
       </c>
@@ -14670,7 +14874,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="15.75">
       <c r="A218" s="13" t="s">
         <v>325</v>
       </c>
@@ -14687,7 +14891,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="15.75">
       <c r="A219" s="13" t="s">
         <v>325</v>
       </c>
@@ -14704,7 +14908,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="15.75">
       <c r="A220" s="13" t="s">
         <v>325</v>
       </c>
@@ -14721,7 +14925,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="15.75">
       <c r="A221" s="13" t="s">
         <v>325</v>
       </c>
@@ -14738,7 +14942,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="15.75">
       <c r="A222" s="13" t="s">
         <v>325</v>
       </c>
@@ -14755,7 +14959,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="15.75">
       <c r="A223" s="13" t="s">
         <v>325</v>
       </c>
@@ -14772,7 +14976,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="15.75">
       <c r="A224" s="13" t="s">
         <v>325</v>
       </c>
@@ -14789,7 +14993,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="15.75">
       <c r="A225" s="13" t="s">
         <v>325</v>
       </c>
@@ -14806,7 +15010,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="15.75">
       <c r="A226" s="13" t="s">
         <v>325</v>
       </c>
@@ -14823,7 +15027,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="15.75">
       <c r="A227" s="13" t="s">
         <v>325</v>
       </c>
@@ -14840,7 +15044,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="15.75">
       <c r="A228" s="14" t="s">
         <v>83</v>
       </c>
@@ -14857,7 +15061,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="15.75">
       <c r="A229" s="13" t="s">
         <v>325</v>
       </c>
@@ -14874,7 +15078,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="15.75">
       <c r="A230" s="13" t="s">
         <v>93</v>
       </c>
@@ -14891,7 +15095,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="15.75">
       <c r="A231" s="13" t="s">
         <v>93</v>
       </c>
@@ -14908,7 +15112,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="15.75">
       <c r="A232" s="13" t="s">
         <v>93</v>
       </c>
@@ -14925,7 +15129,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="15.75">
       <c r="A233" s="13" t="s">
         <v>325</v>
       </c>
@@ -14942,7 +15146,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="15.75">
       <c r="A234" s="13" t="s">
         <v>93</v>
       </c>
@@ -14959,7 +15163,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="15.75">
       <c r="A235" s="13" t="s">
         <v>325</v>
       </c>
@@ -14976,7 +15180,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="15.75">
       <c r="A236" s="13" t="s">
         <v>325</v>
       </c>
@@ -14993,7 +15197,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="15.75">
       <c r="A237" s="13" t="s">
         <v>325</v>
       </c>
@@ -15010,7 +15214,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="15.75">
       <c r="A238" s="13" t="s">
         <v>325</v>
       </c>
@@ -15027,7 +15231,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="15.75">
       <c r="A239" s="13" t="s">
         <v>325</v>
       </c>
@@ -15044,7 +15248,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="15.75">
       <c r="A240" s="13" t="s">
         <v>325</v>
       </c>
@@ -15061,7 +15265,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="15.75">
       <c r="A241" s="13" t="s">
         <v>325</v>
       </c>
@@ -15078,7 +15282,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="15.75">
       <c r="A242" s="13" t="s">
         <v>325</v>
       </c>
@@ -15095,7 +15299,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="15.75">
       <c r="A243" s="13" t="s">
         <v>325</v>
       </c>
@@ -15112,7 +15316,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="15.75">
       <c r="A244" s="13" t="s">
         <v>325</v>
       </c>
@@ -15129,7 +15333,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="15.75">
       <c r="A245" s="13" t="s">
         <v>93</v>
       </c>
@@ -15146,7 +15350,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="15.75">
       <c r="A246" s="13" t="s">
         <v>93</v>
       </c>
@@ -15163,7 +15367,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="15.75">
       <c r="A247" s="13" t="s">
         <v>93</v>
       </c>
@@ -15180,7 +15384,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="15.75">
       <c r="A248" s="13" t="s">
         <v>93</v>
       </c>
@@ -15197,7 +15401,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="15.75">
       <c r="A249" s="13" t="s">
         <v>93</v>
       </c>
@@ -15214,7 +15418,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="15.75">
       <c r="A250" s="13" t="s">
         <v>93</v>
       </c>
@@ -15231,7 +15435,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="15.75">
       <c r="A251" s="13" t="s">
         <v>93</v>
       </c>
@@ -15261,14 +15465,14 @@
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="25.85546875" style="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
         <v>43</v>
       </c>
@@ -15279,7 +15483,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
         <v>60</v>
       </c>
@@ -15290,7 +15494,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
         <v>61</v>
       </c>
@@ -15301,7 +15505,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="12" t="s">
         <v>62</v>
       </c>
@@ -15312,7 +15516,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="12" t="s">
         <v>63</v>
       </c>
@@ -15323,7 +15527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="9" t="s">
         <v>64</v>
       </c>
@@ -15334,7 +15538,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="9" t="s">
         <v>65</v>
       </c>
@@ -15345,7 +15549,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" s="16" t="s">
         <v>62</v>
       </c>
@@ -15353,7 +15557,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" s="16" t="s">
         <v>81</v>
       </c>
@@ -15361,7 +15565,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" s="16" t="s">
         <v>82</v>
       </c>
@@ -15379,7 +15583,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -15387,7 +15591,7 @@
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -15401,7 +15605,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="10" t="s">
         <v>66</v>
       </c>
@@ -15415,7 +15619,7 @@
         <v>8082732588</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="10" t="s">
         <v>67</v>
       </c>
@@ -15429,7 +15633,7 @@
         <v>8082732588</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="10" t="s">
         <v>68</v>
       </c>
@@ -15443,7 +15647,7 @@
         <v>8082732588</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="10" t="s">
         <v>69</v>
       </c>

--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23127836\IdeaProjects\cs-portal-automation_selenium\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="35205" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="35205" windowHeight="10425" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="1385">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4204,7 +4204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -4495,7 +4495,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4543,7 +4543,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5208,8 +5208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -5297,9 +5297,6 @@
       </c>
       <c r="I2" s="21" t="s">
         <v>1232</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>1233</v>
       </c>
     </row>
   </sheetData>
@@ -5941,7 +5938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>

--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23127836\IdeaProjects\cs-portal-automation_selenium\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C8458A-564A-ED4E-973C-2586B223C059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="35205" windowHeight="10425" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -25,10 +26,11 @@
     <sheet name="TemplateManagement" sheetId="15" r:id="rId11"/>
     <sheet name="Ticket Transfer Rules" sheetId="16" r:id="rId12"/>
     <sheet name="Authentication Policy" sheetId="17" r:id="rId13"/>
-    <sheet name="Action Tagging" sheetId="18" r:id="rId14"/>
-    <sheet name="State Queue Mapping" sheetId="19" r:id="rId15"/>
-    <sheet name="Transfer To Queue" sheetId="20" r:id="rId16"/>
-    <sheet name="QuestionAnswerKey" sheetId="21" r:id="rId17"/>
+    <sheet name="OpenAPILoginSheet" sheetId="22" r:id="rId14"/>
+    <sheet name="Action Tagging" sheetId="18" r:id="rId15"/>
+    <sheet name="State Queue Mapping" sheetId="19" r:id="rId16"/>
+    <sheet name="Transfer To Queue" sheetId="20" r:id="rId17"/>
+    <sheet name="QuestionAnswerKey" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="1392">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4199,13 +4201,34 @@
   <si>
     <t>Post balance
 (NGN)</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>API Type</t>
+  </si>
+  <si>
+    <t>Rest API</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtuPQ==</t>
+  </si>
+  <si>
+    <t>OpenAPIValidToken</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtu</t>
+  </si>
+  <si>
+    <t>OpenApiInvalidToken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4259,6 +4282,13 @@
       <sz val="13"/>
       <color rgb="FF1C293B"/>
       <name val="Tondo-regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4397,7 +4427,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4455,12 +4485,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4838,18 +4871,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1">
@@ -5012,8 +5045,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="July@123$"/>
-    <hyperlink ref="B2" r:id="rId2" display="July@123$"/>
+    <hyperlink ref="B4" r:id="rId1" display="July@123$" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" display="July@123$" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -5021,21 +5054,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -5046,7 +5079,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="8" t="s">
         <v>54</v>
       </c>
@@ -5055,7 +5088,7 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="8" t="s">
         <v>55</v>
       </c>
@@ -5064,7 +5097,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="8" t="s">
         <v>57</v>
       </c>
@@ -5073,7 +5106,7 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="8" t="s">
         <v>58</v>
       </c>
@@ -5082,7 +5115,7 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -5099,17 +5132,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" activeCellId="1" sqref="I1 J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="16" collapsed="1"/>
+    <col min="1" max="1" width="35.33203125" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.1640625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5165,21 +5198,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="16" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" style="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.1640625" style="16" collapsed="1"/>
+    <col min="2" max="2" width="15.33203125" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.5" style="16" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23" style="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.7109375" style="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="16" collapsed="1"/>
+    <col min="5" max="5" width="31.6640625" style="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1640625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5205,31 +5238,31 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.140625" style="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" style="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" style="21" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="21" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="11.42578125" style="21" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.42578125" style="21" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" style="21" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.6640625" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.1640625" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5" style="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5" style="21" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1640625" style="21" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="11.5" style="21" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5" style="21" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.6640625" style="21" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5" style="21" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="12" style="21" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.42578125" style="21" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="16" collapsed="1"/>
+    <col min="12" max="12" width="13.33203125" style="21" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.5" style="21" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.1640625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" s="16" t="s">
         <v>1213</v>
       </c>
@@ -5270,7 +5303,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="141.75">
+    <row r="2" spans="1:13" ht="153">
       <c r="A2" s="16" t="s">
         <v>1234</v>
       </c>
@@ -5305,22 +5338,71 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D9E5C9-8BED-BA40-9F9F-41566D0F59E7}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="39" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6">
+      <c r="A3" s="39" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6">
+      <c r="A4" s="39" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="29" collapsed="1"/>
-    <col min="8" max="8" width="17.140625" style="29" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" style="29" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="29" collapsed="1"/>
+    <col min="1" max="7" width="9.1640625" style="29" collapsed="1"/>
+    <col min="8" max="8" width="17.1640625" style="29" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.6640625" style="29" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.1640625" style="29" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45">
+    <row r="1" spans="1:10" ht="48">
       <c r="A1" s="25" t="s">
         <v>1189</v>
       </c>
@@ -5352,7 +5434,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5">
+    <row r="2" spans="1:10" ht="34">
       <c r="A2" s="30" t="s">
         <v>1265</v>
       </c>
@@ -5372,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30">
+    <row r="3" spans="1:10" ht="32">
       <c r="A3" s="25" t="s">
         <v>1268</v>
       </c>
@@ -5392,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45">
+    <row r="4" spans="1:10" ht="32">
       <c r="A4" s="25" t="s">
         <v>1278</v>
       </c>
@@ -5408,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="16">
       <c r="A5" s="25" t="s">
         <v>1279</v>
       </c>
@@ -5424,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="16">
       <c r="A6" s="25" t="s">
         <v>1280</v>
       </c>
@@ -5440,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="16">
       <c r="A7" s="25" t="s">
         <v>1281</v>
       </c>
@@ -5456,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30">
+    <row r="8" spans="1:10" ht="32">
       <c r="A8" s="25" t="s">
         <v>1282</v>
       </c>
@@ -5472,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="16">
       <c r="A9" s="25" t="s">
         <v>1283</v>
       </c>
@@ -5488,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45">
+    <row r="10" spans="1:10" ht="48">
       <c r="A10" s="25" t="s">
         <v>1284</v>
       </c>
@@ -5504,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30">
+    <row r="11" spans="1:10" ht="32">
       <c r="A11" s="25" t="s">
         <v>1285</v>
       </c>
@@ -5520,7 +5602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30">
+    <row r="12" spans="1:10" ht="32">
       <c r="A12" s="25" t="s">
         <v>1286</v>
       </c>
@@ -5536,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45">
+    <row r="13" spans="1:10" ht="32">
       <c r="A13" s="25" t="s">
         <v>1287</v>
       </c>
@@ -5558,15 +5640,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="32" t="s">
@@ -5603,7 +5685,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="12" t="s">
         <v>75</v>
       </c>
@@ -5624,7 +5706,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="12" t="s">
         <v>76</v>
       </c>
@@ -5650,20 +5732,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="10.85546875" style="29" collapsed="1"/>
+    <col min="1" max="16384" width="10.83203125" style="29" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5">
+    <row r="1" spans="1:3" ht="34">
       <c r="A1" s="30" t="s">
         <v>1211</v>
       </c>
@@ -5674,7 +5756,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="17">
       <c r="A2" s="30" t="s">
         <v>75</v>
       </c>
@@ -5685,7 +5767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="17">
       <c r="A3" s="30" t="s">
         <v>76</v>
       </c>
@@ -5701,23 +5783,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="29" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.140625" style="29" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="62.28515625" style="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="10.85546875" style="29" collapsed="1"/>
+    <col min="1" max="1" width="37.33203125" style="29" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.1640625" style="29" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="62.33203125" style="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="10.83203125" style="29" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="17">
       <c r="A1" s="30" t="s">
         <v>1300</v>
       </c>
@@ -5728,7 +5810,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="17">
       <c r="A2" s="30" t="s">
         <v>1303</v>
       </c>
@@ -5739,7 +5821,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5">
+    <row r="3" spans="1:3" ht="17">
       <c r="A3" s="30" t="s">
         <v>1306</v>
       </c>
@@ -5750,7 +5832,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="17">
       <c r="A4" s="30" t="s">
         <v>1233</v>
       </c>
@@ -5761,7 +5843,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="17">
       <c r="A5" s="30" t="s">
         <v>1311</v>
       </c>
@@ -5772,7 +5854,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="17">
       <c r="A6" s="30" t="s">
         <v>1314</v>
       </c>
@@ -5781,7 +5863,7 @@
       </c>
       <c r="C6" s="34"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
+    <row r="7" spans="1:3" ht="17">
       <c r="A7" s="30" t="s">
         <v>1316</v>
       </c>
@@ -5792,7 +5874,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
+    <row r="8" spans="1:3" ht="17">
       <c r="A8" s="30" t="s">
         <v>1319</v>
       </c>
@@ -5803,7 +5885,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75">
+    <row r="9" spans="1:3" ht="17">
       <c r="A9" s="30" t="s">
         <v>1322</v>
       </c>
@@ -5814,7 +5896,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5">
+    <row r="10" spans="1:3" ht="17">
       <c r="A10" s="30" t="s">
         <v>1325</v>
       </c>
@@ -5825,7 +5907,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75">
+    <row r="11" spans="1:3" ht="17">
       <c r="A11" s="30" t="s">
         <v>1328</v>
       </c>
@@ -5836,7 +5918,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" spans="1:3" ht="17">
       <c r="A12" s="30" t="s">
         <v>1331</v>
       </c>
@@ -5847,7 +5929,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" spans="1:3" ht="17">
       <c r="A13" s="30" t="s">
         <v>1334</v>
       </c>
@@ -5856,7 +5938,7 @@
       </c>
       <c r="C13" s="34"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" spans="1:3" ht="17">
       <c r="A14" s="30" t="s">
         <v>1336</v>
       </c>
@@ -5865,7 +5947,7 @@
       </c>
       <c r="C14" s="34"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
+    <row r="15" spans="1:3" ht="17">
       <c r="A15" s="30" t="s">
         <v>1338</v>
       </c>
@@ -5882,49 +5964,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75">
+    <row r="2" spans="1:1" ht="16">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75">
+    <row r="3" spans="1:1" ht="16">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75">
+    <row r="4" spans="1:1" ht="16">
       <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75">
+    <row r="5" spans="1:1" ht="16">
       <c r="A5" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75">
+    <row r="6" spans="1:1" ht="16">
       <c r="A6" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75">
+    <row r="7" spans="1:1" ht="16">
       <c r="A7" s="7" t="s">
         <v>53</v>
       </c>
@@ -5935,27 +6017,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.42578125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.42578125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.140625" style="16" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.7109375" style="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.1640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.1640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.1640625" style="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.33203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.6640625" style="16" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="11" style="16" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="12.42578125" style="16" collapsed="1"/>
+    <col min="12" max="16384" width="12.5" style="16" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -6472,7 +6554,7 @@
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
     </row>
-    <row r="19" spans="1:13" ht="45">
+    <row r="19" spans="1:13" ht="32">
       <c r="A19" s="24" t="s">
         <v>1245</v>
       </c>
@@ -6606,7 +6688,7 @@
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5">
+    <row r="23" spans="1:13" ht="17">
       <c r="A23" s="35" t="s">
         <v>1355</v>
       </c>
@@ -6711,21 +6793,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="5" width="9.1640625" style="1" collapsed="1"/>
     <col min="6" max="23" width="0" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="24" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="15.75">
+    <row r="1" spans="1:59" ht="16">
       <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
@@ -6904,7 +6986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="15.75">
+    <row r="2" spans="1:59" ht="16">
       <c r="A2" s="16" t="s">
         <v>142</v>
       </c>
@@ -6933,7 +7015,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="15.75">
+    <row r="3" spans="1:59" ht="16">
       <c r="A3" s="16" t="s">
         <v>142</v>
       </c>
@@ -6968,19 +7050,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="6" max="23" width="0" hidden="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" ht="15.75">
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="16">
       <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
@@ -7159,7 +7241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="15.75">
+    <row r="2" spans="1:59" ht="16">
       <c r="A2" s="14" t="s">
         <v>83</v>
       </c>
@@ -7176,7 +7258,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="15.75">
+    <row r="3" spans="1:59" ht="16">
       <c r="A3" s="13" t="s">
         <v>142</v>
       </c>
@@ -7202,7 +7284,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="15.75">
+    <row r="4" spans="1:59" ht="16">
       <c r="A4" s="13" t="s">
         <v>142</v>
       </c>
@@ -7228,7 +7310,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="15.75">
+    <row r="5" spans="1:59" ht="16">
       <c r="A5" s="13" t="s">
         <v>142</v>
       </c>
@@ -7254,7 +7336,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="15.75">
+    <row r="6" spans="1:59" ht="16">
       <c r="A6" s="13" t="s">
         <v>142</v>
       </c>
@@ -7280,7 +7362,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="15.75">
+    <row r="7" spans="1:59" ht="16">
       <c r="A7" s="13" t="s">
         <v>142</v>
       </c>
@@ -7306,7 +7388,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="15.75">
+    <row r="8" spans="1:59" ht="16">
       <c r="A8" s="13" t="s">
         <v>142</v>
       </c>
@@ -7332,7 +7414,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="15.75">
+    <row r="9" spans="1:59" ht="16">
       <c r="A9" s="13" t="s">
         <v>142</v>
       </c>
@@ -7358,7 +7440,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="15.75">
+    <row r="10" spans="1:59" ht="16">
       <c r="A10" s="13" t="s">
         <v>142</v>
       </c>
@@ -7384,7 +7466,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="15.75">
+    <row r="11" spans="1:59" ht="16">
       <c r="A11" s="13" t="s">
         <v>142</v>
       </c>
@@ -7410,7 +7492,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="15.75">
+    <row r="12" spans="1:59" ht="16">
       <c r="A12" s="13" t="s">
         <v>142</v>
       </c>
@@ -7436,7 +7518,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="15.75">
+    <row r="13" spans="1:59" ht="16">
       <c r="A13" s="13" t="s">
         <v>142</v>
       </c>
@@ -7462,7 +7544,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="15.75">
+    <row r="14" spans="1:59" ht="16">
       <c r="A14" s="13" t="s">
         <v>142</v>
       </c>
@@ -7488,7 +7570,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="15.75">
+    <row r="15" spans="1:59" ht="16">
       <c r="A15" s="13" t="s">
         <v>142</v>
       </c>
@@ -7514,7 +7596,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="15.75">
+    <row r="16" spans="1:59" ht="16">
       <c r="A16" s="13" t="s">
         <v>142</v>
       </c>
@@ -7540,7 +7622,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="15.75">
+    <row r="17" spans="1:57" ht="16">
       <c r="A17" s="13" t="s">
         <v>142</v>
       </c>
@@ -7566,7 +7648,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:57" ht="15.75">
+    <row r="18" spans="1:57" ht="16">
       <c r="A18" s="13" t="s">
         <v>142</v>
       </c>
@@ -7592,7 +7674,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="15.75">
+    <row r="19" spans="1:57" ht="16">
       <c r="A19" s="13" t="s">
         <v>142</v>
       </c>
@@ -7618,7 +7700,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:57" ht="15.75">
+    <row r="20" spans="1:57" ht="16">
       <c r="A20" s="13" t="s">
         <v>142</v>
       </c>
@@ -7644,7 +7726,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="15.75">
+    <row r="21" spans="1:57" ht="16">
       <c r="A21" s="13" t="s">
         <v>142</v>
       </c>
@@ -7670,7 +7752,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="15.75">
+    <row r="22" spans="1:57" ht="16">
       <c r="A22" s="13" t="s">
         <v>142</v>
       </c>
@@ -7696,7 +7778,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="15.75">
+    <row r="23" spans="1:57" ht="16">
       <c r="A23" s="14" t="s">
         <v>83</v>
       </c>
@@ -7722,7 +7804,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:57" ht="15.75">
+    <row r="24" spans="1:57" ht="16">
       <c r="A24" s="14" t="s">
         <v>83</v>
       </c>
@@ -7748,7 +7830,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="15.75">
+    <row r="25" spans="1:57" ht="16">
       <c r="A25" s="14" t="s">
         <v>83</v>
       </c>
@@ -7774,7 +7856,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="15.75">
+    <row r="26" spans="1:57" ht="16">
       <c r="A26" s="14" t="s">
         <v>83</v>
       </c>
@@ -7800,7 +7882,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:57" ht="15.75">
+    <row r="27" spans="1:57" ht="16">
       <c r="A27" s="14" t="s">
         <v>83</v>
       </c>
@@ -7826,7 +7908,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:57" ht="15.75">
+    <row r="28" spans="1:57" ht="16">
       <c r="A28" s="13" t="s">
         <v>142</v>
       </c>
@@ -7852,7 +7934,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:57" ht="15.75">
+    <row r="29" spans="1:57" ht="16">
       <c r="A29" s="14" t="s">
         <v>83</v>
       </c>
@@ -7878,7 +7960,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:57" ht="15.75">
+    <row r="30" spans="1:57" ht="16">
       <c r="A30" s="14" t="s">
         <v>83</v>
       </c>
@@ -7904,7 +7986,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:57" ht="15.75">
+    <row r="31" spans="1:57" ht="16">
       <c r="A31" s="14" t="s">
         <v>83</v>
       </c>
@@ -7930,7 +8012,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:57" ht="15.75">
+    <row r="32" spans="1:57" ht="16">
       <c r="A32" s="14" t="s">
         <v>83</v>
       </c>
@@ -7956,7 +8038,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:57" ht="15.75">
+    <row r="33" spans="1:57" ht="16">
       <c r="A33" s="14" t="s">
         <v>83</v>
       </c>
@@ -7982,7 +8064,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:57" ht="15.75">
+    <row r="34" spans="1:57" ht="16">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
@@ -8008,7 +8090,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="15.75">
+    <row r="35" spans="1:57" ht="16">
       <c r="A35" s="14" t="s">
         <v>83</v>
       </c>
@@ -8034,7 +8116,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:57" ht="15.75">
+    <row r="36" spans="1:57" ht="16">
       <c r="A36" s="14" t="s">
         <v>83</v>
       </c>
@@ -8060,7 +8142,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:57" ht="15.75">
+    <row r="37" spans="1:57" ht="16">
       <c r="A37" s="14" t="s">
         <v>83</v>
       </c>
@@ -8086,7 +8168,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:57" ht="15.75">
+    <row r="38" spans="1:57" ht="16">
       <c r="A38" s="14" t="s">
         <v>83</v>
       </c>
@@ -8112,7 +8194,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:57" ht="15.75">
+    <row r="39" spans="1:57" ht="16">
       <c r="A39" s="14" t="s">
         <v>83</v>
       </c>
@@ -8138,7 +8220,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:57" ht="15.75">
+    <row r="40" spans="1:57" ht="16">
       <c r="A40" s="14" t="s">
         <v>83</v>
       </c>
@@ -8164,7 +8246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:57" ht="15.75">
+    <row r="41" spans="1:57" ht="16">
       <c r="A41" s="14" t="s">
         <v>83</v>
       </c>
@@ -8190,7 +8272,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:57" ht="15.75">
+    <row r="42" spans="1:57" ht="16">
       <c r="A42" s="13" t="s">
         <v>88</v>
       </c>
@@ -8216,7 +8298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:57" ht="15.75">
+    <row r="43" spans="1:57" ht="16">
       <c r="A43" s="14" t="s">
         <v>83</v>
       </c>
@@ -8242,7 +8324,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:57" ht="15.75">
+    <row r="44" spans="1:57" ht="16">
       <c r="A44" s="14" t="s">
         <v>83</v>
       </c>
@@ -8268,7 +8350,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:57" ht="15.75">
+    <row r="45" spans="1:57" ht="16">
       <c r="A45" s="14" t="s">
         <v>83</v>
       </c>
@@ -8294,7 +8376,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:57" ht="15.75">
+    <row r="46" spans="1:57" ht="16">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -8320,7 +8402,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:57" ht="15.75">
+    <row r="47" spans="1:57" ht="16">
       <c r="A47" s="14" t="s">
         <v>83</v>
       </c>
@@ -8346,7 +8428,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:57" ht="15.75">
+    <row r="48" spans="1:57" ht="16">
       <c r="A48" s="14" t="s">
         <v>83</v>
       </c>
@@ -8372,7 +8454,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:57" ht="15.75">
+    <row r="49" spans="1:57" ht="16">
       <c r="A49" s="14" t="s">
         <v>83</v>
       </c>
@@ -8398,7 +8480,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:57" ht="15.75">
+    <row r="50" spans="1:57" ht="16">
       <c r="A50" s="14" t="s">
         <v>83</v>
       </c>
@@ -8424,7 +8506,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:57" ht="15.75">
+    <row r="51" spans="1:57" ht="16">
       <c r="A51" s="14" t="s">
         <v>83</v>
       </c>
@@ -8450,7 +8532,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:57" ht="15.75">
+    <row r="52" spans="1:57" ht="16">
       <c r="A52" s="13" t="s">
         <v>142</v>
       </c>
@@ -8476,7 +8558,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:57" ht="15.75">
+    <row r="53" spans="1:57" ht="16">
       <c r="A53" s="13" t="s">
         <v>142</v>
       </c>
@@ -8502,7 +8584,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:57" ht="15.75">
+    <row r="54" spans="1:57" ht="16">
       <c r="A54" s="14" t="s">
         <v>83</v>
       </c>
@@ -8528,7 +8610,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:57" ht="15.75">
+    <row r="55" spans="1:57" ht="16">
       <c r="A55" s="14" t="s">
         <v>83</v>
       </c>
@@ -8554,7 +8636,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:57" ht="15.75">
+    <row r="56" spans="1:57" ht="16">
       <c r="A56" s="14" t="s">
         <v>83</v>
       </c>
@@ -8580,7 +8662,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:57" ht="15.75">
+    <row r="57" spans="1:57" ht="16">
       <c r="A57" s="14" t="s">
         <v>83</v>
       </c>
@@ -8606,7 +8688,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:57" ht="15.75">
+    <row r="58" spans="1:57" ht="16">
       <c r="A58" s="14" t="s">
         <v>83</v>
       </c>
@@ -8632,7 +8714,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:57" ht="15.75">
+    <row r="59" spans="1:57" ht="16">
       <c r="A59" s="13" t="s">
         <v>142</v>
       </c>
@@ -8658,7 +8740,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:57" ht="15.75">
+    <row r="60" spans="1:57" ht="16">
       <c r="A60" s="14" t="s">
         <v>83</v>
       </c>
@@ -8684,7 +8766,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:57" ht="15.75">
+    <row r="61" spans="1:57" ht="16">
       <c r="A61" s="14" t="s">
         <v>83</v>
       </c>
@@ -8710,7 +8792,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:57" ht="15.75">
+    <row r="62" spans="1:57" ht="16">
       <c r="A62" s="14" t="s">
         <v>83</v>
       </c>
@@ -8736,7 +8818,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:57" ht="15.75">
+    <row r="63" spans="1:57" ht="16">
       <c r="A63" s="14" t="s">
         <v>83</v>
       </c>
@@ -8762,7 +8844,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:57" ht="15.75">
+    <row r="64" spans="1:57" ht="16">
       <c r="A64" s="14" t="s">
         <v>83</v>
       </c>
@@ -8788,7 +8870,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:57" ht="15.75">
+    <row r="65" spans="1:57" ht="16">
       <c r="A65" s="14" t="s">
         <v>83</v>
       </c>
@@ -8814,7 +8896,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:57" ht="15.75">
+    <row r="66" spans="1:57" ht="16">
       <c r="A66" s="14" t="s">
         <v>83</v>
       </c>
@@ -8840,7 +8922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:57" ht="15.75">
+    <row r="67" spans="1:57" ht="16">
       <c r="A67" s="14" t="s">
         <v>83</v>
       </c>
@@ -8866,7 +8948,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:57" ht="15.75">
+    <row r="68" spans="1:57" ht="16">
       <c r="A68" s="14" t="s">
         <v>83</v>
       </c>
@@ -8892,7 +8974,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:57" ht="15.75">
+    <row r="69" spans="1:57" ht="16">
       <c r="A69" s="14" t="s">
         <v>83</v>
       </c>
@@ -8918,7 +9000,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:57" ht="15.75">
+    <row r="70" spans="1:57" ht="16">
       <c r="A70" s="14" t="s">
         <v>83</v>
       </c>
@@ -8944,7 +9026,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:57" ht="15.75">
+    <row r="71" spans="1:57" ht="16">
       <c r="A71" s="14" t="s">
         <v>83</v>
       </c>
@@ -8970,7 +9052,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:57" ht="15.75">
+    <row r="72" spans="1:57" ht="16">
       <c r="A72" s="14" t="s">
         <v>83</v>
       </c>
@@ -8996,7 +9078,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:57" ht="15.75">
+    <row r="73" spans="1:57" ht="16">
       <c r="A73" s="14" t="s">
         <v>83</v>
       </c>
@@ -9022,7 +9104,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:57" ht="15.75">
+    <row r="74" spans="1:57" ht="16">
       <c r="A74" s="14" t="s">
         <v>83</v>
       </c>
@@ -9048,7 +9130,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:57" ht="15.75">
+    <row r="75" spans="1:57" ht="16">
       <c r="A75" s="14" t="s">
         <v>83</v>
       </c>
@@ -9074,7 +9156,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:57" ht="15.75">
+    <row r="76" spans="1:57" ht="16">
       <c r="A76" s="14" t="s">
         <v>83</v>
       </c>
@@ -9100,7 +9182,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:57" ht="15.75">
+    <row r="77" spans="1:57" ht="16">
       <c r="A77" s="14" t="s">
         <v>83</v>
       </c>
@@ -9126,7 +9208,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:57" ht="15.75">
+    <row r="78" spans="1:57" ht="16">
       <c r="A78" s="14" t="s">
         <v>83</v>
       </c>
@@ -9152,7 +9234,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:57" ht="15.75">
+    <row r="79" spans="1:57" ht="16">
       <c r="A79" s="14" t="s">
         <v>83</v>
       </c>
@@ -9178,7 +9260,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:57" ht="15.75">
+    <row r="80" spans="1:57" ht="16">
       <c r="A80" s="14" t="s">
         <v>83</v>
       </c>
@@ -9204,7 +9286,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:57" ht="15.75">
+    <row r="81" spans="1:57" ht="16">
       <c r="A81" s="13" t="s">
         <v>142</v>
       </c>
@@ -9230,7 +9312,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:57" ht="15.75">
+    <row r="82" spans="1:57" ht="16">
       <c r="A82" s="14" t="s">
         <v>83</v>
       </c>
@@ -9256,7 +9338,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:57" ht="15.75">
+    <row r="83" spans="1:57" ht="16">
       <c r="A83" s="13" t="s">
         <v>88</v>
       </c>
@@ -9282,7 +9364,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:57" ht="15.75">
+    <row r="84" spans="1:57" ht="16">
       <c r="A84" s="14" t="s">
         <v>83</v>
       </c>
@@ -9308,7 +9390,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:57" ht="15.75">
+    <row r="85" spans="1:57" ht="16">
       <c r="A85" s="14" t="s">
         <v>83</v>
       </c>
@@ -9334,7 +9416,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:57" ht="15.75">
+    <row r="86" spans="1:57" ht="16">
       <c r="A86" s="14" t="s">
         <v>83</v>
       </c>
@@ -9360,7 +9442,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:57" ht="15.75">
+    <row r="87" spans="1:57" ht="16">
       <c r="A87" s="13" t="s">
         <v>142</v>
       </c>
@@ -9386,7 +9468,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:57" ht="15.75">
+    <row r="88" spans="1:57" ht="16">
       <c r="A88" s="14" t="s">
         <v>83</v>
       </c>
@@ -9412,7 +9494,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:57" ht="15.75">
+    <row r="89" spans="1:57" ht="16">
       <c r="A89" s="14" t="s">
         <v>83</v>
       </c>
@@ -9438,7 +9520,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:57" ht="15.75">
+    <row r="90" spans="1:57" ht="16">
       <c r="A90" s="14" t="s">
         <v>83</v>
       </c>
@@ -9464,7 +9546,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:57" ht="15.75">
+    <row r="91" spans="1:57" ht="16">
       <c r="A91" s="14" t="s">
         <v>83</v>
       </c>
@@ -9490,7 +9572,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:57" ht="15.75">
+    <row r="92" spans="1:57" ht="16">
       <c r="A92" s="13" t="s">
         <v>142</v>
       </c>
@@ -9516,7 +9598,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:57" ht="15.75">
+    <row r="93" spans="1:57" ht="16">
       <c r="A93" s="13" t="s">
         <v>142</v>
       </c>
@@ -9542,7 +9624,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:57" ht="15.75">
+    <row r="94" spans="1:57" ht="16">
       <c r="A94" s="13" t="s">
         <v>142</v>
       </c>
@@ -9568,7 +9650,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:57" ht="15.75">
+    <row r="95" spans="1:57" ht="16">
       <c r="A95" s="13" t="s">
         <v>142</v>
       </c>
@@ -9594,7 +9676,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:57" ht="15.75">
+    <row r="96" spans="1:57" ht="16">
       <c r="A96" s="14" t="s">
         <v>83</v>
       </c>
@@ -9611,7 +9693,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="97" spans="1:57" ht="15.75">
+    <row r="97" spans="1:57" ht="16">
       <c r="A97" s="14" t="s">
         <v>83</v>
       </c>
@@ -9628,7 +9710,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="98" spans="1:57" ht="15.75">
+    <row r="98" spans="1:57" ht="16">
       <c r="A98" s="14" t="s">
         <v>83</v>
       </c>
@@ -9645,7 +9727,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="99" spans="1:57" ht="15.75">
+    <row r="99" spans="1:57" ht="16">
       <c r="A99" s="14" t="s">
         <v>83</v>
       </c>
@@ -9662,7 +9744,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="100" spans="1:57" ht="15.75">
+    <row r="100" spans="1:57" ht="16">
       <c r="A100" s="14" t="s">
         <v>83</v>
       </c>
@@ -9679,7 +9761,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="101" spans="1:57" ht="15.75">
+    <row r="101" spans="1:57" ht="16">
       <c r="A101" s="14" t="s">
         <v>83</v>
       </c>
@@ -9696,7 +9778,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="102" spans="1:57" ht="15.75">
+    <row r="102" spans="1:57" ht="16">
       <c r="A102" s="14" t="s">
         <v>83</v>
       </c>
@@ -9722,7 +9804,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:57" ht="15.75">
+    <row r="103" spans="1:57" ht="16">
       <c r="A103" s="14" t="s">
         <v>83</v>
       </c>
@@ -9748,7 +9830,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="104" spans="1:57" ht="15.75">
+    <row r="104" spans="1:57" ht="16">
       <c r="A104" s="14" t="s">
         <v>83</v>
       </c>
@@ -9774,7 +9856,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:57" ht="15.75">
+    <row r="105" spans="1:57" ht="16">
       <c r="A105" s="14" t="s">
         <v>83</v>
       </c>
@@ -9800,7 +9882,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:57" ht="15.75">
+    <row r="106" spans="1:57" ht="16">
       <c r="A106" s="13" t="s">
         <v>142</v>
       </c>
@@ -9826,7 +9908,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:57" ht="15.75">
+    <row r="107" spans="1:57" ht="16">
       <c r="A107" s="13" t="s">
         <v>142</v>
       </c>
@@ -9852,7 +9934,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="108" spans="1:57" ht="15.75">
+    <row r="108" spans="1:57" ht="16">
       <c r="A108" s="13" t="s">
         <v>142</v>
       </c>
@@ -9878,7 +9960,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:57" ht="15.75">
+    <row r="109" spans="1:57" ht="16">
       <c r="A109" s="14" t="s">
         <v>83</v>
       </c>
@@ -9904,7 +9986,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:57" ht="15.75">
+    <row r="110" spans="1:57" ht="16">
       <c r="A110" s="14" t="s">
         <v>83</v>
       </c>
@@ -9930,7 +10012,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:57" ht="15.75">
+    <row r="111" spans="1:57" ht="16">
       <c r="A111" s="13" t="s">
         <v>142</v>
       </c>
@@ -9956,7 +10038,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:57" ht="15.75">
+    <row r="112" spans="1:57" ht="16">
       <c r="A112" s="14" t="s">
         <v>83</v>
       </c>
@@ -9982,7 +10064,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:57" ht="15.75">
+    <row r="113" spans="1:57" ht="16">
       <c r="A113" s="14" t="s">
         <v>83</v>
       </c>
@@ -9999,7 +10081,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="114" spans="1:57" ht="15.75">
+    <row r="114" spans="1:57" ht="16">
       <c r="A114" s="14" t="s">
         <v>83</v>
       </c>
@@ -10016,7 +10098,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:57" ht="15.75">
+    <row r="115" spans="1:57" ht="16">
       <c r="A115" s="14" t="s">
         <v>83</v>
       </c>
@@ -10033,7 +10115,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="116" spans="1:57" ht="15.75">
+    <row r="116" spans="1:57" ht="16">
       <c r="A116" s="13" t="s">
         <v>142</v>
       </c>
@@ -10050,7 +10132,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="117" spans="1:57" ht="15.75">
+    <row r="117" spans="1:57" ht="16">
       <c r="A117" s="13" t="s">
         <v>142</v>
       </c>
@@ -10067,7 +10149,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="118" spans="1:57" ht="15.75">
+    <row r="118" spans="1:57" ht="16">
       <c r="A118" s="14" t="s">
         <v>83</v>
       </c>
@@ -10084,7 +10166,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="119" spans="1:57" ht="15.75">
+    <row r="119" spans="1:57" ht="16">
       <c r="A119" s="14" t="s">
         <v>83</v>
       </c>
@@ -10101,7 +10183,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="120" spans="1:57" ht="15.75">
+    <row r="120" spans="1:57" ht="16">
       <c r="A120" s="14" t="s">
         <v>83</v>
       </c>
@@ -10118,7 +10200,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="121" spans="1:57" ht="15.75">
+    <row r="121" spans="1:57" ht="16">
       <c r="A121" s="14" t="s">
         <v>83</v>
       </c>
@@ -10135,7 +10217,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="122" spans="1:57" ht="15.75">
+    <row r="122" spans="1:57" ht="16">
       <c r="A122" s="13" t="s">
         <v>142</v>
       </c>
@@ -10152,7 +10234,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="123" spans="1:57" ht="15.75">
+    <row r="123" spans="1:57" ht="16">
       <c r="A123" s="13" t="s">
         <v>142</v>
       </c>
@@ -10169,7 +10251,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="124" spans="1:57" ht="15.75">
+    <row r="124" spans="1:57" ht="16">
       <c r="A124" s="14" t="s">
         <v>83</v>
       </c>
@@ -10186,7 +10268,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="125" spans="1:57" ht="15.75">
+    <row r="125" spans="1:57" ht="16">
       <c r="A125" s="14" t="s">
         <v>83</v>
       </c>
@@ -10212,7 +10294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:57" ht="15.75">
+    <row r="126" spans="1:57" ht="16">
       <c r="A126" s="14" t="s">
         <v>83</v>
       </c>
@@ -10238,7 +10320,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:57" ht="15.75">
+    <row r="127" spans="1:57" ht="16">
       <c r="A127" s="14" t="s">
         <v>83</v>
       </c>
@@ -10264,7 +10346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="128" spans="1:57" ht="15.75">
+    <row r="128" spans="1:57" ht="16">
       <c r="A128" s="14" t="s">
         <v>83</v>
       </c>
@@ -10290,7 +10372,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75">
+    <row r="129" spans="1:5" ht="16">
       <c r="A129" s="14" t="s">
         <v>83</v>
       </c>
@@ -10307,7 +10389,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75">
+    <row r="130" spans="1:5" ht="16">
       <c r="A130" s="14" t="s">
         <v>83</v>
       </c>
@@ -10324,7 +10406,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75">
+    <row r="131" spans="1:5" ht="16">
       <c r="A131" s="14" t="s">
         <v>83</v>
       </c>
@@ -10341,7 +10423,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75">
+    <row r="132" spans="1:5" ht="16">
       <c r="A132" s="14" t="s">
         <v>83</v>
       </c>
@@ -10358,7 +10440,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75">
+    <row r="133" spans="1:5" ht="16">
       <c r="A133" s="14" t="s">
         <v>83</v>
       </c>
@@ -10375,7 +10457,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75">
+    <row r="134" spans="1:5" ht="16">
       <c r="A134" s="14" t="s">
         <v>83</v>
       </c>
@@ -10392,7 +10474,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75">
+    <row r="135" spans="1:5" ht="16">
       <c r="A135" s="14" t="s">
         <v>83</v>
       </c>
@@ -10409,7 +10491,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75">
+    <row r="136" spans="1:5" ht="16">
       <c r="A136" s="14" t="s">
         <v>83</v>
       </c>
@@ -10426,7 +10508,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75">
+    <row r="137" spans="1:5" ht="16">
       <c r="A137" s="14" t="s">
         <v>83</v>
       </c>
@@ -10443,7 +10525,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75">
+    <row r="138" spans="1:5" ht="16">
       <c r="A138" s="14" t="s">
         <v>83</v>
       </c>
@@ -10460,7 +10542,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75">
+    <row r="139" spans="1:5" ht="16">
       <c r="A139" s="14" t="s">
         <v>83</v>
       </c>
@@ -10477,7 +10559,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75">
+    <row r="140" spans="1:5" ht="16">
       <c r="A140" s="14" t="s">
         <v>83</v>
       </c>
@@ -10494,7 +10576,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75">
+    <row r="141" spans="1:5" ht="16">
       <c r="A141" s="14" t="s">
         <v>83</v>
       </c>
@@ -10511,7 +10593,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75">
+    <row r="142" spans="1:5" ht="16">
       <c r="A142" s="14" t="s">
         <v>83</v>
       </c>
@@ -10528,7 +10610,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75">
+    <row r="143" spans="1:5" ht="16">
       <c r="A143" s="13" t="s">
         <v>142</v>
       </c>
@@ -10545,7 +10627,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75">
+    <row r="144" spans="1:5" ht="16">
       <c r="A144" s="13" t="s">
         <v>142</v>
       </c>
@@ -10562,7 +10644,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="145" spans="1:57" ht="15.75">
+    <row r="145" spans="1:57" ht="16">
       <c r="A145" s="13" t="s">
         <v>142</v>
       </c>
@@ -10579,7 +10661,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="146" spans="1:57" ht="15.75">
+    <row r="146" spans="1:57" ht="16">
       <c r="A146" s="13" t="s">
         <v>142</v>
       </c>
@@ -10596,7 +10678,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="147" spans="1:57" ht="15.75">
+    <row r="147" spans="1:57" ht="16">
       <c r="A147" s="13" t="s">
         <v>142</v>
       </c>
@@ -10613,7 +10695,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="148" spans="1:57" ht="15.75">
+    <row r="148" spans="1:57" ht="16">
       <c r="A148" s="14" t="s">
         <v>83</v>
       </c>
@@ -10630,7 +10712,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="149" spans="1:57" ht="15.75">
+    <row r="149" spans="1:57" ht="16">
       <c r="A149" s="14" t="s">
         <v>83</v>
       </c>
@@ -10647,7 +10729,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="150" spans="1:57" ht="15.75">
+    <row r="150" spans="1:57" ht="16">
       <c r="A150" s="14" t="s">
         <v>83</v>
       </c>
@@ -10673,7 +10755,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="151" spans="1:57" ht="15.75">
+    <row r="151" spans="1:57" ht="16">
       <c r="A151" s="14" t="s">
         <v>83</v>
       </c>
@@ -10699,7 +10781,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:57" ht="15.75">
+    <row r="152" spans="1:57" ht="16">
       <c r="A152" s="14" t="s">
         <v>83</v>
       </c>
@@ -10725,7 +10807,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:57" ht="15.75">
+    <row r="153" spans="1:57" ht="16">
       <c r="A153" s="14" t="s">
         <v>83</v>
       </c>
@@ -10751,7 +10833,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="154" spans="1:57" ht="15.75">
+    <row r="154" spans="1:57" ht="16">
       <c r="A154" s="14" t="s">
         <v>83</v>
       </c>
@@ -10777,7 +10859,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="155" spans="1:57" ht="15.75">
+    <row r="155" spans="1:57" ht="16">
       <c r="A155" s="14" t="s">
         <v>83</v>
       </c>
@@ -10803,7 +10885,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="156" spans="1:57" ht="15.75">
+    <row r="156" spans="1:57" ht="16">
       <c r="A156" s="14" t="s">
         <v>83</v>
       </c>
@@ -10820,7 +10902,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="157" spans="1:57" ht="15.75">
+    <row r="157" spans="1:57" ht="16">
       <c r="A157" s="14" t="s">
         <v>83</v>
       </c>
@@ -10837,7 +10919,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="158" spans="1:57" ht="15.75">
+    <row r="158" spans="1:57" ht="16">
       <c r="A158" s="14" t="s">
         <v>83</v>
       </c>
@@ -10854,7 +10936,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="159" spans="1:57" ht="15.75">
+    <row r="159" spans="1:57" ht="16">
       <c r="A159" s="14" t="s">
         <v>83</v>
       </c>
@@ -10871,7 +10953,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="160" spans="1:57" ht="15.75">
+    <row r="160" spans="1:57" ht="16">
       <c r="A160" s="14" t="s">
         <v>83</v>
       </c>
@@ -10888,7 +10970,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="161" spans="1:57" ht="15.75">
+    <row r="161" spans="1:57" ht="16">
       <c r="A161" s="14" t="s">
         <v>83</v>
       </c>
@@ -10905,7 +10987,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="162" spans="1:57" ht="15.75">
+    <row r="162" spans="1:57" ht="16">
       <c r="A162" s="14" t="s">
         <v>83</v>
       </c>
@@ -10922,7 +11004,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="163" spans="1:57" ht="15.75">
+    <row r="163" spans="1:57" ht="16">
       <c r="A163" s="14" t="s">
         <v>83</v>
       </c>
@@ -10939,7 +11021,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="164" spans="1:57" ht="15.75">
+    <row r="164" spans="1:57" ht="16">
       <c r="A164" s="14" t="s">
         <v>83</v>
       </c>
@@ -10956,7 +11038,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="165" spans="1:57" ht="15.75">
+    <row r="165" spans="1:57" ht="16">
       <c r="A165" s="14" t="s">
         <v>83</v>
       </c>
@@ -10982,7 +11064,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="166" spans="1:57" ht="15.75">
+    <row r="166" spans="1:57" ht="16">
       <c r="A166" s="14" t="s">
         <v>83</v>
       </c>
@@ -11008,7 +11090,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="167" spans="1:57" ht="15.75">
+    <row r="167" spans="1:57" ht="16">
       <c r="A167" s="13" t="s">
         <v>142</v>
       </c>
@@ -11034,7 +11116,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="168" spans="1:57" ht="15.75">
+    <row r="168" spans="1:57" ht="16">
       <c r="A168" s="13" t="s">
         <v>142</v>
       </c>
@@ -11060,7 +11142,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="169" spans="1:57" ht="15.75">
+    <row r="169" spans="1:57" ht="16">
       <c r="A169" s="13" t="s">
         <v>142</v>
       </c>
@@ -11092,21 +11174,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="3" max="3" width="60.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11126,7 +11208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="14" t="s">
         <v>83</v>
       </c>
@@ -11143,7 +11225,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="16" t="s">
         <v>88</v>
       </c>
@@ -11166,20 +11248,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11199,7 +11281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="14" t="s">
         <v>83</v>
       </c>
@@ -11216,7 +11298,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="13" t="s">
         <v>88</v>
       </c>
@@ -11233,7 +11315,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="13" t="s">
         <v>93</v>
       </c>
@@ -11250,7 +11332,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75">
+    <row r="5" spans="1:5" ht="16">
       <c r="A5" s="14" t="s">
         <v>83</v>
       </c>
@@ -11267,7 +11349,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75">
+    <row r="6" spans="1:5" ht="16">
       <c r="A6" s="13" t="s">
         <v>88</v>
       </c>
@@ -11284,7 +11366,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75">
+    <row r="7" spans="1:5" ht="16">
       <c r="A7" s="13" t="s">
         <v>93</v>
       </c>
@@ -11301,7 +11383,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" s="14" t="s">
         <v>83</v>
       </c>
@@ -11318,7 +11400,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
+    <row r="9" spans="1:5" ht="16">
       <c r="A9" s="14" t="s">
         <v>83</v>
       </c>
@@ -11335,7 +11417,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" s="13" t="s">
         <v>93</v>
       </c>
@@ -11352,7 +11434,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="16">
       <c r="A11" s="13" t="s">
         <v>93</v>
       </c>
@@ -11369,7 +11451,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="16">
       <c r="A12" s="13" t="s">
         <v>93</v>
       </c>
@@ -11386,7 +11468,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="13" spans="1:5" ht="16">
       <c r="A13" s="13" t="s">
         <v>93</v>
       </c>
@@ -11403,7 +11485,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75">
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" s="14" t="s">
         <v>83</v>
       </c>
@@ -11420,7 +11502,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75">
+    <row r="15" spans="1:5" ht="16">
       <c r="A15" s="14" t="s">
         <v>83</v>
       </c>
@@ -11437,7 +11519,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75">
+    <row r="16" spans="1:5" ht="16">
       <c r="A16" s="14" t="s">
         <v>83</v>
       </c>
@@ -11454,7 +11536,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75">
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" s="13" t="s">
         <v>93</v>
       </c>
@@ -11471,7 +11553,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" s="13" t="s">
         <v>93</v>
       </c>
@@ -11488,7 +11570,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
+    <row r="19" spans="1:5" ht="16">
       <c r="A19" s="13" t="s">
         <v>93</v>
       </c>
@@ -11505,7 +11587,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" s="13" t="s">
         <v>142</v>
       </c>
@@ -11522,7 +11604,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75">
+    <row r="21" spans="1:5" ht="16">
       <c r="A21" s="14" t="s">
         <v>83</v>
       </c>
@@ -11539,7 +11621,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75">
+    <row r="22" spans="1:5" ht="16">
       <c r="A22" s="14" t="s">
         <v>83</v>
       </c>
@@ -11556,7 +11638,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" s="13" t="s">
         <v>93</v>
       </c>
@@ -11573,7 +11655,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75">
+    <row r="24" spans="1:5" ht="16">
       <c r="A24" s="13" t="s">
         <v>93</v>
       </c>
@@ -11590,7 +11672,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75">
+    <row r="25" spans="1:5" ht="16">
       <c r="A25" s="13" t="s">
         <v>93</v>
       </c>
@@ -11607,7 +11689,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75">
+    <row r="26" spans="1:5" ht="16">
       <c r="A26" s="13" t="s">
         <v>93</v>
       </c>
@@ -11624,7 +11706,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75">
+    <row r="27" spans="1:5" ht="16">
       <c r="A27" s="13" t="s">
         <v>93</v>
       </c>
@@ -11641,7 +11723,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75">
+    <row r="28" spans="1:5" ht="16">
       <c r="A28" s="13" t="s">
         <v>93</v>
       </c>
@@ -11658,7 +11740,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75">
+    <row r="29" spans="1:5" ht="16">
       <c r="A29" s="13" t="s">
         <v>93</v>
       </c>
@@ -11675,7 +11757,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75">
+    <row r="30" spans="1:5" ht="16">
       <c r="A30" s="13" t="s">
         <v>93</v>
       </c>
@@ -11692,7 +11774,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75">
+    <row r="31" spans="1:5" ht="16">
       <c r="A31" s="13" t="s">
         <v>93</v>
       </c>
@@ -11709,7 +11791,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75">
+    <row r="32" spans="1:5" ht="16">
       <c r="A32" s="13" t="s">
         <v>93</v>
       </c>
@@ -11726,7 +11808,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75">
+    <row r="33" spans="1:5" ht="16">
       <c r="A33" s="13" t="s">
         <v>93</v>
       </c>
@@ -11743,7 +11825,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75">
+    <row r="34" spans="1:5" ht="16">
       <c r="A34" s="13" t="s">
         <v>93</v>
       </c>
@@ -11760,7 +11842,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75">
+    <row r="35" spans="1:5" ht="16">
       <c r="A35" s="13" t="s">
         <v>93</v>
       </c>
@@ -11777,7 +11859,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75">
+    <row r="36" spans="1:5" ht="16">
       <c r="A36" s="13" t="s">
         <v>93</v>
       </c>
@@ -11794,7 +11876,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75">
+    <row r="37" spans="1:5" ht="16">
       <c r="A37" s="13" t="s">
         <v>93</v>
       </c>
@@ -11811,7 +11893,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75">
+    <row r="38" spans="1:5" ht="16">
       <c r="A38" s="13" t="s">
         <v>93</v>
       </c>
@@ -11828,7 +11910,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75">
+    <row r="39" spans="1:5" ht="16">
       <c r="A39" s="13" t="s">
         <v>93</v>
       </c>
@@ -11845,7 +11927,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75">
+    <row r="40" spans="1:5" ht="16">
       <c r="A40" s="13" t="s">
         <v>93</v>
       </c>
@@ -11862,7 +11944,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75">
+    <row r="41" spans="1:5" ht="16">
       <c r="A41" s="13" t="s">
         <v>93</v>
       </c>
@@ -11879,7 +11961,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75">
+    <row r="42" spans="1:5" ht="16">
       <c r="A42" s="13" t="s">
         <v>93</v>
       </c>
@@ -11896,7 +11978,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75">
+    <row r="43" spans="1:5" ht="16">
       <c r="A43" s="13" t="s">
         <v>93</v>
       </c>
@@ -11913,7 +11995,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75">
+    <row r="44" spans="1:5" ht="16">
       <c r="A44" s="13" t="s">
         <v>93</v>
       </c>
@@ -11930,7 +12012,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75">
+    <row r="45" spans="1:5" ht="16">
       <c r="A45" s="13" t="s">
         <v>93</v>
       </c>
@@ -11947,7 +12029,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75">
+    <row r="46" spans="1:5" ht="16">
       <c r="A46" s="13" t="s">
         <v>93</v>
       </c>
@@ -11964,7 +12046,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75">
+    <row r="47" spans="1:5" ht="16">
       <c r="A47" s="13" t="s">
         <v>93</v>
       </c>
@@ -11981,7 +12063,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75">
+    <row r="48" spans="1:5" ht="16">
       <c r="A48" s="13" t="s">
         <v>93</v>
       </c>
@@ -11998,7 +12080,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75">
+    <row r="49" spans="1:5" ht="16">
       <c r="A49" s="13" t="s">
         <v>88</v>
       </c>
@@ -12015,7 +12097,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75">
+    <row r="50" spans="1:5" ht="16">
       <c r="A50" s="13" t="s">
         <v>88</v>
       </c>
@@ -12032,7 +12114,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75">
+    <row r="51" spans="1:5" ht="16">
       <c r="A51" s="13" t="s">
         <v>88</v>
       </c>
@@ -12049,7 +12131,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75">
+    <row r="52" spans="1:5" ht="16">
       <c r="A52" s="13" t="s">
         <v>88</v>
       </c>
@@ -12066,7 +12148,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75">
+    <row r="53" spans="1:5" ht="16">
       <c r="A53" s="13" t="s">
         <v>88</v>
       </c>
@@ -12083,7 +12165,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75">
+    <row r="54" spans="1:5" ht="16">
       <c r="A54" s="13" t="s">
         <v>93</v>
       </c>
@@ -12100,7 +12182,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75">
+    <row r="55" spans="1:5" ht="16">
       <c r="A55" s="13" t="s">
         <v>93</v>
       </c>
@@ -12117,7 +12199,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75">
+    <row r="56" spans="1:5" ht="16">
       <c r="A56" s="13" t="s">
         <v>93</v>
       </c>
@@ -12134,7 +12216,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75">
+    <row r="57" spans="1:5" ht="16">
       <c r="A57" s="13" t="s">
         <v>93</v>
       </c>
@@ -12151,7 +12233,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75">
+    <row r="58" spans="1:5" ht="16">
       <c r="A58" s="13" t="s">
         <v>93</v>
       </c>
@@ -12168,7 +12250,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75">
+    <row r="59" spans="1:5" ht="16">
       <c r="A59" s="13" t="s">
         <v>93</v>
       </c>
@@ -12185,7 +12267,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75">
+    <row r="60" spans="1:5" ht="16">
       <c r="A60" s="13" t="s">
         <v>93</v>
       </c>
@@ -12202,7 +12284,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75">
+    <row r="61" spans="1:5" ht="16">
       <c r="A61" s="13" t="s">
         <v>93</v>
       </c>
@@ -12219,7 +12301,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75">
+    <row r="62" spans="1:5" ht="16">
       <c r="A62" s="13" t="s">
         <v>93</v>
       </c>
@@ -12236,7 +12318,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75">
+    <row r="63" spans="1:5" ht="16">
       <c r="A63" s="13" t="s">
         <v>93</v>
       </c>
@@ -12253,7 +12335,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75">
+    <row r="64" spans="1:5" ht="16">
       <c r="A64" s="13" t="s">
         <v>93</v>
       </c>
@@ -12270,7 +12352,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75">
+    <row r="65" spans="1:5" ht="16">
       <c r="A65" s="13" t="s">
         <v>93</v>
       </c>
@@ -12287,7 +12369,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75">
+    <row r="66" spans="1:5" ht="16">
       <c r="A66" s="13" t="s">
         <v>93</v>
       </c>
@@ -12304,7 +12386,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75">
+    <row r="67" spans="1:5" ht="16">
       <c r="A67" s="13" t="s">
         <v>93</v>
       </c>
@@ -12321,7 +12403,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75">
+    <row r="68" spans="1:5" ht="16">
       <c r="A68" s="13" t="s">
         <v>93</v>
       </c>
@@ -12338,7 +12420,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75">
+    <row r="69" spans="1:5" ht="16">
       <c r="A69" s="13" t="s">
         <v>93</v>
       </c>
@@ -12355,7 +12437,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75">
+    <row r="70" spans="1:5" ht="16">
       <c r="A70" s="13" t="s">
         <v>93</v>
       </c>
@@ -12372,7 +12454,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75">
+    <row r="71" spans="1:5" ht="16">
       <c r="A71" s="13" t="s">
         <v>93</v>
       </c>
@@ -12389,7 +12471,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75">
+    <row r="72" spans="1:5" ht="16">
       <c r="A72" s="13" t="s">
         <v>93</v>
       </c>
@@ -12406,7 +12488,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75">
+    <row r="73" spans="1:5" ht="16">
       <c r="A73" s="13" t="s">
         <v>93</v>
       </c>
@@ -12423,7 +12505,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75">
+    <row r="74" spans="1:5" ht="16">
       <c r="A74" s="13" t="s">
         <v>93</v>
       </c>
@@ -12440,7 +12522,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75">
+    <row r="75" spans="1:5" ht="16">
       <c r="A75" s="13" t="s">
         <v>93</v>
       </c>
@@ -12457,7 +12539,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75">
+    <row r="76" spans="1:5" ht="16">
       <c r="A76" s="13" t="s">
         <v>142</v>
       </c>
@@ -12474,7 +12556,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75">
+    <row r="77" spans="1:5" ht="16">
       <c r="A77" s="14" t="s">
         <v>83</v>
       </c>
@@ -12491,7 +12573,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75">
+    <row r="78" spans="1:5" ht="16">
       <c r="A78" s="13" t="s">
         <v>88</v>
       </c>
@@ -12508,7 +12590,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75">
+    <row r="79" spans="1:5" ht="16">
       <c r="A79" s="14" t="s">
         <v>83</v>
       </c>
@@ -12525,7 +12607,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75">
+    <row r="80" spans="1:5" ht="16">
       <c r="A80" s="13" t="s">
         <v>93</v>
       </c>
@@ -12542,7 +12624,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75">
+    <row r="81" spans="1:5" ht="16">
       <c r="A81" s="14" t="s">
         <v>83</v>
       </c>
@@ -12559,7 +12641,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75">
+    <row r="82" spans="1:5" ht="16">
       <c r="A82" s="13" t="s">
         <v>142</v>
       </c>
@@ -12576,7 +12658,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75">
+    <row r="83" spans="1:5" ht="16">
       <c r="A83" s="14" t="s">
         <v>83</v>
       </c>
@@ -12593,7 +12675,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75">
+    <row r="84" spans="1:5" ht="16">
       <c r="A84" s="14" t="s">
         <v>83</v>
       </c>
@@ -12610,7 +12692,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75">
+    <row r="85" spans="1:5" ht="16">
       <c r="A85" s="14" t="s">
         <v>83</v>
       </c>
@@ -12627,7 +12709,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75">
+    <row r="86" spans="1:5" ht="16">
       <c r="A86" s="13" t="s">
         <v>142</v>
       </c>
@@ -12644,7 +12726,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75">
+    <row r="87" spans="1:5" ht="16">
       <c r="A87" s="13" t="s">
         <v>142</v>
       </c>
@@ -12661,7 +12743,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75">
+    <row r="88" spans="1:5" ht="16">
       <c r="A88" s="14" t="s">
         <v>83</v>
       </c>
@@ -12678,7 +12760,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75">
+    <row r="89" spans="1:5" ht="16">
       <c r="A89" s="14" t="s">
         <v>83</v>
       </c>
@@ -12695,7 +12777,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75">
+    <row r="90" spans="1:5" ht="16">
       <c r="A90" s="14" t="s">
         <v>83</v>
       </c>
@@ -12712,7 +12794,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75">
+    <row r="91" spans="1:5" ht="16">
       <c r="A91" s="13" t="s">
         <v>142</v>
       </c>
@@ -12729,7 +12811,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75">
+    <row r="92" spans="1:5" ht="16">
       <c r="A92" s="13" t="s">
         <v>142</v>
       </c>
@@ -12746,7 +12828,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75">
+    <row r="93" spans="1:5" ht="16">
       <c r="A93" s="13" t="s">
         <v>142</v>
       </c>
@@ -12763,7 +12845,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75">
+    <row r="94" spans="1:5" ht="16">
       <c r="A94" s="13" t="s">
         <v>142</v>
       </c>
@@ -12780,7 +12862,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75">
+    <row r="95" spans="1:5" ht="16">
       <c r="A95" s="13" t="s">
         <v>142</v>
       </c>
@@ -12797,7 +12879,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75">
+    <row r="96" spans="1:5" ht="16">
       <c r="A96" s="13" t="s">
         <v>142</v>
       </c>
@@ -12814,7 +12896,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75">
+    <row r="97" spans="1:5" ht="16">
       <c r="A97" s="13" t="s">
         <v>142</v>
       </c>
@@ -12831,7 +12913,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75">
+    <row r="98" spans="1:5" ht="16">
       <c r="A98" s="13" t="s">
         <v>142</v>
       </c>
@@ -12848,7 +12930,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75">
+    <row r="99" spans="1:5" ht="16">
       <c r="A99" s="13" t="s">
         <v>142</v>
       </c>
@@ -12865,7 +12947,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75">
+    <row r="100" spans="1:5" ht="16">
       <c r="A100" s="13" t="s">
         <v>142</v>
       </c>
@@ -12882,7 +12964,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75">
+    <row r="101" spans="1:5" ht="16">
       <c r="A101" s="13" t="s">
         <v>142</v>
       </c>
@@ -12899,7 +12981,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75">
+    <row r="102" spans="1:5" ht="16">
       <c r="A102" s="13" t="s">
         <v>142</v>
       </c>
@@ -12916,7 +12998,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75">
+    <row r="103" spans="1:5" ht="16">
       <c r="A103" s="13" t="s">
         <v>142</v>
       </c>
@@ -12933,7 +13015,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75">
+    <row r="104" spans="1:5" ht="16">
       <c r="A104" s="13" t="s">
         <v>142</v>
       </c>
@@ -12950,7 +13032,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75">
+    <row r="105" spans="1:5" ht="16">
       <c r="A105" s="13" t="s">
         <v>325</v>
       </c>
@@ -12967,7 +13049,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75">
+    <row r="106" spans="1:5" ht="16">
       <c r="A106" s="13" t="s">
         <v>325</v>
       </c>
@@ -12984,7 +13066,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75">
+    <row r="107" spans="1:5" ht="16">
       <c r="A107" s="13" t="s">
         <v>325</v>
       </c>
@@ -13001,7 +13083,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75">
+    <row r="108" spans="1:5" ht="16">
       <c r="A108" s="13" t="s">
         <v>325</v>
       </c>
@@ -13018,7 +13100,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75">
+    <row r="109" spans="1:5" ht="16">
       <c r="A109" s="13" t="s">
         <v>325</v>
       </c>
@@ -13035,7 +13117,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75">
+    <row r="110" spans="1:5" ht="16">
       <c r="A110" s="13" t="s">
         <v>325</v>
       </c>
@@ -13052,7 +13134,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75">
+    <row r="111" spans="1:5" ht="16">
       <c r="A111" s="13" t="s">
         <v>325</v>
       </c>
@@ -13069,7 +13151,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75">
+    <row r="112" spans="1:5" ht="16">
       <c r="A112" s="13" t="s">
         <v>325</v>
       </c>
@@ -13086,7 +13168,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75">
+    <row r="113" spans="1:5" ht="16">
       <c r="A113" s="13" t="s">
         <v>325</v>
       </c>
@@ -13103,7 +13185,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75">
+    <row r="114" spans="1:5" ht="16">
       <c r="A114" s="13" t="s">
         <v>325</v>
       </c>
@@ -13120,7 +13202,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75">
+    <row r="115" spans="1:5" ht="16">
       <c r="A115" s="13" t="s">
         <v>325</v>
       </c>
@@ -13137,7 +13219,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75">
+    <row r="116" spans="1:5" ht="16">
       <c r="A116" s="13" t="s">
         <v>325</v>
       </c>
@@ -13154,7 +13236,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75">
+    <row r="117" spans="1:5" ht="16">
       <c r="A117" s="14" t="s">
         <v>83</v>
       </c>
@@ -13171,7 +13253,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75">
+    <row r="118" spans="1:5" ht="16">
       <c r="A118" s="13" t="s">
         <v>325</v>
       </c>
@@ -13188,7 +13270,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75">
+    <row r="119" spans="1:5" ht="16">
       <c r="A119" s="13" t="s">
         <v>325</v>
       </c>
@@ -13205,7 +13287,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75">
+    <row r="120" spans="1:5" ht="16">
       <c r="A120" s="13" t="s">
         <v>325</v>
       </c>
@@ -13222,7 +13304,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75">
+    <row r="121" spans="1:5" ht="16">
       <c r="A121" s="13" t="s">
         <v>325</v>
       </c>
@@ -13239,7 +13321,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75">
+    <row r="122" spans="1:5" ht="16">
       <c r="A122" s="13" t="s">
         <v>325</v>
       </c>
@@ -13256,7 +13338,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75">
+    <row r="123" spans="1:5" ht="16">
       <c r="A123" s="13" t="s">
         <v>325</v>
       </c>
@@ -13273,7 +13355,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75">
+    <row r="124" spans="1:5" ht="16">
       <c r="A124" s="13" t="s">
         <v>325</v>
       </c>
@@ -13290,7 +13372,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75">
+    <row r="125" spans="1:5" ht="16">
       <c r="A125" s="13" t="s">
         <v>325</v>
       </c>
@@ -13307,7 +13389,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75">
+    <row r="126" spans="1:5" ht="16">
       <c r="A126" s="13" t="s">
         <v>325</v>
       </c>
@@ -13324,7 +13406,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75">
+    <row r="127" spans="1:5" ht="16">
       <c r="A127" s="13" t="s">
         <v>325</v>
       </c>
@@ -13341,7 +13423,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75">
+    <row r="128" spans="1:5" ht="16">
       <c r="A128" s="13" t="s">
         <v>325</v>
       </c>
@@ -13358,7 +13440,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75">
+    <row r="129" spans="1:5" ht="16">
       <c r="A129" s="13" t="s">
         <v>325</v>
       </c>
@@ -13375,7 +13457,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75">
+    <row r="130" spans="1:5" ht="16">
       <c r="A130" s="13" t="s">
         <v>93</v>
       </c>
@@ -13392,7 +13474,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75">
+    <row r="131" spans="1:5" ht="16">
       <c r="A131" s="13" t="s">
         <v>93</v>
       </c>
@@ -13409,7 +13491,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75">
+    <row r="132" spans="1:5" ht="16">
       <c r="A132" s="13" t="s">
         <v>93</v>
       </c>
@@ -13426,7 +13508,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75">
+    <row r="133" spans="1:5" ht="16">
       <c r="A133" s="13" t="s">
         <v>325</v>
       </c>
@@ -13443,7 +13525,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75">
+    <row r="134" spans="1:5" ht="16">
       <c r="A134" s="13" t="s">
         <v>88</v>
       </c>
@@ -13460,7 +13542,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75">
+    <row r="135" spans="1:5" ht="16">
       <c r="A135" s="13" t="s">
         <v>325</v>
       </c>
@@ -13477,7 +13559,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75">
+    <row r="136" spans="1:5" ht="16">
       <c r="A136" s="13" t="s">
         <v>325</v>
       </c>
@@ -13494,7 +13576,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75">
+    <row r="137" spans="1:5" ht="16">
       <c r="A137" s="13" t="s">
         <v>325</v>
       </c>
@@ -13511,7 +13593,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75">
+    <row r="138" spans="1:5" ht="16">
       <c r="A138" s="13" t="s">
         <v>88</v>
       </c>
@@ -13528,7 +13610,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75">
+    <row r="139" spans="1:5" ht="16">
       <c r="A139" s="13" t="s">
         <v>325</v>
       </c>
@@ -13545,7 +13627,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75">
+    <row r="140" spans="1:5" ht="16">
       <c r="A140" s="13" t="s">
         <v>325</v>
       </c>
@@ -13562,7 +13644,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75">
+    <row r="141" spans="1:5" ht="16">
       <c r="A141" s="13" t="s">
         <v>325</v>
       </c>
@@ -13579,7 +13661,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75">
+    <row r="142" spans="1:5" ht="16">
       <c r="A142" s="13" t="s">
         <v>325</v>
       </c>
@@ -13596,7 +13678,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75">
+    <row r="143" spans="1:5" ht="16">
       <c r="A143" s="13" t="s">
         <v>325</v>
       </c>
@@ -13613,7 +13695,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75">
+    <row r="144" spans="1:5" ht="16">
       <c r="A144" s="13" t="s">
         <v>88</v>
       </c>
@@ -13630,7 +13712,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75">
+    <row r="145" spans="1:5" ht="16">
       <c r="A145" s="13" t="s">
         <v>325</v>
       </c>
@@ -13647,7 +13729,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.75">
+    <row r="146" spans="1:5" ht="16">
       <c r="A146" s="13" t="s">
         <v>325</v>
       </c>
@@ -13664,7 +13746,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75">
+    <row r="147" spans="1:5" ht="16">
       <c r="A147" s="13" t="s">
         <v>325</v>
       </c>
@@ -13681,7 +13763,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75">
+    <row r="148" spans="1:5" ht="16">
       <c r="A148" s="13" t="s">
         <v>325</v>
       </c>
@@ -13698,7 +13780,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.75">
+    <row r="149" spans="1:5" ht="16">
       <c r="A149" s="13" t="s">
         <v>325</v>
       </c>
@@ -13715,7 +13797,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75">
+    <row r="150" spans="1:5" ht="16">
       <c r="A150" s="13" t="s">
         <v>325</v>
       </c>
@@ -13732,7 +13814,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75">
+    <row r="151" spans="1:5" ht="16">
       <c r="A151" s="13" t="s">
         <v>325</v>
       </c>
@@ -13749,7 +13831,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75">
+    <row r="152" spans="1:5" ht="16">
       <c r="A152" s="13" t="s">
         <v>325</v>
       </c>
@@ -13766,7 +13848,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.75">
+    <row r="153" spans="1:5" ht="16">
       <c r="A153" s="13" t="s">
         <v>325</v>
       </c>
@@ -13783,7 +13865,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75">
+    <row r="154" spans="1:5" ht="16">
       <c r="A154" s="13" t="s">
         <v>325</v>
       </c>
@@ -13800,7 +13882,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75">
+    <row r="155" spans="1:5" ht="16">
       <c r="A155" s="13" t="s">
         <v>325</v>
       </c>
@@ -13817,7 +13899,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75">
+    <row r="156" spans="1:5" ht="16">
       <c r="A156" s="13" t="s">
         <v>325</v>
       </c>
@@ -13834,7 +13916,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75">
+    <row r="157" spans="1:5" ht="16">
       <c r="A157" s="13" t="s">
         <v>325</v>
       </c>
@@ -13851,7 +13933,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.75">
+    <row r="158" spans="1:5" ht="16">
       <c r="A158" s="14" t="s">
         <v>83</v>
       </c>
@@ -13868,7 +13950,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75">
+    <row r="159" spans="1:5" ht="16">
       <c r="A159" s="13" t="s">
         <v>325</v>
       </c>
@@ -13885,7 +13967,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75">
+    <row r="160" spans="1:5" ht="16">
       <c r="A160" s="13" t="s">
         <v>325</v>
       </c>
@@ -13902,7 +13984,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75">
+    <row r="161" spans="1:5" ht="16">
       <c r="A161" s="13" t="s">
         <v>325</v>
       </c>
@@ -13919,7 +14001,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75">
+    <row r="162" spans="1:5" ht="16">
       <c r="A162" s="13" t="s">
         <v>325</v>
       </c>
@@ -13936,7 +14018,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.75">
+    <row r="163" spans="1:5" ht="16">
       <c r="A163" s="13" t="s">
         <v>325</v>
       </c>
@@ -13953,7 +14035,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15.75">
+    <row r="164" spans="1:5" ht="16">
       <c r="A164" s="13" t="s">
         <v>88</v>
       </c>
@@ -13970,7 +14052,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15.75">
+    <row r="165" spans="1:5" ht="16">
       <c r="A165" s="13" t="s">
         <v>325</v>
       </c>
@@ -13987,7 +14069,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.75">
+    <row r="166" spans="1:5" ht="16">
       <c r="A166" s="13" t="s">
         <v>325</v>
       </c>
@@ -14004,7 +14086,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.75">
+    <row r="167" spans="1:5" ht="16">
       <c r="A167" s="13" t="s">
         <v>325</v>
       </c>
@@ -14021,7 +14103,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15.75">
+    <row r="168" spans="1:5" ht="16">
       <c r="A168" s="13" t="s">
         <v>325</v>
       </c>
@@ -14038,7 +14120,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15.75">
+    <row r="169" spans="1:5" ht="16">
       <c r="A169" s="13" t="s">
         <v>325</v>
       </c>
@@ -14055,7 +14137,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.75">
+    <row r="170" spans="1:5" ht="16">
       <c r="A170" s="13" t="s">
         <v>88</v>
       </c>
@@ -14072,7 +14154,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15.75">
+    <row r="171" spans="1:5" ht="16">
       <c r="A171" s="13" t="s">
         <v>88</v>
       </c>
@@ -14089,7 +14171,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.75">
+    <row r="172" spans="1:5" ht="16">
       <c r="A172" s="13" t="s">
         <v>325</v>
       </c>
@@ -14106,7 +14188,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.75">
+    <row r="173" spans="1:5" ht="16">
       <c r="A173" s="13" t="s">
         <v>93</v>
       </c>
@@ -14123,7 +14205,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15.75">
+    <row r="174" spans="1:5" ht="16">
       <c r="A174" s="13" t="s">
         <v>93</v>
       </c>
@@ -14140,7 +14222,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15.75">
+    <row r="175" spans="1:5" ht="16">
       <c r="A175" s="13" t="s">
         <v>93</v>
       </c>
@@ -14157,7 +14239,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15.75">
+    <row r="176" spans="1:5" ht="16">
       <c r="A176" s="13" t="s">
         <v>325</v>
       </c>
@@ -14174,7 +14256,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.75">
+    <row r="177" spans="1:5" ht="16">
       <c r="A177" s="13" t="s">
         <v>325</v>
       </c>
@@ -14191,7 +14273,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.75">
+    <row r="178" spans="1:5" ht="16">
       <c r="A178" s="13" t="s">
         <v>325</v>
       </c>
@@ -14208,7 +14290,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.75">
+    <row r="179" spans="1:5" ht="16">
       <c r="A179" s="13" t="s">
         <v>325</v>
       </c>
@@ -14225,7 +14307,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.75">
+    <row r="180" spans="1:5" ht="16">
       <c r="A180" s="13" t="s">
         <v>325</v>
       </c>
@@ -14242,7 +14324,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75">
+    <row r="181" spans="1:5" ht="16">
       <c r="A181" s="13" t="s">
         <v>325</v>
       </c>
@@ -14259,7 +14341,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.75">
+    <row r="182" spans="1:5" ht="16">
       <c r="A182" s="13" t="s">
         <v>325</v>
       </c>
@@ -14276,7 +14358,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.75">
+    <row r="183" spans="1:5" ht="16">
       <c r="A183" s="13" t="s">
         <v>325</v>
       </c>
@@ -14293,7 +14375,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.75">
+    <row r="184" spans="1:5" ht="16">
       <c r="A184" s="13" t="s">
         <v>93</v>
       </c>
@@ -14310,7 +14392,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.75">
+    <row r="185" spans="1:5" ht="16">
       <c r="A185" s="13" t="s">
         <v>93</v>
       </c>
@@ -14327,7 +14409,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.75">
+    <row r="186" spans="1:5" ht="16">
       <c r="A186" s="13" t="s">
         <v>88</v>
       </c>
@@ -14344,7 +14426,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.75">
+    <row r="187" spans="1:5" ht="16">
       <c r="A187" s="13" t="s">
         <v>325</v>
       </c>
@@ -14361,7 +14443,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75">
+    <row r="188" spans="1:5" ht="16">
       <c r="A188" s="13" t="s">
         <v>88</v>
       </c>
@@ -14378,7 +14460,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.75">
+    <row r="189" spans="1:5" ht="16">
       <c r="A189" s="13" t="s">
         <v>325</v>
       </c>
@@ -14395,7 +14477,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.75">
+    <row r="190" spans="1:5" ht="16">
       <c r="A190" s="13" t="s">
         <v>88</v>
       </c>
@@ -14412,7 +14494,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75">
+    <row r="191" spans="1:5" ht="16">
       <c r="A191" s="13" t="s">
         <v>325</v>
       </c>
@@ -14429,7 +14511,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.75">
+    <row r="192" spans="1:5" ht="16">
       <c r="A192" s="13" t="s">
         <v>325</v>
       </c>
@@ -14446,7 +14528,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15.75">
+    <row r="193" spans="1:5" ht="16">
       <c r="A193" s="13" t="s">
         <v>325</v>
       </c>
@@ -14463,7 +14545,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75">
+    <row r="194" spans="1:5" ht="16">
       <c r="A194" s="13" t="s">
         <v>325</v>
       </c>
@@ -14480,7 +14562,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.75">
+    <row r="195" spans="1:5" ht="16">
       <c r="A195" s="13" t="s">
         <v>325</v>
       </c>
@@ -14497,7 +14579,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15.75">
+    <row r="196" spans="1:5" ht="16">
       <c r="A196" s="14" t="s">
         <v>83</v>
       </c>
@@ -14514,7 +14596,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15.75">
+    <row r="197" spans="1:5" ht="16">
       <c r="A197" s="14" t="s">
         <v>83</v>
       </c>
@@ -14531,7 +14613,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15.75">
+    <row r="198" spans="1:5" ht="16">
       <c r="A198" s="14" t="s">
         <v>83</v>
       </c>
@@ -14548,7 +14630,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15.75">
+    <row r="199" spans="1:5" ht="16">
       <c r="A199" s="14" t="s">
         <v>83</v>
       </c>
@@ -14565,7 +14647,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15.75">
+    <row r="200" spans="1:5" ht="16">
       <c r="A200" s="14" t="s">
         <v>83</v>
       </c>
@@ -14582,7 +14664,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15.75">
+    <row r="201" spans="1:5" ht="16">
       <c r="A201" s="13" t="s">
         <v>88</v>
       </c>
@@ -14599,7 +14681,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15.75">
+    <row r="202" spans="1:5" ht="16">
       <c r="A202" s="14" t="s">
         <v>83</v>
       </c>
@@ -14616,7 +14698,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.75">
+    <row r="203" spans="1:5" ht="16">
       <c r="A203" s="14" t="s">
         <v>83</v>
       </c>
@@ -14633,7 +14715,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15.75">
+    <row r="204" spans="1:5" ht="16">
       <c r="A204" s="14" t="s">
         <v>83</v>
       </c>
@@ -14650,7 +14732,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15.75">
+    <row r="205" spans="1:5" ht="16">
       <c r="A205" s="14" t="s">
         <v>83</v>
       </c>
@@ -14667,7 +14749,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15.75">
+    <row r="206" spans="1:5" ht="16">
       <c r="A206" s="14" t="s">
         <v>83</v>
       </c>
@@ -14684,7 +14766,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15.75">
+    <row r="207" spans="1:5" ht="16">
       <c r="A207" s="13" t="s">
         <v>325</v>
       </c>
@@ -14701,7 +14783,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15.75">
+    <row r="208" spans="1:5" ht="16">
       <c r="A208" s="13" t="s">
         <v>325</v>
       </c>
@@ -14718,7 +14800,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.75">
+    <row r="209" spans="1:5" ht="16">
       <c r="A209" s="13" t="s">
         <v>325</v>
       </c>
@@ -14735,7 +14817,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.75">
+    <row r="210" spans="1:5" ht="16">
       <c r="A210" s="13" t="s">
         <v>325</v>
       </c>
@@ -14752,7 +14834,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.75">
+    <row r="211" spans="1:5" ht="16">
       <c r="A211" s="13" t="s">
         <v>325</v>
       </c>
@@ -14769,7 +14851,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75">
+    <row r="212" spans="1:5" ht="16">
       <c r="A212" s="13" t="s">
         <v>325</v>
       </c>
@@ -14786,7 +14868,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.75">
+    <row r="213" spans="1:5" ht="16">
       <c r="A213" s="13" t="s">
         <v>325</v>
       </c>
@@ -14803,7 +14885,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15.75">
+    <row r="214" spans="1:5" ht="16">
       <c r="A214" s="13" t="s">
         <v>88</v>
       </c>
@@ -14820,7 +14902,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.75">
+    <row r="215" spans="1:5" ht="16">
       <c r="A215" s="13" t="s">
         <v>325</v>
       </c>
@@ -14837,7 +14919,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15.75">
+    <row r="216" spans="1:5" ht="16">
       <c r="A216" s="13" t="s">
         <v>88</v>
       </c>
@@ -14854,7 +14936,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15.75">
+    <row r="217" spans="1:5" ht="16">
       <c r="A217" s="13" t="s">
         <v>325</v>
       </c>
@@ -14871,7 +14953,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.75">
+    <row r="218" spans="1:5" ht="16">
       <c r="A218" s="13" t="s">
         <v>325</v>
       </c>
@@ -14888,7 +14970,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.75">
+    <row r="219" spans="1:5" ht="16">
       <c r="A219" s="13" t="s">
         <v>325</v>
       </c>
@@ -14905,7 +14987,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15.75">
+    <row r="220" spans="1:5" ht="16">
       <c r="A220" s="13" t="s">
         <v>325</v>
       </c>
@@ -14922,7 +15004,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15.75">
+    <row r="221" spans="1:5" ht="16">
       <c r="A221" s="13" t="s">
         <v>325</v>
       </c>
@@ -14939,7 +15021,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15.75">
+    <row r="222" spans="1:5" ht="16">
       <c r="A222" s="13" t="s">
         <v>325</v>
       </c>
@@ -14956,7 +15038,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15.75">
+    <row r="223" spans="1:5" ht="16">
       <c r="A223" s="13" t="s">
         <v>325</v>
       </c>
@@ -14973,7 +15055,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15.75">
+    <row r="224" spans="1:5" ht="16">
       <c r="A224" s="13" t="s">
         <v>325</v>
       </c>
@@ -14990,7 +15072,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15.75">
+    <row r="225" spans="1:5" ht="16">
       <c r="A225" s="13" t="s">
         <v>325</v>
       </c>
@@ -15007,7 +15089,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15.75">
+    <row r="226" spans="1:5" ht="16">
       <c r="A226" s="13" t="s">
         <v>325</v>
       </c>
@@ -15024,7 +15106,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15.75">
+    <row r="227" spans="1:5" ht="16">
       <c r="A227" s="13" t="s">
         <v>325</v>
       </c>
@@ -15041,7 +15123,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15.75">
+    <row r="228" spans="1:5" ht="16">
       <c r="A228" s="14" t="s">
         <v>83</v>
       </c>
@@ -15058,7 +15140,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15.75">
+    <row r="229" spans="1:5" ht="16">
       <c r="A229" s="13" t="s">
         <v>325</v>
       </c>
@@ -15075,7 +15157,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15.75">
+    <row r="230" spans="1:5" ht="16">
       <c r="A230" s="13" t="s">
         <v>93</v>
       </c>
@@ -15092,7 +15174,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15.75">
+    <row r="231" spans="1:5" ht="16">
       <c r="A231" s="13" t="s">
         <v>93</v>
       </c>
@@ -15109,7 +15191,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15.75">
+    <row r="232" spans="1:5" ht="16">
       <c r="A232" s="13" t="s">
         <v>93</v>
       </c>
@@ -15126,7 +15208,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15.75">
+    <row r="233" spans="1:5" ht="16">
       <c r="A233" s="13" t="s">
         <v>325</v>
       </c>
@@ -15143,7 +15225,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15.75">
+    <row r="234" spans="1:5" ht="16">
       <c r="A234" s="13" t="s">
         <v>93</v>
       </c>
@@ -15160,7 +15242,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15.75">
+    <row r="235" spans="1:5" ht="16">
       <c r="A235" s="13" t="s">
         <v>325</v>
       </c>
@@ -15177,7 +15259,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15.75">
+    <row r="236" spans="1:5" ht="16">
       <c r="A236" s="13" t="s">
         <v>325</v>
       </c>
@@ -15194,7 +15276,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15.75">
+    <row r="237" spans="1:5" ht="16">
       <c r="A237" s="13" t="s">
         <v>325</v>
       </c>
@@ -15211,7 +15293,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15.75">
+    <row r="238" spans="1:5" ht="16">
       <c r="A238" s="13" t="s">
         <v>325</v>
       </c>
@@ -15228,7 +15310,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15.75">
+    <row r="239" spans="1:5" ht="16">
       <c r="A239" s="13" t="s">
         <v>325</v>
       </c>
@@ -15245,7 +15327,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15.75">
+    <row r="240" spans="1:5" ht="16">
       <c r="A240" s="13" t="s">
         <v>325</v>
       </c>
@@ -15262,7 +15344,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15.75">
+    <row r="241" spans="1:5" ht="16">
       <c r="A241" s="13" t="s">
         <v>325</v>
       </c>
@@ -15279,7 +15361,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15.75">
+    <row r="242" spans="1:5" ht="16">
       <c r="A242" s="13" t="s">
         <v>325</v>
       </c>
@@ -15296,7 +15378,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15.75">
+    <row r="243" spans="1:5" ht="16">
       <c r="A243" s="13" t="s">
         <v>325</v>
       </c>
@@ -15313,7 +15395,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15.75">
+    <row r="244" spans="1:5" ht="16">
       <c r="A244" s="13" t="s">
         <v>325</v>
       </c>
@@ -15330,7 +15412,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15.75">
+    <row r="245" spans="1:5" ht="16">
       <c r="A245" s="13" t="s">
         <v>93</v>
       </c>
@@ -15347,7 +15429,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15.75">
+    <row r="246" spans="1:5" ht="16">
       <c r="A246" s="13" t="s">
         <v>93</v>
       </c>
@@ -15364,7 +15446,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15.75">
+    <row r="247" spans="1:5" ht="16">
       <c r="A247" s="13" t="s">
         <v>93</v>
       </c>
@@ -15381,7 +15463,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15.75">
+    <row r="248" spans="1:5" ht="16">
       <c r="A248" s="13" t="s">
         <v>93</v>
       </c>
@@ -15398,7 +15480,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15.75">
+    <row r="249" spans="1:5" ht="16">
       <c r="A249" s="13" t="s">
         <v>93</v>
       </c>
@@ -15415,7 +15497,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15.75">
+    <row r="250" spans="1:5" ht="16">
       <c r="A250" s="13" t="s">
         <v>93</v>
       </c>
@@ -15432,7 +15514,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15.75">
+    <row r="251" spans="1:5" ht="16">
       <c r="A251" s="13" t="s">
         <v>93</v>
       </c>
@@ -15455,18 +15537,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.85546875" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="16" collapsed="1"/>
+    <col min="1" max="1" width="19.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.83203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.1640625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -15573,22 +15655,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -15602,7 +15684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="10" t="s">
         <v>66</v>
       </c>
@@ -15616,7 +15698,7 @@
         <v>8082732588</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75">
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="10" t="s">
         <v>67</v>
       </c>
@@ -15630,7 +15712,7 @@
         <v>8082732588</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" spans="1:4" ht="16">
       <c r="A4" s="10" t="s">
         <v>68</v>
       </c>
@@ -15644,7 +15726,7 @@
         <v>8082732588</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75">
+    <row r="5" spans="1:4" ht="16">
       <c r="A5" s="10" t="s">
         <v>69</v>
       </c>

--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C8458A-564A-ED4E-973C-2586B223C059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D93C4D-2809-6E43-BF97-590C9730AB73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,12 @@
     <sheet name="Ticket Transfer Rules" sheetId="16" r:id="rId12"/>
     <sheet name="Authentication Policy" sheetId="17" r:id="rId13"/>
     <sheet name="OpenAPILoginSheet" sheetId="22" r:id="rId14"/>
-    <sheet name="Action Tagging" sheetId="18" r:id="rId15"/>
-    <sheet name="State Queue Mapping" sheetId="19" r:id="rId16"/>
-    <sheet name="Transfer To Queue" sheetId="20" r:id="rId17"/>
-    <sheet name="QuestionAnswerKey" sheetId="21" r:id="rId18"/>
+    <sheet name="OpenAPIClientConfig" sheetId="23" r:id="rId15"/>
+    <sheet name="ClientConfig" sheetId="24" r:id="rId16"/>
+    <sheet name="Action Tagging" sheetId="18" r:id="rId17"/>
+    <sheet name="State Queue Mapping" sheetId="19" r:id="rId18"/>
+    <sheet name="Transfer To Queue" sheetId="20" r:id="rId19"/>
+    <sheet name="QuestionAnswerKey" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="1397">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4222,6 +4224,21 @@
   </si>
   <si>
     <t>OpenApiInvalidToken</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>customerMsisdn</t>
+  </si>
+  <si>
+    <t>First Category Level</t>
+  </si>
+  <si>
+    <t>Last Category Level</t>
+  </si>
+  <si>
+    <t>Service Complaint</t>
   </si>
 </sst>
 </file>
@@ -4427,7 +4444,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4488,6 +4505,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5341,7 +5359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D9E5C9-8BED-BA40-9F9F-41566D0F59E7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -5365,7 +5383,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6">
+    <row r="3" spans="1:2" ht="170">
       <c r="A3" s="39" t="s">
         <v>1388</v>
       </c>
@@ -5373,7 +5391,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6">
+    <row r="4" spans="1:2" ht="170">
       <c r="A4" s="39" t="s">
         <v>1390</v>
       </c>
@@ -5387,6 +5405,87 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA33912-6B33-6D4E-9E84-7272171286F4}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="40" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="40">
+        <v>767240995</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F729F2B-6A47-5144-A6E2-8DCF2F401ACF}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="40" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40">
+        <v>5</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -5640,7 +5739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -5732,7 +5831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -5776,186 +5875,6 @@
       </c>
       <c r="C3" s="30" t="b">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="37.33203125" style="29" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.1640625" style="29" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="62.33203125" style="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="10.83203125" style="29" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17">
-      <c r="A1" s="30" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17">
-      <c r="A2" s="30" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17">
-      <c r="A3" s="30" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17">
-      <c r="A4" s="30" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17">
-      <c r="A5" s="30" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17">
-      <c r="A6" s="30" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C6" s="34"/>
-    </row>
-    <row r="7" spans="1:3" ht="17">
-      <c r="A7" s="30" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17">
-      <c r="A8" s="30" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17">
-      <c r="A9" s="30" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17">
-      <c r="A10" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17">
-      <c r="A11" s="30" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17">
-      <c r="A12" s="30" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17">
-      <c r="A13" s="30" t="s">
-        <v>1334</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C13" s="34"/>
-    </row>
-    <row r="14" spans="1:3" ht="17">
-      <c r="A14" s="30" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C14" s="34"/>
-    </row>
-    <row r="15" spans="1:3" ht="17">
-      <c r="A15" s="30" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>1340</v>
       </c>
     </row>
   </sheetData>
@@ -6009,6 +5928,186 @@
     <row r="7" spans="1:1" ht="16">
       <c r="A7" s="7" t="s">
         <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" style="29" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.1640625" style="29" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="62.33203125" style="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="10.83203125" style="29" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17">
+      <c r="A1" s="30" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17">
+      <c r="A2" s="30" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17">
+      <c r="A3" s="30" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
+      <c r="A4" s="30" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5" s="30" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17">
+      <c r="A6" s="30" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="1:3" ht="17">
+      <c r="A7" s="30" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17">
+      <c r="A8" s="30" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17">
+      <c r="A9" s="30" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17">
+      <c r="A10" s="30" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17">
+      <c r="A11" s="30" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17">
+      <c r="A12" s="30" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17">
+      <c r="A13" s="30" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:3" ht="17">
+      <c r="A14" s="30" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:3" ht="17">
+      <c r="A15" s="30" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>1340</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D93C4D-2809-6E43-BF97-590C9730AB73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6AFD5C-7811-BA42-9469-481FF4DD2F8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,11 @@
     <sheet name="OpenAPILoginSheet" sheetId="22" r:id="rId14"/>
     <sheet name="OpenAPIClientConfig" sheetId="23" r:id="rId15"/>
     <sheet name="ClientConfig" sheetId="24" r:id="rId16"/>
-    <sheet name="Action Tagging" sheetId="18" r:id="rId17"/>
-    <sheet name="State Queue Mapping" sheetId="19" r:id="rId18"/>
-    <sheet name="Transfer To Queue" sheetId="20" r:id="rId19"/>
-    <sheet name="QuestionAnswerKey" sheetId="21" r:id="rId20"/>
+    <sheet name="AgentDetails" sheetId="25" r:id="rId17"/>
+    <sheet name="Action Tagging" sheetId="18" r:id="rId18"/>
+    <sheet name="State Queue Mapping" sheetId="19" r:id="rId19"/>
+    <sheet name="Transfer To Queue" sheetId="20" r:id="rId20"/>
+    <sheet name="QuestionAnswerKey" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="1401">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4239,15 +4240,34 @@
   </si>
   <si>
     <t>Service Complaint</t>
+  </si>
+  <si>
+    <t>AgentId</t>
+  </si>
+  <si>
+    <t>AgentAuuid</t>
+  </si>
+  <si>
+    <t>AgentName</t>
+  </si>
+  <si>
+    <t>Ashwani Rao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4438,35 +4458,35 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4478,7 +4498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4487,25 +4507,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5447,7 +5468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F729F2B-6A47-5144-A6E2-8DCF2F401ACF}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -5486,6 +5507,41 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5C539C-88FF-C44E-9A5D-19FF2883AA5C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="41" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41">
+        <v>13221514</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -5739,7 +5795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -5825,57 +5881,6 @@
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="29" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="34">
-      <c r="A1" s="30" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17">
-      <c r="A2" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17">
-      <c r="A3" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="30" t="b">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5936,6 +5941,57 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="29" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="34">
+      <c r="A1" s="30" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17">
+      <c r="A2" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17">
+      <c r="A3" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>

--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6AFD5C-7811-BA42-9469-481FF4DD2F8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AEE096-D982-C445-8887-286D54B18E87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="1401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="1411">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4233,15 +4233,6 @@
     <t>customerMsisdn</t>
   </si>
   <si>
-    <t>First Category Level</t>
-  </si>
-  <si>
-    <t>Last Category Level</t>
-  </si>
-  <si>
-    <t>Service Complaint</t>
-  </si>
-  <si>
     <t>AgentId</t>
   </si>
   <si>
@@ -4252,6 +4243,45 @@
   </si>
   <si>
     <t>Ashwani Rao</t>
+  </si>
+  <si>
+    <t>First level Category</t>
+  </si>
+  <si>
+    <t>Last Level Category</t>
+  </si>
+  <si>
+    <t>Search able</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Deactivate</t>
+  </si>
+  <si>
+    <t>userMsisdn</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>accountId</t>
+  </si>
+  <si>
+    <t>msisdn</t>
+  </si>
+  <si>
+    <t>invalidMsisdn</t>
   </si>
 </sst>
 </file>
@@ -4464,7 +4494,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4527,6 +4557,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5466,10 +5497,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F729F2B-6A47-5144-A6E2-8DCF2F401ACF}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5479,18 +5510,33 @@
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:8" ht="16">
       <c r="A1" s="40" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16">
+      <c r="D1" s="40" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16">
       <c r="A2" s="40">
         <v>1</v>
       </c>
@@ -5498,8 +5544,81 @@
         <v>5</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>1396</v>
-      </c>
+        <v>1405</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="42" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16">
+      <c r="A4" s="40">
+        <v>1</v>
+      </c>
+      <c r="B4" s="40">
+        <v>5</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G4" s="40">
+        <v>9071714399</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40">
+        <v>123</v>
+      </c>
+      <c r="H5" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5510,7 +5629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5C539C-88FF-C44E-9A5D-19FF2883AA5C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
@@ -5518,13 +5637,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="41" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -5533,7 +5652,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AEE096-D982-C445-8887-286D54B18E87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C920DC84-3D5A-B24C-BB7F-337C50FB19C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="1411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3058" uniqueCount="1414">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4282,15 +4282,31 @@
   </si>
   <si>
     <t>invalidMsisdn</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months</t>
+  </si>
+  <si>
+    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4356,6 +4372,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4488,35 +4510,35 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4528,7 +4550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4537,27 +4559,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5312,7 +5340,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -5401,6 +5429,9 @@
       <c r="I2" s="21" t="s">
         <v>1232</v>
       </c>
+      <c r="J2" s="43" t="s">
+        <v>1411</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5499,7 +5530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F729F2B-6A47-5144-A6E2-8DCF2F401ACF}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
@@ -6112,10 +6143,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -6283,6 +6314,14 @@
       </c>
       <c r="C15" s="30" t="s">
         <v>1340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="34">
+      <c r="A16" s="44" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>1413</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C920DC84-3D5A-B24C-BB7F-337C50FB19C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DFA120-8EFE-4D47-854F-F0736AC0D852}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3058" uniqueCount="1414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="1414">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3524,19 +3524,7 @@
     <t>Loan Details</t>
   </si>
   <si>
-    <t>Total Loan Eligibility</t>
-  </si>
-  <si>
-    <t>Number of Loan Taken</t>
-  </si>
-  <si>
     <t>Total Loan Amount</t>
-  </si>
-  <si>
-    <t>Total Loan Paid</t>
-  </si>
-  <si>
-    <t>Total Current Outstanding</t>
   </si>
   <si>
     <t>Loan History</t>
@@ -4291,13 +4279,25 @@
   </si>
   <si>
     <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
+  </si>
+  <si>
+    <t>Loan ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Loan Eligibility </t>
+  </si>
+  <si>
+    <t>Count Of Events</t>
+  </si>
+  <si>
+    <t>Loan Paid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4379,6 +4379,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4418,7 +4425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4507,6 +4514,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4516,7 +4536,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4586,6 +4606,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5030,10 +5053,10 @@
         <v>1091</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5041,7 +5064,7 @@
         <v>2394650</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1087</v>
@@ -5050,16 +5073,16 @@
         <v>9079239372</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -5067,7 +5090,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1088</v>
@@ -5076,7 +5099,7 @@
         <v>9078586352</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -5084,7 +5107,7 @@
         <v>2394650</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1090</v>
@@ -5093,7 +5116,7 @@
         <v>9079403863</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -5110,7 +5133,7 @@
         <v>9079403863</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -5118,10 +5141,10 @@
         <v>13221514</v>
       </c>
       <c r="B6" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="C6" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="D6">
         <v>8082732588</v>
@@ -5132,10 +5155,10 @@
         <v>13221514</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C7" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="D7">
         <v>9042837429</v>
@@ -5245,39 +5268,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="20" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="16" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="16" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="16" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5287,7 +5310,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="16" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
     </row>
   </sheetData>
@@ -5315,19 +5338,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>1208</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>1212</v>
       </c>
     </row>
   </sheetData>
@@ -5362,75 +5385,75 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17">
       <c r="A1" s="16" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>1213</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="F1" s="21" t="s">
         <v>1214</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="G1" s="21" t="s">
         <v>1215</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>1216</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>1217</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>1218</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>1219</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>1220</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>1221</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>1222</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>1223</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>1224</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="153">
       <c r="A2" s="16" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="C2" s="16">
         <v>3</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>1227</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>1228</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>1230</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>1231</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>1232</v>
-      </c>
       <c r="J2" s="43" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
     </row>
   </sheetData>
@@ -5454,32 +5477,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" s="39" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="39"/>
       <c r="B2" s="39" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="170">
       <c r="A3" s="39" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="170">
       <c r="A4" s="39" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
     </row>
   </sheetData>
@@ -5503,10 +5526,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16">
       <c r="A1" s="40" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
@@ -5518,7 +5541,7 @@
         <v>767240995</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
   </sheetData>
@@ -5543,28 +5566,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16">
       <c r="A1" s="40" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>1398</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>1399</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>1400</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>1401</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>1402</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>1403</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
@@ -5575,36 +5598,36 @@
         <v>5</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="G2" s="40"/>
       <c r="H2" s="42" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="42" t="s">
@@ -5619,29 +5642,29 @@
         <v>5</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="G4" s="40">
         <v>9071714399</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
@@ -5668,13 +5691,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="41" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -5683,7 +5706,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
   </sheetData>
@@ -5709,45 +5732,45 @@
   <sheetData>
     <row r="1" spans="1:10" ht="48">
       <c r="A1" s="25" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="H1" s="27" t="s">
         <v>1259</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="I1" s="27" t="s">
         <v>1260</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>1262</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>1263</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>1264</v>
-      </c>
       <c r="J1" s="28" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34">
       <c r="A2" s="30" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -5761,7 +5784,7 @@
     </row>
     <row r="3" spans="1:10" ht="32">
       <c r="A3" s="25" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -5770,10 +5793,10 @@
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="31" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="J3" s="25" t="b">
         <v>0</v>
@@ -5781,7 +5804,7 @@
     </row>
     <row r="4" spans="1:10" ht="32">
       <c r="A4" s="25" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -5797,7 +5820,7 @@
     </row>
     <row r="5" spans="1:10" ht="16">
       <c r="A5" s="25" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -5813,7 +5836,7 @@
     </row>
     <row r="6" spans="1:10" ht="16">
       <c r="A6" s="25" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -5829,7 +5852,7 @@
     </row>
     <row r="7" spans="1:10" ht="16">
       <c r="A7" s="25" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -5845,7 +5868,7 @@
     </row>
     <row r="8" spans="1:10" ht="32">
       <c r="A8" s="25" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -5861,7 +5884,7 @@
     </row>
     <row r="9" spans="1:10" ht="16">
       <c r="A9" s="25" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -5877,7 +5900,7 @@
     </row>
     <row r="10" spans="1:10" ht="48">
       <c r="A10" s="25" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -5893,7 +5916,7 @@
     </row>
     <row r="11" spans="1:10" ht="32">
       <c r="A11" s="25" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -5909,7 +5932,7 @@
     </row>
     <row r="12" spans="1:10" ht="32">
       <c r="A12" s="25" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -5925,7 +5948,7 @@
     </row>
     <row r="13" spans="1:10" ht="32">
       <c r="A13" s="25" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -5957,37 +5980,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="32" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>1288</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>1289</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>1290</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>1291</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>1292</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>1293</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>1294</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>1296</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>1297</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16">
@@ -6105,13 +6128,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="34">
       <c r="A1" s="30" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17">
@@ -6145,7 +6168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
@@ -6159,169 +6182,169 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17">
       <c r="A1" s="30" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17">
       <c r="A2" s="30" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17">
       <c r="A3" s="30" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17">
       <c r="A4" s="30" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="30" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17">
       <c r="A6" s="30" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:3" ht="17">
       <c r="A7" s="30" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17">
       <c r="A8" s="30" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="30" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17">
       <c r="A10" s="30" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17">
       <c r="A11" s="30" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17">
       <c r="A12" s="30" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17">
       <c r="A13" s="30" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="C13" s="34"/>
     </row>
     <row r="14" spans="1:3" ht="17">
       <c r="A14" s="30" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="A15" s="30" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34">
       <c r="A16" s="44" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
     </row>
   </sheetData>
@@ -6333,8 +6356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16"/>
@@ -6345,7 +6368,7 @@
     <col min="4" max="4" width="20.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="24.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="25.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.33203125" style="16" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14.1640625" style="16" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="18.33203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="15.6640625" style="16" customWidth="1" collapsed="1"/>
@@ -6388,10 +6411,10 @@
         <v>1121</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6399,7 +6422,7 @@
         <v>1035</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>1122</v>
@@ -6453,7 +6476,7 @@
         <v>1131</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>1128</v>
@@ -6501,7 +6524,7 @@
         <v>1139</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
@@ -6620,7 +6643,7 @@
         <v>1154</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>1155</v>
@@ -6643,22 +6666,24 @@
       <c r="A11" s="24" t="s">
         <v>1158</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="45" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E11" s="45" t="s">
         <v>1159</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G11" s="22"/>
+      <c r="F11" s="46" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>1130</v>
+      </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -6668,28 +6693,28 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="24" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>1164</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="F12" s="22" t="s">
         <v>1165</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="G12" s="22" t="s">
         <v>1166</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="H12" s="22" t="s">
         <v>1167</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>1171</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -6699,19 +6724,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="22" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>1172</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>1176</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -6724,10 +6749,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="24" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>1128</v>
@@ -6736,22 +6761,22 @@
         <v>1132</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>1125</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>1152</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="K14" s="24" t="s">
         <v>1139</v>
@@ -6761,7 +6786,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="24" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>15</v>
@@ -6773,13 +6798,13 @@
         <v>1129</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>1130</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>1132</v>
@@ -6792,19 +6817,19 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="24" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>1185</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>1189</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -6817,19 +6842,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>1190</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>1194</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -6842,22 +6867,22 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="24" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -6869,66 +6894,66 @@
     </row>
     <row r="19" spans="1:13" ht="32">
       <c r="A19" s="24" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>1123</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>1124</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="L19" s="24" t="s">
         <v>1125</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="24" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>1128</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
@@ -6939,34 +6964,34 @@
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" ht="15">
       <c r="A21" s="22" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>1152</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -6974,25 +6999,25 @@
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" ht="15">
       <c r="A22" s="22" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>1152</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -7003,19 +7028,19 @@
     </row>
     <row r="23" spans="1:13" ht="17">
       <c r="A23" s="35" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E23" s="36" t="s">
         <v>1355</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>1358</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>1359</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>40</v>
@@ -7030,10 +7055,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="37" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="C24" s="36" t="s">
         <v>15</v>
@@ -7042,16 +7067,16 @@
         <v>1125</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -7061,40 +7086,40 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="37" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E25" s="36" t="s">
         <v>1366</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="F25" s="36" t="s">
         <v>1367</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="G25" s="38" t="s">
         <v>1368</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="H25" s="38" t="s">
         <v>1369</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="I25" s="38" t="s">
         <v>1370</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="J25" s="38" t="s">
         <v>1371</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="K25" s="38" t="s">
         <v>1372</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="L25" s="38" t="s">
         <v>1373</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>1374</v>
-      </c>
-      <c r="J25" s="38" t="s">
-        <v>1375</v>
-      </c>
-      <c r="K25" s="38" t="s">
-        <v>1376</v>
-      </c>
-      <c r="L25" s="38" t="s">
-        <v>1377</v>
       </c>
       <c r="M25" s="1"/>
     </row>
@@ -7325,7 +7350,7 @@
         <v>122</v>
       </c>
       <c r="BG2" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="16">
@@ -7354,7 +7379,7 @@
         <v>122</v>
       </c>
       <c r="BG3" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -1,39 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DFA120-8EFE-4D47-854F-F0736AC0D852}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E075DE5-4EF9-5E47-AE5B-43102491F787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="620" windowWidth="30720" windowHeight="17520" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Priority" sheetId="9" r:id="rId2"/>
     <sheet name="Headers" sheetId="13" r:id="rId3"/>
     <sheet name="NFTRTickets-San" sheetId="10" r:id="rId4"/>
-    <sheet name="NFTRTickets-Reg" sheetId="2" r:id="rId5"/>
-    <sheet name="FTRTickets-San" sheetId="11" r:id="rId6"/>
-    <sheet name="FTRTickets-Reg" sheetId="3" r:id="rId7"/>
-    <sheet name="UserManagement" sheetId="14" r:id="rId8"/>
-    <sheet name="PinnedTags" sheetId="6" r:id="rId9"/>
-    <sheet name="Ticket State" sheetId="8" r:id="rId10"/>
-    <sheet name="TemplateManagement" sheetId="15" r:id="rId11"/>
-    <sheet name="Ticket Transfer Rules" sheetId="16" r:id="rId12"/>
-    <sheet name="Authentication Policy" sheetId="17" r:id="rId13"/>
-    <sheet name="OpenAPILoginSheet" sheetId="22" r:id="rId14"/>
-    <sheet name="OpenAPIClientConfig" sheetId="23" r:id="rId15"/>
-    <sheet name="ClientConfig" sheetId="24" r:id="rId16"/>
-    <sheet name="AgentDetails" sheetId="25" r:id="rId17"/>
-    <sheet name="Action Tagging" sheetId="18" r:id="rId18"/>
-    <sheet name="State Queue Mapping" sheetId="19" r:id="rId19"/>
-    <sheet name="Transfer To Queue" sheetId="20" r:id="rId20"/>
-    <sheet name="QuestionAnswerKey" sheetId="21" r:id="rId21"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId5"/>
+    <sheet name="SLA Configuration" sheetId="27" r:id="rId6"/>
+    <sheet name="NFTRTickets-Reg" sheetId="2" r:id="rId7"/>
+    <sheet name="FTRTickets-San" sheetId="11" r:id="rId8"/>
+    <sheet name="FTRTickets-Reg" sheetId="3" r:id="rId9"/>
+    <sheet name="UserManagement" sheetId="14" r:id="rId10"/>
+    <sheet name="PinnedTags" sheetId="6" r:id="rId11"/>
+    <sheet name="Ticket State" sheetId="8" r:id="rId12"/>
+    <sheet name="TemplateManagement" sheetId="15" r:id="rId13"/>
+    <sheet name="Ticket Transfer Rules" sheetId="16" r:id="rId14"/>
+    <sheet name="Authentication Policy" sheetId="17" r:id="rId15"/>
+    <sheet name="OpenAPILoginSheet" sheetId="22" r:id="rId16"/>
+    <sheet name="OpenAPIClientConfig" sheetId="23" r:id="rId17"/>
+    <sheet name="ClientConfig" sheetId="24" r:id="rId18"/>
+    <sheet name="AgentDetails" sheetId="25" r:id="rId19"/>
+    <sheet name="Action Tagging" sheetId="18" r:id="rId20"/>
+    <sheet name="State Queue Mapping" sheetId="19" r:id="rId21"/>
+    <sheet name="Transfer To Queue" sheetId="20" r:id="rId22"/>
+    <sheet name="QuestionAnswerKey" sheetId="21" r:id="rId23"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -44,8 +46,197 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{7D3AB04D-A048-0449-B23F-DE2FD0F8BBE9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0CD3CFE4-D1A6-E549-92AF-226A58554B02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F53D8295-9864-CF41-9D45-606420A57630}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3CE9092B-3C52-8541-9B5C-9AE7779124C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F6CAFA21-4588-594E-8665-C151379A3EAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rahul Gupta:
+This column represent the customer Type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A363E954-2831-BF4C-A2F5-067FB165F9B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer service category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{DFA3746B-3845-3D47-B219-ED64198CF895}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer segment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="1414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="1434">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4059,9 +4250,6 @@
   </si>
   <si>
     <t>130621000953</t>
-  </si>
-  <si>
-    <t>130621000954</t>
   </si>
   <si>
     <t>UC-UT Offer</t>
@@ -4291,15 +4479,85 @@
   </si>
   <si>
     <t>Loan Paid</t>
+  </si>
+  <si>
+    <t>Service request</t>
+  </si>
+  <si>
+    <t>CS Automation NFTR</t>
+  </si>
+  <si>
+    <t>Ignore this category code</t>
+  </si>
+  <si>
+    <t>Do not close this ticket</t>
+  </si>
+  <si>
+    <t>Auto01</t>
+  </si>
+  <si>
+    <t>CS Test Automation</t>
+  </si>
+  <si>
+    <t>0.6h</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Attribute name</t>
+  </si>
+  <si>
+    <t>Attribute value</t>
+  </si>
+  <si>
+    <t>Workgroup Name</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Rule Priority</t>
+  </si>
+  <si>
+    <t>customerVip</t>
+  </si>
+  <si>
+    <t>lineType</t>
+  </si>
+  <si>
+    <t>customerType</t>
+  </si>
+  <si>
+    <t>serviceCategory</t>
+  </si>
+  <si>
+    <t>customerSegment</t>
+  </si>
+  <si>
+    <t>customerSubSegment</t>
+  </si>
+  <si>
+    <t>interactionChannel</t>
+  </si>
+  <si>
+    <t>Default SLA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4385,6 +4643,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333399"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4530,35 +4807,35 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4570,7 +4847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4579,36 +4856,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5175,6 +5456,215 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.83203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.1640625" style="16" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8082732588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8082732588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16">
+      <c r="A4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8082732588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16">
+      <c r="A5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8082732588</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -5252,7 +5742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -5318,7 +5808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -5358,7 +5848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -5453,7 +5943,7 @@
         <v>1228</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
   </sheetData>
@@ -5461,7 +5951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D9E5C9-8BED-BA40-9F9F-41566D0F59E7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -5477,32 +5967,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" s="39" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>1381</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="39"/>
       <c r="B2" s="39" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="170">
       <c r="A3" s="39" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>1384</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="170">
       <c r="A4" s="39" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>1386</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>1387</v>
       </c>
     </row>
   </sheetData>
@@ -5510,7 +6000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA33912-6B33-6D4E-9E84-7272171286F4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5529,7 +6019,7 @@
         <v>1188</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
@@ -5541,7 +6031,7 @@
         <v>767240995</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
   </sheetData>
@@ -5549,7 +6039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F729F2B-6A47-5144-A6E2-8DCF2F401ACF}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -5566,28 +6056,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16">
       <c r="A1" s="40" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1394</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="C1" s="40" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>1395</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="40" t="s">
         <v>1396</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>1397</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>1398</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>1399</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
@@ -5598,36 +6088,36 @@
         <v>5</v>
       </c>
       <c r="C2" s="40" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>1401</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>1402</v>
-      </c>
       <c r="E2" s="42" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G2" s="40"/>
       <c r="H2" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="42" t="s">
@@ -5642,29 +6132,29 @@
         <v>5</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G4" s="40">
         <v>9071714399</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
@@ -5679,7 +6169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5C539C-88FF-C44E-9A5D-19FF2883AA5C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -5691,13 +6181,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="41" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>1390</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="41" t="s">
         <v>1391</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -5706,354 +6196,8 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="7" width="9.1640625" style="29" collapsed="1"/>
-    <col min="8" max="8" width="17.1640625" style="29" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.6640625" style="29" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.1640625" style="29" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="48">
-      <c r="A1" s="25" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>1258</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>1260</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="34">
-      <c r="A2" s="30" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="32">
-      <c r="A3" s="25" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="31" t="s">
-        <v>1265</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>1265</v>
-      </c>
-      <c r="J3" s="25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="32">
-      <c r="A4" s="25" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16">
-      <c r="A5" s="25" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16">
-      <c r="A6" s="25" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16">
-      <c r="A7" s="25" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="32">
-      <c r="A8" s="25" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16">
-      <c r="A9" s="25" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="48">
-      <c r="A10" s="25" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="32">
-      <c r="A11" s="25" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="32">
-      <c r="A12" s="25" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="32">
-      <c r="A13" s="25" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="32" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>1290</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>1291</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>1292</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>1293</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16">
-      <c r="A2" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-    </row>
-    <row r="3" spans="1:11" ht="16">
-      <c r="A3" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+        <v>1392</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6114,6 +6258,352 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="7" width="9.1640625" style="29" collapsed="1"/>
+    <col min="8" max="8" width="17.1640625" style="29" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.6640625" style="29" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.1640625" style="29" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="48">
+      <c r="A1" s="25" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34">
+      <c r="A2" s="30" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="32">
+      <c r="A3" s="25" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="31" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J3" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="32">
+      <c r="A4" s="25" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16">
+      <c r="A5" s="25" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16">
+      <c r="A6" s="25" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16">
+      <c r="A7" s="25" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="32">
+      <c r="A8" s="25" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16">
+      <c r="A9" s="25" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="48">
+      <c r="A10" s="25" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="32">
+      <c r="A11" s="25" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="32">
+      <c r="A12" s="25" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="32">
+      <c r="A13" s="25" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="32" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16">
+      <c r="A2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:11" ht="16">
+      <c r="A3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -6164,7 +6654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -6341,10 +6831,10 @@
     </row>
     <row r="16" spans="1:3" ht="34">
       <c r="A16" s="44" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>1408</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>1409</v>
       </c>
     </row>
   </sheetData>
@@ -6356,7 +6846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
@@ -6476,7 +6966,7 @@
         <v>1131</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>1128</v>
@@ -6524,7 +7014,7 @@
         <v>1139</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
@@ -6643,7 +7133,7 @@
         <v>1154</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>1155</v>
@@ -6667,19 +7157,19 @@
         <v>1158</v>
       </c>
       <c r="B11" s="45" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C11" s="46" t="s">
         <v>1410</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="D11" s="47" t="s">
         <v>1411</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>1412</v>
       </c>
       <c r="E11" s="45" t="s">
         <v>1159</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G11" s="46" t="s">
         <v>1130</v>
@@ -6752,7 +7242,7 @@
         <v>1173</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>1128</v>
@@ -6897,7 +7387,7 @@
         <v>1241</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>1123</v>
@@ -6918,13 +7408,13 @@
         <v>1124</v>
       </c>
       <c r="I19" s="26" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J19" s="26" t="s">
         <v>1378</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="K19" s="26" t="s">
         <v>1379</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>1380</v>
       </c>
       <c r="L19" s="24" t="s">
         <v>1125</v>
@@ -6964,16 +7454,16 @@
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" ht="15">
       <c r="A21" s="22" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>1339</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="C21" s="22" t="s">
         <v>1340</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="D21" s="22" t="s">
         <v>1341</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>1342</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>1189</v>
@@ -6982,16 +7472,16 @@
         <v>1152</v>
       </c>
       <c r="G21" s="22" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H21" s="22" t="s">
         <v>1343</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="I21" s="22" t="s">
         <v>1344</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="J21" s="22" t="s">
         <v>1345</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>1346</v>
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -6999,13 +7489,13 @@
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" ht="15">
       <c r="A22" s="22" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>1347</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="C22" s="22" t="s">
         <v>1348</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>1349</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>1189</v>
@@ -7014,7 +7504,7 @@
         <v>1152</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>1185</v>
@@ -7028,19 +7518,19 @@
     </row>
     <row r="23" spans="1:13" ht="17">
       <c r="A23" s="35" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>1351</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="C23" s="36" t="s">
         <v>1352</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="D23" s="36" t="s">
         <v>1353</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="E23" s="36" t="s">
         <v>1354</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>1355</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>40</v>
@@ -7055,10 +7545,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="37" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>1356</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>1357</v>
       </c>
       <c r="C24" s="36" t="s">
         <v>15</v>
@@ -7067,16 +7557,16 @@
         <v>1125</v>
       </c>
       <c r="E24" s="36" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F24" s="36" t="s">
         <v>1358</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="G24" s="36" t="s">
         <v>1359</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="H24" s="36" t="s">
         <v>1360</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>1361</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -7086,40 +7576,40 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="37" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>1362</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="C25" s="36" t="s">
         <v>1363</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="D25" s="36" t="s">
         <v>1364</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="E25" s="36" t="s">
         <v>1365</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="F25" s="36" t="s">
         <v>1366</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="G25" s="38" t="s">
         <v>1367</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="H25" s="38" t="s">
         <v>1368</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="I25" s="38" t="s">
         <v>1369</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="J25" s="38" t="s">
         <v>1370</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="K25" s="38" t="s">
         <v>1371</v>
       </c>
-      <c r="K25" s="38" t="s">
+      <c r="L25" s="38" t="s">
         <v>1372</v>
-      </c>
-      <c r="L25" s="38" t="s">
-        <v>1373</v>
       </c>
       <c r="M25" s="1"/>
     </row>
@@ -7134,8 +7624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="AS1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BG9" sqref="BG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -7324,63 +7814,48 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="16">
-      <c r="A2" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>728</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>729</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>730</v>
-      </c>
-      <c r="AV2" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW2" s="16" t="s">
-        <v>1081</v>
-      </c>
-      <c r="BE2" s="16" t="s">
-        <v>122</v>
+    <row r="2" spans="1:59" ht="18">
+      <c r="A2" s="48" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AV2" s="50" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AW2" s="50" t="s">
+        <v>1419</v>
+      </c>
+      <c r="BE2" s="50" t="s">
+        <v>1418</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="BG2" t="s">
         <v>1337</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="16">
-      <c r="A3" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>728</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>731</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>732</v>
-      </c>
-      <c r="AV3" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW3" s="16" t="s">
-        <v>1081</v>
-      </c>
-      <c r="BE3" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>1338</v>
-      </c>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16"/>
+      <c r="BE3" s="16"/>
+      <c r="BG3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7388,6 +7863,172 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A880CE68-4828-DB41-A559-6EC63834055F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16">
+      <c r="A1" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16">
+      <c r="A2" s="50" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="50" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856C5AAD-FC1B-894A-B609-23D7A54F7BCA}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="16">
+      <c r="A1" s="12" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>1105</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>1107</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>1108</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>1109</v>
+      </c>
+      <c r="Q1" s="51" t="s">
+        <v>1110</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16">
+      <c r="A2" s="50" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="50" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="R2" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG169"/>
   <sheetViews>
@@ -11511,7 +12152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -11585,7 +12226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E251"/>
   <sheetViews>
@@ -15872,213 +16513,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="19.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.83203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.1640625" style="16" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16">
-      <c r="A1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16">
-      <c r="A2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8082732588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16">
-      <c r="A3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8082732588</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16">
-      <c r="A4" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8082732588</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16">
-      <c r="A5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8082732588</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/excels/NG.xlsx
+++ b/resources/excels/NG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E075DE5-4EF9-5E47-AE5B-43102491F787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5836A681-7BBA-8544-936D-9FCBCEAF2699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="620" windowWidth="30720" windowHeight="17520" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="620" windowWidth="30720" windowHeight="17520" firstSheet="13" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="1431">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4458,15 +4458,6 @@
   </si>
   <si>
     <t>invalidMsisdn</t>
-  </si>
-  <si>
-    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
-  </si>
-  <si>
-    <t>Last Data Bundle Recharge Amount in 2 months</t>
-  </si>
-  <si>
-    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
   </si>
   <si>
     <t>Loan ID</t>
@@ -4548,7 +4539,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4630,12 +4621,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4813,7 +4798,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4880,14 +4865,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -5853,7 +5835,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -5942,9 +5924,7 @@
       <c r="I2" s="21" t="s">
         <v>1228</v>
       </c>
-      <c r="J2" s="43" t="s">
-        <v>1406</v>
-      </c>
+      <c r="J2" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6656,10 +6636,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -6827,14 +6807,6 @@
       </c>
       <c r="C15" s="30" t="s">
         <v>1336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="34">
-      <c r="A16" s="44" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>1408</v>
       </c>
     </row>
   </sheetData>
@@ -7156,22 +7128,22 @@
       <c r="A11" s="24" t="s">
         <v>1158</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F11" s="45" t="s">
         <v>1409</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="45" t="s">
         <v>1130</v>
       </c>
       <c r="H11" s="22"/>
@@ -7815,29 +7787,29 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="18">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>1413</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="E2" s="48" t="s">
         <v>1414</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="AV2" s="49" t="s">
         <v>1415</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="AW2" s="49" t="s">
         <v>1416</v>
       </c>
-      <c r="E2" s="49" t="s">
-        <v>1417</v>
-      </c>
-      <c r="AV2" s="50" t="s">
-        <v>1418</v>
-      </c>
-      <c r="AW2" s="50" t="s">
-        <v>1419</v>
-      </c>
-      <c r="BE2" s="50" t="s">
-        <v>1418</v>
+      <c r="BE2" s="49" t="s">
+        <v>1415</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>50</v>
@@ -7874,16 +7846,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16">
       <c r="A1" s="12" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>1420</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>1423</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>34</v>
@@ -7892,28 +7864,28 @@
         <v>35</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
-      <c r="A2" s="50" t="s">
-        <v>1417</v>
+      <c r="A2" s="49" t="s">
+        <v>1414</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="50" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="49" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="49" t="s">
         <v>54</v>
       </c>
       <c r="H2" s="12">
@@ -7930,7 +7902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856C5AAD-FC1B-894A-B609-23D7A54F7BCA}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:R2"/>
     </sheetView>
   </sheetViews>
@@ -7938,28 +7910,28 @@
   <sheetData>
     <row r="1" spans="1:18" ht="16">
       <c r="A1" s="12" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>1426</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="22" t="s">
         <v>1427</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>1428</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>1429</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>1430</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>1431</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>1432</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>32</v>
@@ -7985,16 +7957,16 @@
       <c r="P1" s="12" t="s">
         <v>1109</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="50" t="s">
         <v>1110</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16">
-      <c r="A2" s="50" t="s">
-        <v>1417</v>
+      <c r="A2" s="49" t="s">
+        <v>1414</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -8003,8 +7975,8 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="50" t="s">
-        <v>1418</v>
+      <c r="I2" s="49" t="s">
+        <v>1415</v>
       </c>
       <c r="J2" s="16">
         <v>0.6</v>
